--- a/feed_converted.xlsx
+++ b/feed_converted.xlsx
@@ -4002,656 +4002,656 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>101 красно-белая роза - 60 см - Атласная лента</t>
+          <t>25 Роз Премиум в оформлении - 60 см</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>24590</v>
-      </c>
-      <c r="C163" t="inlineStr"/>
+        <v>6800</v>
+      </c>
+      <c r="C163" t="n">
+        <v>7800</v>
+      </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3831-3066-4439-b961-663663623165/29975434.jpg</t>
+          <t>https://static.tildacdn.com/stor3736-6232-4930-b438-303165643933/38373375.jpg</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-461595881361-101-krasno-belaya-roza?editionuid=478488702861</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-472980179331-25-roz-premium-v-oformlenii?editionuid=120293941621</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>101 красно-белая роза - 60 см - Матовая бумага</t>
+          <t>25 красно-белых роз в оформлении - 60 см</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>24990</v>
-      </c>
-      <c r="C164" t="inlineStr"/>
+        <v>6800</v>
+      </c>
+      <c r="C164" t="n">
+        <v>7800</v>
+      </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6362-3662-4063-a164-636263353730/41852469.jpg</t>
+          <t>https://static.tildacdn.com/stor3964-6438-4238-a635-313134306536/28552846.jpg</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-461595881361-101-krasno-belaya-roza?editionuid=658675482971</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-710052950101-25-krasno-belih-roz-v-oformlenii?editionuid=111716594231</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>25 Роз Премиум в оформлении - 60 см</t>
+          <t>21 красная роза - 60 см - Атласная лента</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>6800</v>
+        <v>5600</v>
       </c>
       <c r="C165" t="n">
         <v>7800</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3736-6232-4930-b438-303165643933/38373375.jpg</t>
+          <t>https://static.tildacdn.com/tild3436-6234-4437-b364-656135353762/9186860A-309D-45B2-A.JPG</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-472980179331-25-roz-premium-v-oformlenii?editionuid=120293941621</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-264521907571-21-krasnaya-roza?editionuid=679979674191</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>25 красно-белых роз в оформлении - 60 см</t>
+          <t>21 красная роза - 45 см - Атласная лента</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>6800</v>
+        <v>3500</v>
       </c>
       <c r="C166" t="n">
-        <v>7800</v>
+        <v>6300</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3964-6438-4238-a635-313134306536/28552846.jpg</t>
+          <t>https://static.tildacdn.com/tild3436-6234-4437-b364-656135353762/9186860A-309D-45B2-A.JPG</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-710052950101-25-krasno-belih-roz-v-oformlenii?editionuid=111716594231</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-264521907571-21-krasnaya-roza?editionuid=688291434032</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>21 красная роза - 60 см - Атласная лента</t>
+          <t>51 розовая роза - 60 см</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>5600</v>
+        <v>12590</v>
       </c>
       <c r="C167" t="n">
-        <v>7800</v>
+        <v>16500</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/tild3436-6234-4437-b364-656135353762/9186860A-309D-45B2-A.JPG</t>
+          <t>https://static.tildacdn.com/tild3434-6137-4538-b861-386430633162/A14C231B-75DB-4B7B-B.JPG</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-264521907571-21-krasnaya-roza?editionuid=679979674191</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-289807833441-51-rozovaya-roza?editionuid=895253955391</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>21 красная роза - 45 см - Атласная лента</t>
+          <t>15 Розовых роз Премиум в упаковке - 60 см</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>3500</v>
+        <v>4300</v>
       </c>
       <c r="C168" t="n">
-        <v>6300</v>
+        <v>5700</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/tild3436-6234-4437-b364-656135353762/9186860A-309D-45B2-A.JPG</t>
+          <t>https://static.tildacdn.com/stor3562-6666-4866-a631-386530363233/69119634.jpg</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-264521907571-21-krasnaya-roza?editionuid=688291434032</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-873229231971-15-rozovih-roz-premium-v-upakovke?editionuid=530062772641</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>51 розовая роза - 60 см</t>
+          <t>51 роза микс в крафте - 60 см</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>12590</v>
-      </c>
-      <c r="C169" t="n">
-        <v>16500</v>
-      </c>
+        <v>12990</v>
+      </c>
+      <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/tild3434-6137-4538-b861-386430633162/A14C231B-75DB-4B7B-B.JPG</t>
+          <t>https://static.tildacdn.com/tild6136-3162-4138-b562-653731633664/FullSizeRender_4.jpg</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-289807833441-51-rozovaya-roza?editionuid=895253955391</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-967517048271-51-roza-miks-v-krafte?editionuid=514113565101</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>15 Розовых роз Премиум в упаковке - 60 см</t>
+          <t>25 красных роз с оформлением - 45 см - Матовая бумага</t>
         </is>
       </c>
       <c r="B170" t="n">
         <v>4300</v>
       </c>
-      <c r="C170" t="n">
-        <v>5700</v>
-      </c>
+      <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3562-6666-4866-a631-386530363233/69119634.jpg</t>
+          <t>https://static.tildacdn.com/stor3039-3630-4532-b162-663934303666/14539145.jpg</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-873229231971-15-rozovih-roz-premium-v-upakovke?editionuid=530062772641</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-408230011221-25-krasnih-roz-s-oformleniem?editionuid=337910530012</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>151 роза в корзине - 60 см</t>
+          <t>25 красных роз с оформлением - 60 см - Матовая бумага</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>45500</v>
-      </c>
-      <c r="C171" t="n">
-        <v>49000</v>
-      </c>
+        <v>6800</v>
+      </c>
+      <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/tild6165-3739-4434-a665-333030326661/FB82831F-C808-44E7-9.JPG</t>
+          <t>https://static.tildacdn.com/stor3039-3630-4532-b162-663934303666/14539145.jpg</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-445760300561-151-roza-v-korzine?editionuid=488917405081</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-408230011221-25-krasnih-roz-s-oformleniem?editionuid=487855233192</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>151 роза в корзине - 45 см</t>
+          <t>301 роза в корзине - 60 см</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>18990</v>
-      </c>
-      <c r="C172" t="n">
-        <v>39000</v>
-      </c>
+        <v>65500</v>
+      </c>
+      <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/tild6165-3739-4434-a665-333030326661/FB82831F-C808-44E7-9.JPG</t>
+          <t>https://static.tildacdn.com/tild6264-3131-4432-b439-646133646133/FullSizeRender_15.jpg</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-445760300561-151-roza-v-korzine?editionuid=502662350182</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-497806958801-301-roza-v-korzine?editionuid=223226228751</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>51 роза микс в крафте - 60 см</t>
+          <t>301 роза в корзине - 45 см</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>12990</v>
+        <v>32500</v>
       </c>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/tild6136-3162-4138-b562-653731633664/FullSizeRender_4.jpg</t>
+          <t>https://static.tildacdn.com/tild6264-3131-4432-b439-646133646133/FullSizeRender_15.jpg</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-967517048271-51-roza-miks-v-krafte?editionuid=514113565101</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-497806958801-301-roza-v-korzine?editionuid=629056511182</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>25 красных роз с оформлением - 45 см - Матовая бумага</t>
+          <t>11 красных роз в крафте - 60 см</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>4300</v>
+        <v>3300</v>
       </c>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3039-3630-4532-b162-663934303666/14539145.jpg</t>
+          <t>https://static.tildacdn.com/stor6165-3131-4534-b835-626436616161/69433641.jpg</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-408230011221-25-krasnih-roz-s-oformleniem?editionuid=337910530012</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-759057751351-11-krasnih-roz-v-krafte?editionuid=402736727631</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>25 красных роз с оформлением - 60 см - Матовая бумага</t>
+          <t>11 красных роз в крафте - 45 см</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>6800</v>
+        <v>2200</v>
       </c>
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3039-3630-4532-b162-663934303666/14539145.jpg</t>
+          <t>https://static.tildacdn.com/stor6165-3131-4534-b835-626436616161/69433641.jpg</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-408230011221-25-krasnih-roz-s-oformleniem?editionuid=487855233192</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-759057751351-11-krasnih-roz-v-krafte?editionuid=249699223652</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>301 роза в корзине - 60 см</t>
+          <t>15 красных роз в оформлении - 60 см</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>65500</v>
-      </c>
-      <c r="C176" t="inlineStr"/>
+        <v>4800</v>
+      </c>
+      <c r="C176" t="n">
+        <v>5900</v>
+      </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/tild6264-3131-4432-b439-646133646133/FullSizeRender_15.jpg</t>
+          <t>https://static.tildacdn.com/stor3064-6136-4337-b266-643035643563/47190425.jpg</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-497806958801-301-roza-v-korzine?editionuid=223226228751</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-714746659301-15-krasnih-roz-v-oformlenii?editionuid=535172836301</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>301 роза в корзине - 45 см</t>
+          <t>15 красных роз в оформлении - 45 см</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>32500</v>
-      </c>
-      <c r="C177" t="inlineStr"/>
+        <v>2350</v>
+      </c>
+      <c r="C177" t="n">
+        <v>3500</v>
+      </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/tild6264-3131-4432-b439-646133646133/FullSizeRender_15.jpg</t>
+          <t>https://static.tildacdn.com/stor3064-6136-4337-b266-643035643563/47190425.jpg</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-497806958801-301-roza-v-korzine?editionuid=629056511182</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-714746659301-15-krasnih-roz-v-oformlenii?editionuid=807893800812</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>11 красных роз в крафте - 60 см</t>
+          <t>25 кремовых роз в упаковке - 60 см</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>3300</v>
+        <v>6800</v>
       </c>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6165-3131-4534-b835-626436616161/69433641.jpg</t>
+          <t>https://static.tildacdn.com/stor3530-3437-4165-b166-393339663536/27441782.jpg</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-759057751351-11-krasnih-roz-v-krafte?editionuid=402736727631</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-633761680771-25-kremovih-roz-v-upakovke?editionuid=166403618581</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>11 красных роз в крафте - 45 см</t>
+          <t>Букет КЛАССИКА</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>2200</v>
+        <v>3500</v>
       </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6165-3131-4534-b835-626436616161/69433641.jpg</t>
+          <t>https://static.tildacdn.com/stor6362-3466-4262-b537-646161643436/11667921.jpg</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-759057751351-11-krasnih-roz-v-krafte?editionuid=249699223652</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-759586080041-buket-klassika</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>15 красных роз в оформлении - 60 см</t>
+          <t>25 красных роз в крафте - 60 см</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>4800</v>
-      </c>
-      <c r="C180" t="n">
-        <v>5900</v>
-      </c>
+        <v>6800</v>
+      </c>
+      <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3064-6136-4337-b266-643035643563/47190425.jpg</t>
+          <t>https://static.tildacdn.com/tild3237-6636-4231-b662-303234643233/FullSizeRender.jpg</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-714746659301-15-krasnih-roz-v-oformlenii?editionuid=535172836301</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-273635666921-25-krasnih-roz-v-krafte?editionuid=757664759951</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>15 красных роз в оформлении - 45 см</t>
+          <t>25 красных роз в крафте - 45 см</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>2350</v>
-      </c>
-      <c r="C181" t="n">
-        <v>3500</v>
-      </c>
+        <v>4300</v>
+      </c>
+      <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3064-6136-4337-b266-643035643563/47190425.jpg</t>
+          <t>https://static.tildacdn.com/tild3237-6636-4231-b662-303234643233/FullSizeRender.jpg</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-714746659301-15-krasnih-roz-v-oformlenii?editionuid=807893800812</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-273635666921-25-krasnih-roz-v-krafte?editionuid=654345431912</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>25 кремовых роз в упаковке - 60 см</t>
+          <t>21 красная роза в цветной коробке</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>6800</v>
-      </c>
-      <c r="C182" t="inlineStr"/>
+        <v>7300</v>
+      </c>
+      <c r="C182" t="n">
+        <v>8700</v>
+      </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3530-3437-4165-b166-393339663536/27441782.jpg</t>
+          <t>https://static.tildacdn.com/tild6661-3763-4866-a530-333563333863/60558C1C-4284-4D41-A.JPG</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-633761680771-25-kremovih-roz-v-upakovke?editionuid=166403618581</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-887039306391-21-krasnaya-roza-v-tsvetnoi-korobke</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Букет КЛАССИКА</t>
+          <t>25 красных роз в коробке</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>3500</v>
-      </c>
-      <c r="C183" t="inlineStr"/>
+        <v>8800</v>
+      </c>
+      <c r="C183" t="n">
+        <v>11000</v>
+      </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6362-3466-4262-b537-646161643436/11667921.jpg</t>
+          <t>https://static.tildacdn.com/tild6163-3466-4231-b833-303730383136/FCA8C57F-F641-4EA7-8.JPG</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-759586080041-buket-klassika</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-395916445391-25-krasnih-roz-v-korobke</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>25 красных роз в крафте - 60 см</t>
+          <t>101 красная роза - 60 см - Атласная лента</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>6800</v>
-      </c>
-      <c r="C184" t="inlineStr"/>
+        <v>24590</v>
+      </c>
+      <c r="C184" t="n">
+        <v>35500</v>
+      </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/tild3237-6636-4231-b662-303234643233/FullSizeRender.jpg</t>
+          <t>https://static.tildacdn.com/tild6361-6636-4266-b062-353966373435/4BC02103-219A-4F95-B.JPG</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-273635666921-25-krasnih-roz-v-krafte?editionuid=757664759951</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-424784503001-101-krasnaya-roza?editionuid=394239337111</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>25 красных роз в крафте - 45 см</t>
+          <t>101 красная роза - 60 см - Матова бумага</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>4300</v>
-      </c>
-      <c r="C185" t="inlineStr"/>
+        <v>24990</v>
+      </c>
+      <c r="C185" t="n">
+        <v>35500</v>
+      </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/tild3237-6636-4231-b662-303234643233/FullSizeRender.jpg</t>
+          <t>https://static.tildacdn.com/stor3865-3331-4230-b632-303034313365/14531374.jpg</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-273635666921-25-krasnih-roz-v-krafte?editionuid=654345431912</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-424784503001-101-krasnaya-roza?editionuid=427549884841</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>21 красная роза в цветной коробке</t>
+          <t>101 красная роза - 45 см - Атласная лента</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>7300</v>
+        <v>15500</v>
       </c>
       <c r="C186" t="n">
-        <v>8700</v>
+        <v>15300</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/tild6661-3763-4866-a530-333563333863/60558C1C-4284-4D41-A.JPG</t>
+          <t>https://static.tildacdn.com/stor3865-3331-4230-b632-303034313365/14531374.jpg</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-887039306391-21-krasnaya-roza-v-tsvetnoi-korobke</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-424784503001-101-krasnaya-roza?editionuid=969262113402</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>25 красных роз в коробке</t>
+          <t>101 красная роза - 45 см - Матова бумага</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>8800</v>
+        <v>15900</v>
       </c>
       <c r="C187" t="n">
-        <v>11000</v>
+        <v>15500</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/tild6163-3466-4231-b833-303730383136/FCA8C57F-F641-4EA7-8.JPG</t>
+          <t>https://static.tildacdn.com/stor3230-3162-4833-b438-613736306365/81439031.jpg</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-395916445391-25-krasnih-roz-v-korobke</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-424784503001-101-krasnaya-roza?editionuid=904803933062</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>101 красная роза - 60 см - Атласная лента</t>
+          <t>Охапка кустовых роз - 11 - Крафт-бумага</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>24590</v>
+        <v>3850</v>
       </c>
       <c r="C188" t="n">
-        <v>35500</v>
+        <v>4200</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/tild6361-6636-4266-b062-353966373435/4BC02103-219A-4F95-B.JPG</t>
+          <t>https://static.tildacdn.com/stor3036-6330-4837-a665-343235393661/51200796.jpg</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-424784503001-101-krasnaya-roza?editionuid=394239337111</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-677638530321-ohapka-kustovih-roz?editionuid=948128002611</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>101 красная роза - 60 см - Матова бумага</t>
+          <t>Охапка кустовых роз - 11 - Матовая бумага</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>24990</v>
+        <v>3850</v>
       </c>
       <c r="C189" t="n">
-        <v>35500</v>
+        <v>4200</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3865-3331-4230-b632-303034313365/14531374.jpg</t>
+          <t>https://static.tildacdn.com/stor3565-3661-4465-b530-353638393762/21409363.jpg</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-424784503001-101-krasnaya-roza?editionuid=427549884841</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-677638530321-ohapka-kustovih-roz?editionuid=786174189071</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>101 красная роза - 45 см - Атласная лента</t>
+          <t>Охапка кустовых роз - 15 - Крафт-бумага</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>15500</v>
+        <v>5100</v>
       </c>
       <c r="C190" t="n">
-        <v>15300</v>
+        <v>6900</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3865-3331-4230-b632-303034313365/14531374.jpg</t>
+          <t>https://static.tildacdn.com/stor3036-6330-4837-a665-343235393661/51200796.jpg</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-424784503001-101-krasnaya-roza?editionuid=969262113402</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-677638530321-ohapka-kustovih-roz?editionuid=187164980561</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>101 красная роза - 45 см - Матова бумага</t>
+          <t>Охапка кустовых роз - 15 - Матовая бумага</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>15900</v>
-      </c>
-      <c r="C191" t="n">
-        <v>15500</v>
-      </c>
+        <v>5100</v>
+      </c>
+      <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3230-3162-4833-b438-613736306365/81439031.jpg</t>
+          <t>https://static.tildacdn.com/stor3036-6330-4837-a665-343235393661/51200796.jpg</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-424784503001-101-krasnaya-roza?editionuid=904803933062</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-677638530321-ohapka-kustovih-roz?editionuid=764558635881</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Охапка кустовых роз - 11 - Крафт-бумага</t>
+          <t>Охапка кустовых роз - 21 - Крафт-бумага</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>3850</v>
-      </c>
-      <c r="C192" t="n">
-        <v>4200</v>
-      </c>
+        <v>6950</v>
+      </c>
+      <c r="C192" t="inlineStr"/>
       <c r="D192" t="inlineStr">
         <is>
           <t>https://static.tildacdn.com/stor3036-6330-4837-a665-343235393661/51200796.jpg</t>
@@ -4659,45 +4659,41 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-677638530321-ohapka-kustovih-roz?editionuid=948128002611</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-677638530321-ohapka-kustovih-roz?editionuid=750789294071</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Охапка кустовых роз - 11 - Матовая бумага</t>
+          <t>Охапка кустовых роз - 21 - Матовая бумага</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>3850</v>
-      </c>
-      <c r="C193" t="n">
-        <v>4200</v>
-      </c>
+        <v>6950</v>
+      </c>
+      <c r="C193" t="inlineStr"/>
       <c r="D193" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3565-3661-4465-b530-353638393762/21409363.jpg</t>
+          <t>https://static.tildacdn.com/stor3036-6330-4837-a665-343235393661/51200796.jpg</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-677638530321-ohapka-kustovih-roz?editionuid=786174189071</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-677638530321-ohapka-kustovih-roz?editionuid=620664939261</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Охапка кустовых роз - 15 - Крафт-бумага</t>
+          <t>Охапка кустовых роз - 25 - Крафт-бумага</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>5100</v>
-      </c>
-      <c r="C194" t="n">
-        <v>6900</v>
-      </c>
+        <v>8150</v>
+      </c>
+      <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr">
         <is>
           <t>https://static.tildacdn.com/stor3036-6330-4837-a665-343235393661/51200796.jpg</t>
@@ -4705,18 +4701,18 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-677638530321-ohapka-kustovih-roz?editionuid=187164980561</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-677638530321-ohapka-kustovih-roz?editionuid=755779056751</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Охапка кустовых роз - 15 - Матовая бумага</t>
+          <t>Охапка кустовых роз - 25 - Матовая бумага</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>5100</v>
+        <v>8150</v>
       </c>
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr">
@@ -4726,18 +4722,18 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-677638530321-ohapka-kustovih-roz?editionuid=764558635881</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-677638530321-ohapka-kustovih-roz?editionuid=246611373241</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Охапка кустовых роз - 21 - Крафт-бумага</t>
+          <t>Охапка кустовых роз - 31 - Крафт-бумага</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>6950</v>
+        <v>9950</v>
       </c>
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr">
@@ -4747,18 +4743,18 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-677638530321-ohapka-kustovih-roz?editionuid=750789294071</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-677638530321-ohapka-kustovih-roz?editionuid=739836024611</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Охапка кустовых роз - 21 - Матовая бумага</t>
+          <t>Охапка кустовых роз - 31 - Матовая бумага</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>6950</v>
+        <v>9950</v>
       </c>
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr">
@@ -4768,274 +4764,274 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-677638530321-ohapka-kustovih-roz?editionuid=620664939261</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-677638530321-ohapka-kustovih-roz?editionuid=743147164201</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Охапка кустовых роз - 25 - Крафт-бумага</t>
+          <t>Охапка кустовых роз - 35 - Крафт-бумага</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>8150</v>
+        <v>11150</v>
       </c>
       <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3036-6330-4837-a665-343235393661/51200796.jpg</t>
+          <t>https://static.tildacdn.com/stor3761-3762-4064-b230-666433636133/68638297.jpg</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-677638530321-ohapka-kustovih-roz?editionuid=755779056751</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-677638530321-ohapka-kustovih-roz?editionuid=498886075481</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Охапка кустовых роз - 25 - Матовая бумага</t>
+          <t>Охапка кустовых роз - 35 - Матовая бумага</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>8150</v>
-      </c>
-      <c r="C199" t="inlineStr"/>
+        <v>11150</v>
+      </c>
+      <c r="C199" t="n">
+        <v>11300</v>
+      </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3036-6330-4837-a665-343235393661/51200796.jpg</t>
+          <t>https://static.tildacdn.com/stor6562-3433-4430-a461-373464323365/33695018.jpg</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-677638530321-ohapka-kustovih-roz?editionuid=246611373241</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-677638530321-ohapka-kustovih-roz?editionuid=463622792911</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Охапка кустовых роз - 31 - Крафт-бумага</t>
+          <t>Охапка кустовых роз - 51 - Крафт-бумага</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>9950</v>
+        <v>15990</v>
       </c>
       <c r="C200" t="inlineStr"/>
       <c r="D200" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3036-6330-4837-a665-343235393661/51200796.jpg</t>
+          <t>https://static.tildacdn.com/stor6562-3433-4430-a461-373464323365/33695018.jpg</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-677638530321-ohapka-kustovih-roz?editionuid=739836024611</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-677638530321-ohapka-kustovih-roz?editionuid=984611990561</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Охапка кустовых роз - 31 - Матовая бумага</t>
+          <t>Охапка кустовых роз - 51 - Матовая бумага</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>9950</v>
+        <v>15990</v>
       </c>
       <c r="C201" t="inlineStr"/>
       <c r="D201" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3036-6330-4837-a665-343235393661/51200796.jpg</t>
+          <t>https://static.tildacdn.com/stor6562-3433-4430-a461-373464323365/33695018.jpg</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-677638530321-ohapka-kustovih-roz?editionuid=743147164201</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-677638530321-ohapka-kustovih-roz?editionuid=909075165191</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Охапка кустовых роз - 35 - Крафт-бумага</t>
+          <t>Охапка кустовых роз - 7 - Матовая бумага</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>11150</v>
+        <v>2900</v>
       </c>
       <c r="C202" t="inlineStr"/>
       <c r="D202" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3761-3762-4064-b230-666433636133/68638297.jpg</t>
+          <t>https://static.tildacdn.com/stor3036-6330-4837-a665-343235393661/51200796.jpg</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-677638530321-ohapka-kustovih-roz?editionuid=498886075481</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-677638530321-ohapka-kustovih-roz?editionuid=470941710541</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Охапка кустовых роз - 35 - Матовая бумага</t>
+          <t>Охапка кустовых роз - 9 - Матовая бумага</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>11150</v>
-      </c>
-      <c r="C203" t="n">
-        <v>11300</v>
-      </c>
+        <v>3700</v>
+      </c>
+      <c r="C203" t="inlineStr"/>
       <c r="D203" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6562-3433-4430-a461-373464323365/33695018.jpg</t>
+          <t>https://static.tildacdn.com/stor3736-6561-4338-a665-666566623439/43052787.jpg</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-677638530321-ohapka-kustovih-roz?editionuid=463622792911</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-677638530321-ohapka-kustovih-roz?editionuid=856962373961</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Охапка кустовых роз - 51 - Крафт-бумага</t>
+          <t>15 красно белых роз в оформлении</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>15990</v>
-      </c>
-      <c r="C204" t="inlineStr"/>
+        <v>4300</v>
+      </c>
+      <c r="C204" t="n">
+        <v>6800</v>
+      </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6562-3433-4430-a461-373464323365/33695018.jpg</t>
+          <t>https://static.tildacdn.com/stor3066-6233-4161-b631-633830386163/28152392.jpg</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-677638530321-ohapka-kustovih-roz?editionuid=984611990561</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-218567021051-15-krasno-belih-roz-v-oformlenii</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Охапка кустовых роз - 51 - Матовая бумага</t>
+          <t>Raffaello</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>15990</v>
+        <v>690</v>
       </c>
       <c r="C205" t="inlineStr"/>
       <c r="D205" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6562-3433-4430-a461-373464323365/33695018.jpg</t>
+          <t>https://static.tildacdn.com/tild3639-3232-4663-a539-333335383439/aba7d219_0f07_11e6_9.jpeg</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-677638530321-ohapka-kustovih-roz?editionuid=909075165191</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-608860089361-raffaello</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Охапка кустовых роз - 7 - Матовая бумага</t>
+          <t>Набор из гелиевых шаров микс (12 дюймов) - 15</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="C206" t="inlineStr"/>
       <c r="D206" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3036-6330-4837-a665-343235393661/51200796.jpg</t>
+          <t>https://static.tildacdn.com/tild3238-6338-4631-b665-356537616432/6057122972.jpg</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-677638530321-ohapka-kustovih-roz?editionuid=470941710541</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-970929032081-nabor-iz-gelievih-sharov-miks-12-dyuimov?editionuid=236585268671</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Охапка кустовых роз - 9 - Матовая бумага</t>
+          <t>Набор из гелиевых шаров микс (12 дюймов) - 19</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="C207" t="inlineStr"/>
       <c r="D207" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3736-6561-4338-a665-666566623439/43052787.jpg</t>
+          <t>https://static.tildacdn.com/tild3238-6338-4631-b665-356537616432/6057122972.jpg</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-677638530321-ohapka-kustovih-roz?editionuid=856962373961</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-970929032081-nabor-iz-gelievih-sharov-miks-12-dyuimov?editionuid=258112848201</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>15 красно белых роз в оформлении</t>
+          <t>Набор из гелиевых шаров микс (12 дюймов) - 25</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>4300</v>
-      </c>
-      <c r="C208" t="n">
-        <v>6800</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="C208" t="inlineStr"/>
       <c r="D208" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3066-6233-4161-b631-633830386163/28152392.jpg</t>
+          <t>https://static.tildacdn.com/tild3238-6338-4631-b665-356537616432/6057122972.jpg</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-218567021051-15-krasno-belih-roz-v-oformlenii</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-970929032081-nabor-iz-gelievih-sharov-miks-12-dyuimov?editionuid=865174930451</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Raffaello</t>
+          <t>Набор из гелиевых шаров микс (12 дюймов) - 9</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>690</v>
+        <v>1800</v>
       </c>
       <c r="C209" t="inlineStr"/>
       <c r="D209" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/tild3639-3232-4663-a539-333335383439/aba7d219_0f07_11e6_9.jpeg</t>
+          <t>https://static.tildacdn.com/tild3238-6338-4631-b665-356537616432/6057122972.jpg</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-608860089361-raffaello</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-970929032081-nabor-iz-gelievih-sharov-miks-12-dyuimov?editionuid=639207534271</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Набор из гелиевых шаров микс (12 дюймов) - 15</t>
+          <t>Набор из гелиевых шаров микс (12 дюймов) - 7</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>3000</v>
+        <v>1400</v>
       </c>
       <c r="C210" t="inlineStr"/>
       <c r="D210" t="inlineStr">
@@ -5045,18 +5041,18 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-970929032081-nabor-iz-gelievih-sharov-miks-12-dyuimov?editionuid=236585268671</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-970929032081-nabor-iz-gelievih-sharov-miks-12-dyuimov?editionuid=772143984511</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Набор из гелиевых шаров микс (12 дюймов) - 19</t>
+          <t>Набор из гелиевых шаров микс (12 дюймов) - 5</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>3800</v>
+        <v>1000</v>
       </c>
       <c r="C211" t="inlineStr"/>
       <c r="D211" t="inlineStr">
@@ -5066,102 +5062,102 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-970929032081-nabor-iz-gelievih-sharov-miks-12-dyuimov?editionuid=258112848201</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-970929032081-nabor-iz-gelievih-sharov-miks-12-dyuimov?editionuid=955820451821</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Набор из гелиевых шаров микс (12 дюймов) - 25</t>
+          <t>Набор из гелиевых шаров "С днем рождения" - 15</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="C212" t="inlineStr"/>
       <c r="D212" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/tild3238-6338-4631-b665-356537616432/6057122972.jpg</t>
+          <t>https://static.tildacdn.com/tild6266-3132-4632-b235-333537353730/81400.jpg</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-970929032081-nabor-iz-gelievih-sharov-miks-12-dyuimov?editionuid=865174930451</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-926611977411-nabor-iz-gelievih-sharov-s-dnem-rozhdeni?editionuid=639540432131</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Набор из гелиевых шаров микс (12 дюймов) - 9</t>
+          <t>Набор из гелиевых шаров "С днем рождения" - 19</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>1800</v>
+        <v>3800</v>
       </c>
       <c r="C213" t="inlineStr"/>
       <c r="D213" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/tild3238-6338-4631-b665-356537616432/6057122972.jpg</t>
+          <t>https://static.tildacdn.com/tild6266-3132-4632-b235-333537353730/81400.jpg</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-970929032081-nabor-iz-gelievih-sharov-miks-12-dyuimov?editionuid=639207534271</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-926611977411-nabor-iz-gelievih-sharov-s-dnem-rozhdeni?editionuid=419475097251</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Набор из гелиевых шаров микс (12 дюймов) - 7</t>
+          <t>Набор из гелиевых шаров "С днем рождения" - 25</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>1400</v>
+        <v>5000</v>
       </c>
       <c r="C214" t="inlineStr"/>
       <c r="D214" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/tild3238-6338-4631-b665-356537616432/6057122972.jpg</t>
+          <t>https://static.tildacdn.com/tild6266-3132-4632-b235-333537353730/81400.jpg</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-970929032081-nabor-iz-gelievih-sharov-miks-12-dyuimov?editionuid=772143984511</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-926611977411-nabor-iz-gelievih-sharov-s-dnem-rozhdeni?editionuid=822323827341</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Набор из гелиевых шаров микс (12 дюймов) - 5</t>
+          <t>Набор из гелиевых шаров "С днем рождения" - 31</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>1000</v>
+        <v>6200</v>
       </c>
       <c r="C215" t="inlineStr"/>
       <c r="D215" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/tild3238-6338-4631-b665-356537616432/6057122972.jpg</t>
+          <t>https://static.tildacdn.com/tild6266-3132-4632-b235-333537353730/81400.jpg</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-970929032081-nabor-iz-gelievih-sharov-miks-12-dyuimov?editionuid=955820451821</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-926611977411-nabor-iz-gelievih-sharov-s-dnem-rozhdeni?editionuid=502425687241</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Набор из гелиевых шаров "С днем рождения" - 15</t>
+          <t>Набор из гелиевых шаров "С днем рождения" - 35</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="C216" t="inlineStr"/>
       <c r="D216" t="inlineStr">
@@ -5171,18 +5167,18 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-926611977411-nabor-iz-gelievih-sharov-s-dnem-rozhdeni?editionuid=639540432131</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-926611977411-nabor-iz-gelievih-sharov-s-dnem-rozhdeni?editionuid=930713156991</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Набор из гелиевых шаров "С днем рождения" - 19</t>
+          <t>Набор из гелиевых шаров "С днем рождения" - 9</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>3800</v>
+        <v>1800</v>
       </c>
       <c r="C217" t="inlineStr"/>
       <c r="D217" t="inlineStr">
@@ -5192,18 +5188,18 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-926611977411-nabor-iz-gelievih-sharov-s-dnem-rozhdeni?editionuid=419475097251</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-926611977411-nabor-iz-gelievih-sharov-s-dnem-rozhdeni?editionuid=303371552921</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Набор из гелиевых шаров "С днем рождения" - 25</t>
+          <t>Набор из гелиевых шаров "С днем рождения" - 7</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>5000</v>
+        <v>1400</v>
       </c>
       <c r="C218" t="inlineStr"/>
       <c r="D218" t="inlineStr">
@@ -5213,18 +5209,18 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-926611977411-nabor-iz-gelievih-sharov-s-dnem-rozhdeni?editionuid=822323827341</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-926611977411-nabor-iz-gelievih-sharov-s-dnem-rozhdeni?editionuid=577795209061</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Набор из гелиевых шаров "С днем рождения" - 31</t>
+          <t>Набор из гелиевых шаров "С днем рождения" - 5</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>6200</v>
+        <v>1000</v>
       </c>
       <c r="C219" t="inlineStr"/>
       <c r="D219" t="inlineStr">
@@ -5234,102 +5230,102 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-926611977411-nabor-iz-gelievih-sharov-s-dnem-rozhdeni?editionuid=502425687241</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-926611977411-nabor-iz-gelievih-sharov-s-dnem-rozhdeni?editionuid=345438213191</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Набор из гелиевых шаров "С днем рождения" - 35</t>
+          <t>Набор из гелиевых шаров "Сердце" - 15</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>7000</v>
+        <v>3750</v>
       </c>
       <c r="C220" t="inlineStr"/>
       <c r="D220" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/tild6266-3132-4632-b235-333537353730/81400.jpg</t>
+          <t>https://static.tildacdn.com/tild6665-3432-4339-a462-366437636230/15-serd.jpg</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-926611977411-nabor-iz-gelievih-sharov-s-dnem-rozhdeni?editionuid=930713156991</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-926561766701-nabor-iz-gelievih-sharov-serdtse?editionuid=619806166751</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Набор из гелиевых шаров "С днем рождения" - 9</t>
+          <t>Набор из гелиевых шаров "Сердце" - 19</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>1800</v>
+        <v>4750</v>
       </c>
       <c r="C221" t="inlineStr"/>
       <c r="D221" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/tild6266-3132-4632-b235-333537353730/81400.jpg</t>
+          <t>https://static.tildacdn.com/tild6665-3432-4339-a462-366437636230/15-serd.jpg</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-926611977411-nabor-iz-gelievih-sharov-s-dnem-rozhdeni?editionuid=303371552921</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-926561766701-nabor-iz-gelievih-sharov-serdtse?editionuid=586128610851</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Набор из гелиевых шаров "С днем рождения" - 7</t>
+          <t>Набор из гелиевых шаров "Сердце" - 25</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>1400</v>
+        <v>6350</v>
       </c>
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/tild6266-3132-4632-b235-333537353730/81400.jpg</t>
+          <t>https://static.tildacdn.com/tild6665-3432-4339-a462-366437636230/15-serd.jpg</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-926611977411-nabor-iz-gelievih-sharov-s-dnem-rozhdeni?editionuid=577795209061</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-926561766701-nabor-iz-gelievih-sharov-serdtse?editionuid=161077505461</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Набор из гелиевых шаров "С днем рождения" - 5</t>
+          <t>Набор из гелиевых шаров "Сердце" - 31</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>1000</v>
+        <v>7750</v>
       </c>
       <c r="C223" t="inlineStr"/>
       <c r="D223" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/tild6266-3132-4632-b235-333537353730/81400.jpg</t>
+          <t>https://static.tildacdn.com/tild6665-3432-4339-a462-366437636230/15-serd.jpg</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-926611977411-nabor-iz-gelievih-sharov-s-dnem-rozhdeni?editionuid=345438213191</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-926561766701-nabor-iz-gelievih-sharov-serdtse?editionuid=792649891401</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Набор из гелиевых шаров "Сердце" - 15</t>
+          <t>Набор из гелиевых шаров "Сердце" - 35</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>3750</v>
+        <v>8750</v>
       </c>
       <c r="C224" t="inlineStr"/>
       <c r="D224" t="inlineStr">
@@ -5339,18 +5335,18 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-926561766701-nabor-iz-gelievih-sharov-serdtse?editionuid=619806166751</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-926561766701-nabor-iz-gelievih-sharov-serdtse?editionuid=453147256301</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Набор из гелиевых шаров "Сердце" - 19</t>
+          <t>Набор из гелиевых шаров "Сердце" - 9</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>4750</v>
+        <v>2250</v>
       </c>
       <c r="C225" t="inlineStr"/>
       <c r="D225" t="inlineStr">
@@ -5360,18 +5356,18 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-926561766701-nabor-iz-gelievih-sharov-serdtse?editionuid=586128610851</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-926561766701-nabor-iz-gelievih-sharov-serdtse?editionuid=877347966041</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Набор из гелиевых шаров "Сердце" - 25</t>
+          <t>Набор из гелиевых шаров "Сердце" - 7</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>6350</v>
+        <v>1750</v>
       </c>
       <c r="C226" t="inlineStr"/>
       <c r="D226" t="inlineStr">
@@ -5381,18 +5377,18 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-926561766701-nabor-iz-gelievih-sharov-serdtse?editionuid=161077505461</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-926561766701-nabor-iz-gelievih-sharov-serdtse?editionuid=278948808541</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Набор из гелиевых шаров "Сердце" - 31</t>
+          <t>Набор из гелиевых шаров "Сердце" - 5</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>7750</v>
+        <v>1250</v>
       </c>
       <c r="C227" t="inlineStr"/>
       <c r="D227" t="inlineStr">
@@ -5402,18 +5398,18 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-926561766701-nabor-iz-gelievih-sharov-serdtse?editionuid=792649891401</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-926561766701-nabor-iz-gelievih-sharov-serdtse?editionuid=718188030721</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Набор из гелиевых шаров "Сердце" - 35</t>
+          <t>Набор из гелиевых шаров "Сердце" - 11</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>8750</v>
+        <v>2750</v>
       </c>
       <c r="C228" t="inlineStr"/>
       <c r="D228" t="inlineStr">
@@ -5423,102 +5419,102 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-926561766701-nabor-iz-gelievih-sharov-serdtse?editionuid=453147256301</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-926561766701-nabor-iz-gelievih-sharov-serdtse?editionuid=427414692941</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Набор из гелиевых шаров "Сердце" - 9</t>
+          <t>Набор из фольгированных шаров "Сердце" - 15</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>2250</v>
+        <v>6750</v>
       </c>
       <c r="C229" t="inlineStr"/>
       <c r="D229" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/tild6665-3432-4339-a462-366437636230/15-serd.jpg</t>
+          <t>https://static.tildacdn.com/tild6231-6564-4361-a166-333639636632/5cf673570fff81aae50b.jpg</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-926561766701-nabor-iz-gelievih-sharov-serdtse?editionuid=877347966041</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-717193108191-nabor-iz-folgirovannih-sharov-serdtse?editionuid=302095014001</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Набор из гелиевых шаров "Сердце" - 7</t>
+          <t>Набор из фольгированных шаров "Сердце" - 11</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>1750</v>
+        <v>4950</v>
       </c>
       <c r="C230" t="inlineStr"/>
       <c r="D230" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/tild6665-3432-4339-a462-366437636230/15-serd.jpg</t>
+          <t>https://static.tildacdn.com/tild6231-6564-4361-a166-333639636632/5cf673570fff81aae50b.jpg</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-926561766701-nabor-iz-gelievih-sharov-serdtse?editionuid=278948808541</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-717193108191-nabor-iz-folgirovannih-sharov-serdtse?editionuid=609360827851</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Набор из гелиевых шаров "Сердце" - 5</t>
+          <t>Набор из фольгированных шаров "Сердце" - 9</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>1250</v>
+        <v>4050</v>
       </c>
       <c r="C231" t="inlineStr"/>
       <c r="D231" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/tild6665-3432-4339-a462-366437636230/15-serd.jpg</t>
+          <t>https://static.tildacdn.com/tild6231-6564-4361-a166-333639636632/5cf673570fff81aae50b.jpg</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-926561766701-nabor-iz-gelievih-sharov-serdtse?editionuid=718188030721</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-717193108191-nabor-iz-folgirovannih-sharov-serdtse?editionuid=339334493231</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Набор из гелиевых шаров "Сердце" - 11</t>
+          <t>Набор из фольгированных шаров "Сердце" - 7</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>2750</v>
+        <v>3150</v>
       </c>
       <c r="C232" t="inlineStr"/>
       <c r="D232" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/tild6665-3432-4339-a462-366437636230/15-serd.jpg</t>
+          <t>https://static.tildacdn.com/tild6231-6564-4361-a166-333639636632/5cf673570fff81aae50b.jpg</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-926561766701-nabor-iz-gelievih-sharov-serdtse?editionuid=427414692941</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-717193108191-nabor-iz-folgirovannih-sharov-serdtse?editionuid=760697469671</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Набор из фольгированных шаров "Сердце" - 15</t>
+          <t>Набор из фольгированных шаров "Сердце" - 5</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>6750</v>
+        <v>2250</v>
       </c>
       <c r="C233" t="inlineStr"/>
       <c r="D233" t="inlineStr">
@@ -5528,105 +5524,113 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-717193108191-nabor-iz-folgirovannih-sharov-serdtse?editionuid=302095014001</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-717193108191-nabor-iz-folgirovannih-sharov-serdtse?editionuid=312398033811</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Набор из фольгированных шаров "Сердце" - 11</t>
+          <t>Метровые розы-гиганты - 11 - Атласная лента</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>4950</v>
-      </c>
-      <c r="C234" t="inlineStr"/>
+        <v>4200</v>
+      </c>
+      <c r="C234" t="n">
+        <v>4500</v>
+      </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/tild6231-6564-4361-a166-333639636632/5cf673570fff81aae50b.jpg</t>
+          <t>https://static.tildacdn.com/tild3064-3430-4363-b638-393836633966/666.JPG</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-717193108191-nabor-iz-folgirovannih-sharov-serdtse?editionuid=609360827851</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-716338094361-metrovie-rozi-giganti?editionuid=173933309341</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Набор из фольгированных шаров "Сердце" - 9</t>
+          <t>Метровые розы-гиганты - 15 - Атласная лента</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>4050</v>
-      </c>
-      <c r="C235" t="inlineStr"/>
+        <v>5600</v>
+      </c>
+      <c r="C235" t="n">
+        <v>6100</v>
+      </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/tild6231-6564-4361-a166-333639636632/5cf673570fff81aae50b.jpg</t>
+          <t>https://static.tildacdn.com/tild3064-3430-4363-b638-393836633966/666.JPG</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-717193108191-nabor-iz-folgirovannih-sharov-serdtse?editionuid=339334493231</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-716338094361-metrovie-rozi-giganti?editionuid=716637850171</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Набор из фольгированных шаров "Сердце" - 7</t>
+          <t>Метровые розы-гиганты - 21 - Атласная лента</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>3150</v>
-      </c>
-      <c r="C236" t="inlineStr"/>
+        <v>7700</v>
+      </c>
+      <c r="C236" t="n">
+        <v>8500</v>
+      </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/tild6231-6564-4361-a166-333639636632/5cf673570fff81aae50b.jpg</t>
+          <t>https://static.tildacdn.com/tild3064-3430-4363-b638-393836633966/666.JPG</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-717193108191-nabor-iz-folgirovannih-sharov-serdtse?editionuid=760697469671</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-716338094361-metrovie-rozi-giganti?editionuid=924932493761</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Набор из фольгированных шаров "Сердце" - 5</t>
+          <t>Метровые розы-гиганты - 25 - Атласная лента</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>2250</v>
-      </c>
-      <c r="C237" t="inlineStr"/>
+        <v>9100</v>
+      </c>
+      <c r="C237" t="n">
+        <v>10100</v>
+      </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/tild6231-6564-4361-a166-333639636632/5cf673570fff81aae50b.jpg</t>
+          <t>https://static.tildacdn.com/tild3064-3430-4363-b638-393836633966/666.JPG</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-717193108191-nabor-iz-folgirovannih-sharov-serdtse?editionuid=312398033811</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-716338094361-metrovie-rozi-giganti?editionuid=491246820001</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Метровые розы-гиганты - 11 - Атласная лента</t>
+          <t>Метровые розы-гиганты - 35 - Атласная лента</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>4200</v>
+        <v>12600</v>
       </c>
       <c r="C238" t="n">
-        <v>4500</v>
+        <v>14100</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -5635,22 +5639,20 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-716338094361-metrovie-rozi-giganti?editionuid=173933309341</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-716338094361-metrovie-rozi-giganti?editionuid=295847790471</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Метровые розы-гиганты - 15 - Атласная лента</t>
+          <t>Метровые розы-гиганты - 9 - Атласная лента</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>5600</v>
-      </c>
-      <c r="C239" t="n">
-        <v>6100</v>
-      </c>
+        <v>3700</v>
+      </c>
+      <c r="C239" t="inlineStr"/>
       <c r="D239" t="inlineStr">
         <is>
           <t>https://static.tildacdn.com/tild3064-3430-4363-b638-393836633966/666.JPG</t>
@@ -5658,22 +5660,20 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-716338094361-metrovie-rozi-giganti?editionuid=716637850171</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-716338094361-metrovie-rozi-giganti?editionuid=651331422171</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Метровые розы-гиганты - 21 - Атласная лента</t>
+          <t>Метровые розы-гиганты - 7 - Атласная лента</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>7700</v>
-      </c>
-      <c r="C240" t="n">
-        <v>8500</v>
-      </c>
+        <v>2900</v>
+      </c>
+      <c r="C240" t="inlineStr"/>
       <c r="D240" t="inlineStr">
         <is>
           <t>https://static.tildacdn.com/tild3064-3430-4363-b638-393836633966/666.JPG</t>
@@ -5681,21 +5681,21 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-716338094361-metrovie-rozi-giganti?editionuid=924932493761</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-716338094361-metrovie-rozi-giganti?editionuid=111618763131</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Метровые розы-гиганты - 25 - Атласная лента</t>
+          <t>Метровые розы-гиганты - 51 - Атласная лента</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>9100</v>
+        <v>17690</v>
       </c>
       <c r="C241" t="n">
-        <v>10100</v>
+        <v>18690</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -5704,21 +5704,21 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-716338094361-metrovie-rozi-giganti?editionuid=491246820001</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-716338094361-metrovie-rozi-giganti?editionuid=932669717562</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Метровые розы-гиганты - 35 - Атласная лента</t>
+          <t>Метровые розы-гиганты - 101 - Атласная лента</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>12600</v>
+        <v>34690</v>
       </c>
       <c r="C242" t="n">
-        <v>14100</v>
+        <v>38690</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -5727,106 +5727,102 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-716338094361-metrovie-rozi-giganti?editionuid=295847790471</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-716338094361-metrovie-rozi-giganti?editionuid=920280704782</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Метровые розы-гиганты - 9 - Атласная лента</t>
+          <t>Букет ПЕРВАЯ ЛЕДИ - Посмотреть...</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>3700</v>
+        <v>4990</v>
       </c>
       <c r="C243" t="inlineStr"/>
       <c r="D243" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/tild3064-3430-4363-b638-393836633966/666.JPG</t>
+          <t>https://static.tildacdn.com/stor3533-3366-4163-b764-333731313433/21856218.jpg</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-716338094361-metrovie-rozi-giganti?editionuid=651331422171</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-647668517821-buket-pervaya-ledi</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Метровые розы-гиганты - 7 - Атласная лента</t>
+          <t>Букет ПЕРВАЯ ЛЕДИ - Raffaello (+690 руб)</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>2900</v>
+        <v>5680</v>
       </c>
       <c r="C244" t="inlineStr"/>
       <c r="D244" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/tild3064-3430-4363-b638-393836633966/666.JPG</t>
+          <t>https://static.tildacdn.com/stor3533-3366-4163-b764-333731313433/21856218.jpg</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-716338094361-metrovie-rozi-giganti?editionuid=111618763131</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-647668517821-buket-pervaya-ledi</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Метровые розы-гиганты - 51 - Атласная лента</t>
+          <t>Букет ПЕРВАЯ ЛЕДИ - 5 шаров микс (+1000руб)</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>17690</v>
-      </c>
-      <c r="C245" t="n">
-        <v>18690</v>
-      </c>
+        <v>5990</v>
+      </c>
+      <c r="C245" t="inlineStr"/>
       <c r="D245" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/tild3064-3430-4363-b638-393836633966/666.JPG</t>
+          <t>https://static.tildacdn.com/stor3533-3366-4163-b764-333731313433/21856218.jpg</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-716338094361-metrovie-rozi-giganti?editionuid=932669717562</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-647668517821-buket-pervaya-ledi</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Метровые розы-гиганты - 101 - Атласная лента</t>
+          <t>Букет ПЕРВАЯ ЛЕДИ - 5 шаров "ДР" (+1000 руб)</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>34690</v>
-      </c>
-      <c r="C246" t="n">
-        <v>38690</v>
-      </c>
+        <v>5990</v>
+      </c>
+      <c r="C246" t="inlineStr"/>
       <c r="D246" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/tild3064-3430-4363-b638-393836633966/666.JPG</t>
+          <t>https://static.tildacdn.com/stor3533-3366-4163-b764-333731313433/21856218.jpg</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-716338094361-metrovie-rozi-giganti?editionuid=920280704782</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-647668517821-buket-pervaya-ledi</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Букет ПЕРВАЯ ЛЕДИ - Посмотреть...</t>
+          <t>Букет ПЕРВАЯ ЛЕДИ - 5 шаров "сердце" (+ 1250руб)</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>4990</v>
+        <v>6240</v>
       </c>
       <c r="C247" t="inlineStr"/>
       <c r="D247" t="inlineStr">
@@ -5843,11 +5839,11 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Букет ПЕРВАЯ ЛЕДИ - Raffaello (+690 руб)</t>
+          <t>Букет ПЕРВАЯ ЛЕДИ - Игрушка-медведь (+1300 руб)</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>5680</v>
+        <v>6290</v>
       </c>
       <c r="C248" t="inlineStr"/>
       <c r="D248" t="inlineStr">
@@ -5864,11 +5860,11 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Букет ПЕРВАЯ ЛЕДИ - 5 шаров микс (+1000руб)</t>
+          <t>Букет ПЕРВАЯ ЛЕДИ - Игрушка мишка 110см (+5500руб)</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>5990</v>
+        <v>10490</v>
       </c>
       <c r="C249" t="inlineStr"/>
       <c r="D249" t="inlineStr">
@@ -5885,141 +5881,149 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Букет ПЕРВАЯ ЛЕДИ - 5 шаров "ДР" (+1000 руб)</t>
+          <t>ДОРОГУША</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>5990</v>
-      </c>
-      <c r="C250" t="inlineStr"/>
+        <v>7500</v>
+      </c>
+      <c r="C250" t="n">
+        <v>8500</v>
+      </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3533-3366-4163-b764-333731313433/21856218.jpg</t>
+          <t>https://static.tildacdn.com/stor6333-3666-4836-a665-383364326136/22998316.jpg</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-647668517821-buket-pervaya-ledi</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-441113290851-dorogusha</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Букет ПЕРВАЯ ЛЕДИ - 5 шаров "сердце" (+ 1250руб)</t>
+          <t>Коробка гигант с радужной гипсофилой</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>6240</v>
-      </c>
-      <c r="C251" t="inlineStr"/>
+        <v>9999</v>
+      </c>
+      <c r="C251" t="n">
+        <v>10990</v>
+      </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3533-3366-4163-b764-333731313433/21856218.jpg</t>
+          <t>https://static.tildacdn.com/stor3833-6237-4338-a666-383235363466/62993953.jpg</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-647668517821-buket-pervaya-ledi</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-142634004681-korobka-gigant-s-raduzhnoi-gipsofiloi</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Букет ПЕРВАЯ ЛЕДИ - Игрушка-медведь (+1300 руб)</t>
+          <t>Букет Малиновое вино - Посмотреть...</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>6290</v>
-      </c>
-      <c r="C252" t="inlineStr"/>
+        <v>4650</v>
+      </c>
+      <c r="C252" t="n">
+        <v>5200</v>
+      </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3533-3366-4163-b764-333731313433/21856218.jpg</t>
+          <t>https://static.tildacdn.com/stor3232-3133-4539-a666-346234366262/58274540.jpg</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-647668517821-buket-pervaya-ledi</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-242751418301-buket-malinovoe-vino</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Букет ПЕРВАЯ ЛЕДИ - Игрушка мишка 110см (+5500руб)</t>
+          <t>Букет Малиновое вино - Raffaello (+690 руб)</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>10490</v>
-      </c>
-      <c r="C253" t="inlineStr"/>
+        <v>5340</v>
+      </c>
+      <c r="C253" t="n">
+        <v>5200</v>
+      </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3533-3366-4163-b764-333731313433/21856218.jpg</t>
+          <t>https://static.tildacdn.com/stor3232-3133-4539-a666-346234366262/58274540.jpg</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-647668517821-buket-pervaya-ledi</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-242751418301-buket-malinovoe-vino</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>ДОРОГУША</t>
+          <t>Букет Малиновое вино - 5 шаров микс (+1000руб)</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>7500</v>
+        <v>5650</v>
       </c>
       <c r="C254" t="n">
-        <v>8500</v>
+        <v>5200</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6333-3666-4836-a665-383364326136/22998316.jpg</t>
+          <t>https://static.tildacdn.com/stor3232-3133-4539-a666-346234366262/58274540.jpg</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-441113290851-dorogusha</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-242751418301-buket-malinovoe-vino</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Коробка гигант с радужной гипсофилой</t>
+          <t>Букет Малиновое вино - 5 шаров "ДР" (+1000 руб)</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>9999</v>
+        <v>5650</v>
       </c>
       <c r="C255" t="n">
-        <v>10990</v>
+        <v>5200</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3833-6237-4338-a666-383235363466/62993953.jpg</t>
+          <t>https://static.tildacdn.com/stor3232-3133-4539-a666-346234366262/58274540.jpg</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-142634004681-korobka-gigant-s-raduzhnoi-gipsofiloi</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-242751418301-buket-malinovoe-vino</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Букет Малиновое вино - Посмотреть...</t>
+          <t>Букет Малиновое вино - 5 шаров "сердце" (+ 1250руб)</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>4650</v>
+        <v>5900</v>
       </c>
       <c r="C256" t="n">
         <v>5200</v>
@@ -6038,11 +6042,11 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Букет Малиновое вино - Raffaello (+690 руб)</t>
+          <t>Букет Малиновое вино - Игрушка-медведь (+1300 руб)</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>5340</v>
+        <v>5950</v>
       </c>
       <c r="C257" t="n">
         <v>5200</v>
@@ -6061,11 +6065,11 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Букет Малиновое вино - 5 шаров микс (+1000руб)</t>
+          <t>Букет Малиновое вино - Игрушка мишка 110см (+5500руб)</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>5650</v>
+        <v>10150</v>
       </c>
       <c r="C258" t="n">
         <v>5200</v>
@@ -6084,103 +6088,103 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Букет Малиновое вино - 5 шаров "ДР" (+1000 руб)</t>
+          <t>11альстромерий в оформлении - Посмотреть...</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>5650</v>
+        <v>2500</v>
       </c>
       <c r="C259" t="n">
-        <v>5200</v>
+        <v>2380</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3232-3133-4539-a666-346234366262/58274540.jpg</t>
+          <t>https://static.tildacdn.com/stor6533-6233-4338-b066-333864666262/59764787.jpg</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-242751418301-buket-malinovoe-vino</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-302423702051-11alstromerii-v-oformlenii</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Букет Малиновое вино - 5 шаров "сердце" (+ 1250руб)</t>
+          <t>11альстромерий в оформлении - Raffaello (+690 руб)</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>5900</v>
+        <v>3190</v>
       </c>
       <c r="C260" t="n">
-        <v>5200</v>
+        <v>2380</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3232-3133-4539-a666-346234366262/58274540.jpg</t>
+          <t>https://static.tildacdn.com/stor6533-6233-4338-b066-333864666262/59764787.jpg</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-242751418301-buket-malinovoe-vino</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-302423702051-11alstromerii-v-oformlenii</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Букет Малиновое вино - Игрушка-медведь (+1300 руб)</t>
+          <t>11альстромерий в оформлении - 5 шаров микс (+1000руб)</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>5950</v>
+        <v>3500</v>
       </c>
       <c r="C261" t="n">
-        <v>5200</v>
+        <v>2380</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3232-3133-4539-a666-346234366262/58274540.jpg</t>
+          <t>https://static.tildacdn.com/stor6533-6233-4338-b066-333864666262/59764787.jpg</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-242751418301-buket-malinovoe-vino</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-302423702051-11alstromerii-v-oformlenii</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Букет Малиновое вино - Игрушка мишка 110см (+5500руб)</t>
+          <t>11альстромерий в оформлении - 5 шаров "ДР" (+1000 руб)</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>10150</v>
+        <v>3500</v>
       </c>
       <c r="C262" t="n">
-        <v>5200</v>
+        <v>2380</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3232-3133-4539-a666-346234366262/58274540.jpg</t>
+          <t>https://static.tildacdn.com/stor6533-6233-4338-b066-333864666262/59764787.jpg</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-242751418301-buket-malinovoe-vino</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-302423702051-11alstromerii-v-oformlenii</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>11альстромерий в оформлении - Посмотреть...</t>
+          <t>11альстромерий в оформлении - 5 шаров "сердце" (+ 1250руб)</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>2500</v>
+        <v>3750</v>
       </c>
       <c r="C263" t="n">
         <v>2380</v>
@@ -6199,11 +6203,11 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>11альстромерий в оформлении - Raffaello (+690 руб)</t>
+          <t>11альстромерий в оформлении - Игрушка-медведь (+1300 руб)</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>3190</v>
+        <v>3800</v>
       </c>
       <c r="C264" t="n">
         <v>2380</v>
@@ -6222,11 +6226,11 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>11альстромерий в оформлении - 5 шаров микс (+1000руб)</t>
+          <t>11альстромерий в оформлении - Игрушка мишка 110см (+5500руб)</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="C265" t="n">
         <v>2380</v>
@@ -6245,92 +6249,84 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>11альстромерий в оформлении - 5 шаров "ДР" (+1000 руб)</t>
+          <t>Шары цифры 100см - 1</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>3500</v>
-      </c>
-      <c r="C266" t="n">
-        <v>2380</v>
-      </c>
+        <v>900</v>
+      </c>
+      <c r="C266" t="inlineStr"/>
       <c r="D266" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6533-6233-4338-b066-333864666262/59764787.jpg</t>
+          <t>https://static.tildacdn.com/tild3632-3736-4335-a239-383462336437/Screenshot_20220524-.jpg</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-302423702051-11alstromerii-v-oformlenii</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-483408073161-shari-tsifri-100sm?editionuid=513414707421</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>11альстромерий в оформлении - 5 шаров "сердце" (+ 1250руб)</t>
+          <t>Шары цифры 100см - 1</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>3750</v>
-      </c>
-      <c r="C267" t="n">
-        <v>2380</v>
-      </c>
+        <v>900</v>
+      </c>
+      <c r="C267" t="inlineStr"/>
       <c r="D267" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6533-6233-4338-b066-333864666262/59764787.jpg</t>
+          <t>https://static.tildacdn.com/tild3935-6530-4935-b033-653438643437/Screenshot_20220524-.jpg</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-302423702051-11alstromerii-v-oformlenii</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-483408073161-shari-tsifri-100sm?editionuid=245989871161</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>11альстромерий в оформлении - Игрушка-медведь (+1300 руб)</t>
+          <t>Шары цифры 100см - 1</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>3800</v>
-      </c>
-      <c r="C268" t="n">
-        <v>2380</v>
-      </c>
+        <v>900</v>
+      </c>
+      <c r="C268" t="inlineStr"/>
       <c r="D268" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6533-6233-4338-b066-333864666262/59764787.jpg</t>
+          <t>https://static.tildacdn.com/tild6433-3662-4432-b566-386563373461/Screenshot_20220524-.jpg</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-302423702051-11alstromerii-v-oformlenii</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-483408073161-shari-tsifri-100sm?editionuid=926150789031</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>11альстромерий в оформлении - Игрушка мишка 110см (+5500руб)</t>
+          <t>Шары цифры 100см - 1</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>8000</v>
-      </c>
-      <c r="C269" t="n">
-        <v>2380</v>
-      </c>
+        <v>900</v>
+      </c>
+      <c r="C269" t="inlineStr"/>
       <c r="D269" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6533-6233-4338-b066-333864666262/59764787.jpg</t>
+          <t>https://static.tildacdn.com/tild6632-3338-4032-b065-343265343134/Screenshot_20220524-.jpg</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-302423702051-11alstromerii-v-oformlenii</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-483408073161-shari-tsifri-100sm?editionuid=204966492501</t>
         </is>
       </c>
     </row>
@@ -6346,12 +6342,12 @@
       <c r="C270" t="inlineStr"/>
       <c r="D270" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/tild3632-3736-4335-a239-383462336437/Screenshot_20220524-.jpg</t>
+          <t>https://static.tildacdn.com/tild3338-3134-4333-b166-383833666533/Screenshot_20220524-.jpg</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-483408073161-shari-tsifri-100sm?editionuid=513414707421</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-483408073161-shari-tsifri-100sm?editionuid=541092160971</t>
         </is>
       </c>
     </row>
@@ -6367,12 +6363,12 @@
       <c r="C271" t="inlineStr"/>
       <c r="D271" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/tild3935-6530-4935-b033-653438643437/Screenshot_20220524-.jpg</t>
+          <t>https://static.tildacdn.com/tild3432-3532-4537-b466-636238353865/Screenshot_20220524-.jpg</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-483408073161-shari-tsifri-100sm?editionuid=245989871161</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-483408073161-shari-tsifri-100sm?editionuid=151286241621</t>
         </is>
       </c>
     </row>
@@ -6388,12 +6384,12 @@
       <c r="C272" t="inlineStr"/>
       <c r="D272" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/tild6433-3662-4432-b566-386563373461/Screenshot_20220524-.jpg</t>
+          <t>https://static.tildacdn.com/tild3835-3162-4338-b762-626436663661/Screenshot_20220524-.jpg</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-483408073161-shari-tsifri-100sm?editionuid=926150789031</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-483408073161-shari-tsifri-100sm?editionuid=931128225951</t>
         </is>
       </c>
     </row>
@@ -6409,12 +6405,12 @@
       <c r="C273" t="inlineStr"/>
       <c r="D273" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/tild6632-3338-4032-b065-343265343134/Screenshot_20220524-.jpg</t>
+          <t>https://static.tildacdn.com/tild3563-6461-4264-a533-653264663135/Screenshot_20220524-.jpg</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-483408073161-shari-tsifri-100sm?editionuid=204966492501</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-483408073161-shari-tsifri-100sm?editionuid=505146431881</t>
         </is>
       </c>
     </row>
@@ -6430,12 +6426,12 @@
       <c r="C274" t="inlineStr"/>
       <c r="D274" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/tild3338-3134-4333-b166-383833666533/Screenshot_20220524-.jpg</t>
+          <t>https://static.tildacdn.com/tild3862-3836-4164-a161-386166303965/Screenshot_20220524-.jpg</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-483408073161-shari-tsifri-100sm?editionuid=541092160971</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-483408073161-shari-tsifri-100sm?editionuid=693004566791</t>
         </is>
       </c>
     </row>
@@ -6451,474 +6447,480 @@
       <c r="C275" t="inlineStr"/>
       <c r="D275" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/tild3432-3532-4537-b466-636238353865/Screenshot_20220524-.jpg</t>
+          <t>https://static.tildacdn.com/tild3063-3339-4236-b838-323432633335/Screenshot_20220524-.jpg</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-483408073161-shari-tsifri-100sm?editionuid=151286241621</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-483408073161-shari-tsifri-100sm?editionuid=212065177451</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Шары цифры 100см - 1</t>
+          <t>Комплимент "Куколка"</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="C276" t="inlineStr"/>
       <c r="D276" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/tild3835-3162-4338-b762-626436663661/Screenshot_20220524-.jpg</t>
+          <t>https://static.tildacdn.com/stor6330-3763-4539-b363-343632303661/20514984.jpg</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-483408073161-shari-tsifri-100sm?editionuid=931128225951</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-332537387381-kompliment-kukolka</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Шары цифры 100см - 1</t>
+          <t>Букет НАСТРОЕНИЕ</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>900</v>
+        <v>3690</v>
       </c>
       <c r="C277" t="inlineStr"/>
       <c r="D277" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/tild3563-6461-4264-a533-653264663135/Screenshot_20220524-.jpg</t>
+          <t>https://static.tildacdn.com/stor6462-3534-4462-b933-376264343737/19089090.jpg</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-483408073161-shari-tsifri-100sm?editionuid=505146431881</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-380119168961-buket-nastroenie</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Шары цифры 100см - 1</t>
+          <t>Зефирный - Белые</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>900</v>
-      </c>
-      <c r="C278" t="inlineStr"/>
+        <v>3500</v>
+      </c>
+      <c r="C278" t="n">
+        <v>3500</v>
+      </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/tild3862-3836-4164-a161-386166303965/Screenshot_20220524-.jpg</t>
+          <t>https://static.tildacdn.com/stor6465-3865-4065-b832-666132396634/62621178.jpg</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-483408073161-shari-tsifri-100sm?editionuid=693004566791</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-997928842911-zefirnii?editionuid=323569405822</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Шары цифры 100см - 1</t>
+          <t>Зефирный - Микс</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>900</v>
-      </c>
-      <c r="C279" t="inlineStr"/>
+        <v>3500</v>
+      </c>
+      <c r="C279" t="n">
+        <v>3500</v>
+      </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/tild3063-3339-4236-b838-323432633335/Screenshot_20220524-.jpg</t>
+          <t>https://static.tildacdn.com/stor3265-6265-4531-a138-356639393637/87868104.jpg</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-483408073161-shari-tsifri-100sm?editionuid=212065177451</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-997928842911-zefirnii?editionuid=978085575362</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Комплимент "Куколка"</t>
+          <t>ФРАНЦУЗСКИЙ ХИТ - Нежный</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>3000</v>
-      </c>
-      <c r="C280" t="inlineStr"/>
+        <v>3450</v>
+      </c>
+      <c r="C280" t="n">
+        <v>3800</v>
+      </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6330-3763-4539-b363-343632303661/20514984.jpg</t>
+          <t>https://static.tildacdn.com/stor3764-3061-4535-b035-306430303965/35298752.jpg</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-332537387381-kompliment-kukolka</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-283093013351-frantsuzskii-hit?editionuid=430145379292</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Букет НАСТРОЕНИЕ</t>
+          <t>ФРАНЦУЗСКИЙ ХИТ - Яркие</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>3690</v>
-      </c>
-      <c r="C281" t="inlineStr"/>
+        <v>3550</v>
+      </c>
+      <c r="C281" t="n">
+        <v>3900</v>
+      </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6462-3534-4462-b933-376264343737/19089090.jpg</t>
+          <t>https://static.tildacdn.com/stor3034-3031-4331-b733-356664626131/31576954.jpg</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-380119168961-buket-nastroenie</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-283093013351-frantsuzskii-hit?editionuid=628386621972</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Зефирный - Белые</t>
+          <t>КРЕМ ДЖЕМ С ЭВКАЛИПТОМ</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>3500</v>
-      </c>
-      <c r="C282" t="n">
-        <v>3500</v>
-      </c>
+        <v>3950</v>
+      </c>
+      <c r="C282" t="inlineStr"/>
       <c r="D282" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6465-3865-4065-b832-666132396634/62621178.jpg</t>
+          <t>https://static.tildacdn.com/stor6637-6164-4634-b466-333164313039/56875072.jpg</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-997928842911-zefirnii?editionuid=323569405822</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-766984785531-krem-dzhem-s-evkaliptom</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Зефирный - Микс</t>
+          <t>Летающий Единорожка</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>3500</v>
-      </c>
-      <c r="C283" t="n">
-        <v>3500</v>
-      </c>
+        <v>1400</v>
+      </c>
+      <c r="C283" t="inlineStr"/>
       <c r="D283" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3265-6265-4531-a138-356639393637/87868104.jpg</t>
+          <t>https://static.tildacdn.com/stor3064-3961-4366-b766-326639646432/18447615.jpg</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-997928842911-zefirnii?editionuid=978085575362</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-721499980101-letayuschii-edinorozhka</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Комплимент "ГЛАМУР " - M</t>
+          <t>Мягкий медведь Мишаня</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="C284" t="inlineStr"/>
       <c r="D284" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3037-3037-4331-b032-653532393265/10296532.jpg</t>
+          <t>https://static.tildacdn.com/stor3039-6138-4161-b666-373034636636/35372297.jpg</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-955871926561-kompliment-glamur-?editionuid=767108929642</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-778767705501-myagkii-medved-mishanya</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Комплимент "ГЛАМУР " - L</t>
+          <t>Зайка милашка</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>5800</v>
+        <v>1100</v>
       </c>
       <c r="C285" t="inlineStr"/>
       <c r="D285" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6630-3762-4363-b331-323964366539/21633765.jpg</t>
+          <t>https://static.tildacdn.com/stor6465-3132-4531-b365-363630366634/25068525.jpg</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-955871926561-kompliment-glamur-?editionuid=754884276952</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-594044496021-zaika-milashka</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>КРЕМ ДЖЕМ С ЭВКАЛИПТОМ</t>
+          <t>LOVE IS....</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>3950</v>
+        <v>10990</v>
       </c>
       <c r="C286" t="inlineStr"/>
       <c r="D286" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6637-6164-4634-b466-333164313039/56875072.jpg</t>
+          <t>https://static.tildacdn.com/stor6334-3962-4663-b339-356435346562/91779203.jpg</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-766984785531-krem-dzhem-s-evkaliptom</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-499203730941-love-is</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Летающий Единорожка</t>
+          <t>БУКЕТ "ЛЮБЛЮ" -</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>1400</v>
-      </c>
-      <c r="C287" t="inlineStr"/>
+        <v>16290</v>
+      </c>
+      <c r="C287" t="n">
+        <v>175550</v>
+      </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3064-3961-4366-b766-326639646432/18447615.jpg</t>
+          <t>https://static.tildacdn.com/stor6536-3637-4863-a130-623137613739/27964095.jpg</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-721499980101-letayuschii-edinorozhka</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-594449693621-buket-lyublyu?editionuid=990271714812</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Мягкий медведь Мишаня</t>
+          <t>БУКЕТ "ЛЮБЛЮ" -</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>3500</v>
-      </c>
-      <c r="C288" t="inlineStr"/>
+        <v>8500</v>
+      </c>
+      <c r="C288" t="n">
+        <v>9200</v>
+      </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3039-6138-4161-b666-373034636636/35372297.jpg</t>
+          <t>https://static.tildacdn.com/stor6536-3637-4863-a130-623137613739/27964095.jpg</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-778767705501-myagkii-medved-mishanya</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-594449693621-buket-lyublyu?editionuid=736484317922</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Зайка милашка</t>
+          <t>Букет Красотуля</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>1100</v>
+        <v>3300</v>
       </c>
       <c r="C289" t="inlineStr"/>
       <c r="D289" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6465-3132-4531-b365-363630366634/25068525.jpg</t>
+          <t>https://static.tildacdn.com/stor3235-3531-4231-b735-333535643938/12128252.jpg</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-594044496021-zaika-milashka</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-619538785821-buket-krasotulya</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>LOVE IS....</t>
+          <t>25 белых роз с эвкалиптом</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>10990</v>
-      </c>
-      <c r="C290" t="inlineStr"/>
+        <v>7800</v>
+      </c>
+      <c r="C290" t="n">
+        <v>9750</v>
+      </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6334-3962-4663-b339-356435346562/91779203.jpg</t>
+          <t>https://static.tildacdn.com/stor6530-6132-4064-a332-316230306131/91575755.jpg</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-499203730941-love-is</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-624506536881-25-belih-roz-s-evkaliptom</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>ПРОВАНС</t>
+          <t>Букет орхидей БАБОЧКА</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>4990</v>
+        <v>3750</v>
       </c>
       <c r="C291" t="n">
-        <v>5500</v>
+        <v>4300</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6331-3465-4438-a461-636562623633/78518381.jpg</t>
+          <t>https://static.tildacdn.com/stor3834-6334-4363-b333-613363393661/14233072.jpg</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-728832612721-provans</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-229561542201-buket-orhidei-babochka</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>БУКЕТ "ЛЮБЛЮ" -</t>
+          <t>Букет "Сердце" из роз - 51 - Красный</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>16290</v>
-      </c>
-      <c r="C292" t="n">
-        <v>175550</v>
-      </c>
+        <v>13200</v>
+      </c>
+      <c r="C292" t="inlineStr"/>
       <c r="D292" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6536-3637-4863-a130-623137613739/27964095.jpg</t>
+          <t>https://static.tildacdn.com/stor3265-6563-4066-b333-623131303566/86344649.jpg</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-594449693621-buket-lyublyu?editionuid=990271714812</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-476287490581-buket-serdtse-iz-roz?editionuid=596862368331</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>БУКЕТ "ЛЮБЛЮ" -</t>
+          <t>Букет "Сердце" из роз - 35 - Красный</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>8500</v>
-      </c>
-      <c r="C293" t="n">
-        <v>9200</v>
-      </c>
+        <v>9300</v>
+      </c>
+      <c r="C293" t="inlineStr"/>
       <c r="D293" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6536-3637-4863-a130-623137613739/27964095.jpg</t>
+          <t>https://static.tildacdn.com/stor3730-3736-4134-a134-623235356232/75639760.jpg</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-594449693621-buket-lyublyu?editionuid=736484317922</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-476287490581-buket-serdtse-iz-roz?editionuid=420576792261</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Букет Красотуля</t>
+          <t>Букет "Сердце" из роз - 51 - Белые</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>3300</v>
+        <v>13200</v>
       </c>
       <c r="C294" t="inlineStr"/>
       <c r="D294" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3235-3531-4231-b735-333535643938/12128252.jpg</t>
+          <t>https://static.tildacdn.com/stor6332-3761-4964-b337-633939613039/40797598.jpg</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-619538785821-buket-krasotulya</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-476287490581-buket-serdtse-iz-roz?editionuid=384773199531</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>25 белых роз с эвкалиптом</t>
+          <t>Букет "Сердце" из роз - 35 - Белые</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>7800</v>
+        <v>9300</v>
       </c>
       <c r="C295" t="n">
-        <v>9750</v>
+        <v>11500</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6530-6132-4064-a332-316230306131/91575755.jpg</t>
+          <t>https://static.tildacdn.com/stor6332-3761-4964-b337-633939613039/40797598.jpg</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-624506536881-25-belih-roz-s-evkaliptom</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-476287490581-buket-serdtse-iz-roz?editionuid=310959153071</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Букет орхидей БАБОЧКА</t>
+          <t>Букет "Сердце" из роз - 51 - Пионовидные крем</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>3750</v>
+        <v>15500</v>
       </c>
       <c r="C296" t="n">
-        <v>4300</v>
+        <v>16500</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3834-6334-4363-b333-613363393661/14233072.jpg</t>
+          <t>https://static.tildacdn.com/stor6135-3363-4562-b462-396239336435/10956098.jpg</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-229561542201-buket-orhidei-babochka</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-476287490581-buket-serdtse-iz-roz?editionuid=419923721431</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Букет "Сердце" из роз - 51 - Красный</t>
+          <t>Букет "Сердце" из роз - 51 - Нежные</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -6927,1005 +6929,1001 @@
       <c r="C297" t="inlineStr"/>
       <c r="D297" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3265-6563-4066-b333-623131303566/86344649.jpg</t>
+          <t>https://static.tildacdn.com/stor6530-3433-4738-b166-646364353731/26315844.jpg</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-476287490581-buket-serdtse-iz-roz?editionuid=596862368331</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-476287490581-buket-serdtse-iz-roz?editionuid=131250231871</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Букет "Сердце" из роз - 35 - Красный</t>
+          <t>Букет "Сердце" из роз - 51 - Микс</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>9300</v>
-      </c>
-      <c r="C298" t="inlineStr"/>
+        <v>13200</v>
+      </c>
+      <c r="C298" t="n">
+        <v>14500</v>
+      </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3730-3736-4134-a134-623235356232/75639760.jpg</t>
+          <t>https://static.tildacdn.com/stor6166-3936-4262-b064-303838613332/48226272.jpg</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-476287490581-buket-serdtse-iz-roz?editionuid=420576792261</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-476287490581-buket-serdtse-iz-roz?editionuid=197174543341</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Букет "Сердце" из роз - 51 - Белые</t>
+          <t>Букет "Сердце" из роз - 35 - Микс</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>13200</v>
+        <v>9300</v>
       </c>
       <c r="C299" t="inlineStr"/>
       <c r="D299" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6332-3761-4964-b337-633939613039/40797598.jpg</t>
+          <t>https://static.tildacdn.com/stor6166-3936-4262-b064-303838613332/48226272.jpg</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-476287490581-buket-serdtse-iz-roz?editionuid=384773199531</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-476287490581-buket-serdtse-iz-roz?editionuid=168510316671</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Букет "Сердце" из роз - 35 - Белые</t>
+          <t>Букет "Сердце" из роз - 35 - Нежные</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>9300</v>
-      </c>
-      <c r="C300" t="n">
-        <v>11500</v>
-      </c>
+        <v>9200</v>
+      </c>
+      <c r="C300" t="inlineStr"/>
       <c r="D300" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6332-3761-4964-b337-633939613039/40797598.jpg</t>
+          <t>https://static.tildacdn.com/stor3730-3532-4662-b161-323433393562/67841903.jpg</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-476287490581-buket-serdtse-iz-roz?editionuid=310959153071</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-476287490581-buket-serdtse-iz-roz?editionuid=356370001431</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Букет "Сердце" из роз - 51 - Пионовидные крем</t>
+          <t>Букет ромашек "Модный"</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>15500</v>
+        <v>2800</v>
       </c>
       <c r="C301" t="n">
-        <v>16500</v>
+        <v>3200</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6135-3363-4562-b462-396239336435/10956098.jpg</t>
+          <t>https://static.tildacdn.com/stor3661-3832-4565-b737-636232616363/96239568.jpg</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-476287490581-buket-serdtse-iz-roz?editionuid=419923721431</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-966890057501-buket-romashek-modnii</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Букет "Сердце" из роз - 51 - Нежные</t>
+          <t>ЛАЙК с красными розами</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>13200</v>
+        <v>3500</v>
       </c>
       <c r="C302" t="inlineStr"/>
       <c r="D302" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6530-3433-4738-b166-646364353731/26315844.jpg</t>
+          <t>https://static.tildacdn.com/stor3830-3031-4835-b835-383138636235/22989356.jpg</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-476287490581-buket-serdtse-iz-roz?editionuid=131250231871</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-271548446971-laik-s-krasnimi-rozami</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Букет "Сердце" из роз - 51 - Микс</t>
+          <t>ПИОН РОЗЫ КЕНДИЛАЙТ с роскошным бутоном - 7 - Матовая бумага</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>13200</v>
-      </c>
-      <c r="C303" t="n">
-        <v>14500</v>
-      </c>
+        <v>2650</v>
+      </c>
+      <c r="C303" t="inlineStr"/>
       <c r="D303" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6166-3936-4262-b064-303838613332/48226272.jpg</t>
+          <t>https://static.tildacdn.com/stor6431-3361-4431-b434-346262633764/67610820.jpg</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-476287490581-buket-serdtse-iz-roz?editionuid=197174543341</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-408842247631-pion-rozi-kendilait-s-roskoshnim-butonom?editionuid=685412047851</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Букет "Сердце" из роз - 35 - Микс</t>
+          <t>ПИОН РОЗЫ КЕНДИЛАЙТ с роскошным бутоном - 9 - Матовая бумага</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>9300</v>
+        <v>3250</v>
       </c>
       <c r="C304" t="inlineStr"/>
       <c r="D304" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6166-3936-4262-b064-303838613332/48226272.jpg</t>
+          <t>https://static.tildacdn.com/stor3530-3261-4731-b234-386337616532/43856125.jpg</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-476287490581-buket-serdtse-iz-roz?editionuid=168510316671</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-408842247631-pion-rozi-kendilait-s-roskoshnim-butonom?editionuid=747300906151</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Букет "Сердце" из роз - 35 - Нежные</t>
+          <t>ПИОН РОЗЫ КЕНДИЛАЙТ с роскошным бутоном - 11 - Матовая бумага</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>9200</v>
+        <v>3850</v>
       </c>
       <c r="C305" t="inlineStr"/>
       <c r="D305" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3730-3532-4662-b161-323433393562/67841903.jpg</t>
+          <t>https://static.tildacdn.com/stor6436-3239-4132-b137-306231333036/58018420.jpg</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-476287490581-buket-serdtse-iz-roz?editionuid=356370001431</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-408842247631-pion-rozi-kendilait-s-roskoshnim-butonom?editionuid=112918374101</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Букет ромашек "Модный"</t>
+          <t>ПИОН РОЗЫ КЕНДИЛАЙТ с роскошным бутоном - 15 - Матовая бумага</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>2800</v>
-      </c>
-      <c r="C306" t="n">
-        <v>3200</v>
-      </c>
+        <v>5050</v>
+      </c>
+      <c r="C306" t="inlineStr"/>
       <c r="D306" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3661-3832-4565-b737-636232616363/96239568.jpg</t>
+          <t>https://static.tildacdn.com/stor3764-3935-4162-b661-326239363839/24782806.jpg</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-966890057501-buket-romashek-modnii</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-408842247631-pion-rozi-kendilait-s-roskoshnim-butonom?editionuid=584191326611</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>ЛАЙК с красными розами</t>
+          <t>ПИОН РОЗЫ КЕНДИЛАЙТ с роскошным бутоном - 25 - Матовая бумага</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>3500</v>
+        <v>8250</v>
       </c>
       <c r="C307" t="inlineStr"/>
       <c r="D307" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3830-3031-4835-b835-383138636235/22989356.jpg</t>
+          <t>https://static.tildacdn.com/stor6534-3430-4766-b836-313464656162/12162191.jpg</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-271548446971-laik-s-krasnimi-rozami</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-408842247631-pion-rozi-kendilait-s-roskoshnim-butonom?editionuid=409857313401</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Пион розы Кендилайт с роскошным бутоном - 7 - Матовая бумага</t>
+          <t>ПИОН РОЗЫ КЕНДИЛАЙТ с роскошным бутоном - 35 - Матовая бумага</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>3000</v>
+        <v>11250</v>
       </c>
       <c r="C308" t="inlineStr"/>
       <c r="D308" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6431-3361-4431-b434-346262633764/67610820.jpg</t>
+          <t>https://static.tildacdn.com/stor6261-6633-4938-b362-393762646662/67653659.jpg</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-408842247631-pion-rozi-kendilait-s-roskoshnim-butonom?editionuid=685412047851</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-408842247631-pion-rozi-kendilait-s-roskoshnim-butonom?editionuid=447172835881</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Пион розы Кендилайт с роскошным бутоном - 9 - Матовая бумага</t>
+          <t>ПИОН РОЗЫ КЕНДИЛАЙТ с роскошным бутоном - 51 - Матовая бумага</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>3700</v>
+        <v>15550</v>
       </c>
       <c r="C309" t="inlineStr"/>
       <c r="D309" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3530-3261-4731-b234-386337616532/43856125.jpg</t>
+          <t>https://static.tildacdn.com/stor3065-3436-4637-a539-326138303462/27922432.jpg</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-408842247631-pion-rozi-kendilait-s-roskoshnim-butonom?editionuid=747300906151</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-408842247631-pion-rozi-kendilait-s-roskoshnim-butonom?editionuid=499742739092</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Пион розы Кендилайт с роскошным бутоном - 11 - Матовая бумага</t>
+          <t>ПИОН РОЗЫ КЕНДИЛАЙТ с роскошным бутоном - 101 - Матовая бумага</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>3850</v>
+        <v>28990</v>
       </c>
       <c r="C310" t="inlineStr"/>
       <c r="D310" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6436-3239-4132-b137-306231333036/58018420.jpg</t>
+          <t>https://static.tildacdn.com/stor3065-3436-4637-a539-326138303462/27922432.jpg</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-408842247631-pion-rozi-kendilait-s-roskoshnim-butonom?editionuid=112918374101</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-408842247631-pion-rozi-kendilait-s-roskoshnim-butonom?editionuid=490529641782</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Пион розы Кендилайт с роскошным бутоном - 15 - Матовая бумага</t>
+          <t>Микс "Нежный " - 25 - Матовая бумага</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>5100</v>
+        <v>6700</v>
       </c>
       <c r="C311" t="inlineStr"/>
       <c r="D311" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3764-3935-4162-b661-326239363839/24782806.jpg</t>
+          <t>https://static.tildacdn.com/stor3235-6463-4134-b838-643065393437/42874590.jpg</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-408842247631-pion-rozi-kendilait-s-roskoshnim-butonom?editionuid=584191326611</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-969675948161-miks-nezhnii-?editionuid=144808655921</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Пион розы Кендилайт с роскошным бутоном - 25 - Матовая бумага</t>
+          <t>Микс "Нежный " - 35 - Матовая бумага</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>8250</v>
+        <v>9300</v>
       </c>
       <c r="C312" t="inlineStr"/>
       <c r="D312" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6534-3430-4766-b836-313464656162/12162191.jpg</t>
+          <t>https://static.tildacdn.com/stor3537-6464-4265-a237-376565623661/67652712.jpg</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-408842247631-pion-rozi-kendilait-s-roskoshnim-butonom?editionuid=409857313401</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-969675948161-miks-nezhnii-?editionuid=682095661901</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Пион розы Кендилайт с роскошным бутоном - 35 - Матовая бумага</t>
+          <t>Микс "Нежный " - 51 - Матовая бумага</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>11250</v>
+        <v>12300</v>
       </c>
       <c r="C313" t="inlineStr"/>
       <c r="D313" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6261-6633-4938-b362-393762646662/67653659.jpg</t>
+          <t>https://static.tildacdn.com/stor3230-3565-4330-a533-343835336231/19693626.jpg</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-408842247631-pion-rozi-kendilait-s-roskoshnim-butonom?editionuid=447172835881</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-969675948161-miks-nezhnii-?editionuid=818421126901</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Пион розы Кендилайт с роскошным бутоном - 51 - Матовая бумага</t>
+          <t>Микс "Нежный " - 101 - Матовая бумага</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>15550</v>
+        <v>22999</v>
       </c>
       <c r="C314" t="inlineStr"/>
       <c r="D314" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3065-3436-4637-a539-326138303462/27922432.jpg</t>
+          <t>https://static.tildacdn.com/stor3537-6464-4265-a237-376565623661/67652712.jpg</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-408842247631-pion-rozi-kendilait-s-roskoshnim-butonom?editionuid=499742739092</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-969675948161-miks-nezhnii-?editionuid=339758706201</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Пион розы Кендилайт с роскошным бутоном - 101 - Матовая бумага</t>
+          <t>Микс "Нежный " - 11 - Матовая бумага</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>29999</v>
+        <v>3300</v>
       </c>
       <c r="C315" t="inlineStr"/>
       <c r="D315" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3065-3436-4637-a539-326138303462/27922432.jpg</t>
+          <t>https://static.tildacdn.com/stor6230-3539-4562-b538-353434303535/33043186.jpg</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-408842247631-pion-rozi-kendilait-s-roskoshnim-butonom?editionuid=490529641782</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-969675948161-miks-nezhnii-?editionuid=231105875691</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Микс "Нежный " - 25 - Матовая бумага</t>
+          <t>Микс "Нежный " - 15 - Матовая бумага</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>6700</v>
+        <v>4100</v>
       </c>
       <c r="C316" t="inlineStr"/>
       <c r="D316" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3235-6463-4134-b838-643065393437/42874590.jpg</t>
+          <t>https://static.tildacdn.com/stor6162-6638-4265-a134-666564346264/85360901.jpg</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-969675948161-miks-nezhnii-?editionuid=144808655921</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-969675948161-miks-nezhnii-?editionuid=759439311541</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Микс "Нежный " - 35 - Матовая бумага</t>
+          <t>Букет Белый шоколад</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>9300</v>
-      </c>
-      <c r="C317" t="inlineStr"/>
+        <v>5800</v>
+      </c>
+      <c r="C317" t="n">
+        <v>5900</v>
+      </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3537-6464-4265-a237-376565623661/67652712.jpg</t>
+          <t>https://static.tildacdn.com/stor3531-6333-4436-b830-636438386630/21485586.jpg</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-969675948161-miks-nezhnii-?editionuid=682095661901</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-604610293441-buket-belii-shokolad</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Микс "Нежный " - 51 - Матовая бумага</t>
+          <t>Ажурные розы в коробке</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>12300</v>
+        <v>3800</v>
       </c>
       <c r="C318" t="inlineStr"/>
       <c r="D318" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3230-3565-4330-a533-343835336231/19693626.jpg</t>
+          <t>https://static.tildacdn.com/stor3638-6166-4062-a634-363361633538/95787248.jpg</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-969675948161-miks-nezhnii-?editionuid=818421126901</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-706637499731-azhurnie-rozi-v-korobke</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Микс "Нежный " - 101 - Матовая бумага</t>
+          <t>Комплимент ВАНИЛЬ с ромашками</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>22999</v>
+        <v>2690</v>
       </c>
       <c r="C319" t="inlineStr"/>
       <c r="D319" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3537-6464-4265-a237-376565623661/67652712.jpg</t>
+          <t>https://static.tildacdn.com/stor3361-3566-4639-b964-323030333165/90202533.jpg</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-969675948161-miks-nezhnii-?editionuid=339758706201</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-355408923071-kompliment-vanil-s-romashkami</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Микс "Нежный " - 11 - Матовая бумага</t>
+          <t>Коробка с кустовыми розами</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="C320" t="inlineStr"/>
       <c r="D320" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6230-3539-4562-b538-353434303535/33043186.jpg</t>
+          <t>https://static.tildacdn.com/stor6561-6635-4566-b836-393737636261/47533235.jpg</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-969675948161-miks-nezhnii-?editionuid=231105875691</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-190380899281-korobka-s-kustovimi-rozami</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Микс "Нежный " - 15 - Матовая бумага</t>
+          <t>Дивная Орхидея</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>4100</v>
+        <v>5600</v>
       </c>
       <c r="C321" t="inlineStr"/>
       <c r="D321" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6162-6638-4265-a134-666564346264/85360901.jpg</t>
+          <t>https://static.tildacdn.com/stor6631-3961-4166-a236-343666333130/79650328.jpg</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-969675948161-miks-nezhnii-?editionuid=759439311541</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-399495570211-divnaya-orhideya</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Букет Белый шоколад</t>
+          <t>Коробка "Орхидея "</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>5800</v>
-      </c>
-      <c r="C322" t="n">
-        <v>5900</v>
-      </c>
+        <v>5700</v>
+      </c>
+      <c r="C322" t="inlineStr"/>
       <c r="D322" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3531-6333-4436-b830-636438386630/21485586.jpg</t>
+          <t>https://static.tildacdn.com/stor6531-3062-4739-a365-633930663962/93446831.jpg</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-604610293441-buket-belii-shokolad</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-909950155641-korobka-orhideya-</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Ажурные розы в коробке</t>
+          <t>Букет КРИСТАЛЛ</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>3800</v>
+        <v>6999</v>
       </c>
       <c r="C323" t="inlineStr"/>
       <c r="D323" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3638-6166-4062-a634-363361633538/95787248.jpg</t>
+          <t>https://static.tildacdn.com/stor3366-3065-4265-b239-376235653964/39754072.jpg</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-706637499731-azhurnie-rozi-v-korobke</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-516964640791-buket-kristall</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Комплимент ВАНИЛЬ с ромашками</t>
+          <t>Розовый дым</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>2690</v>
+        <v>13500</v>
       </c>
       <c r="C324" t="inlineStr"/>
       <c r="D324" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3361-3566-4639-b964-323030333165/90202533.jpg</t>
+          <t>https://static.tildacdn.com/stor6161-6139-4462-b233-336561353864/89607982.jpg</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-355408923071-kompliment-vanil-s-romashkami</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-802553109081-rozovii-dim</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Коробка с кустовыми розами</t>
+          <t>Комплимент ПУШ</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>3500</v>
+        <v>1800</v>
       </c>
       <c r="C325" t="inlineStr"/>
       <c r="D325" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6561-6635-4566-b836-393737636261/47533235.jpg</t>
+          <t>https://static.tildacdn.com/stor3434-3066-4762-b833-646330663731/23788964.jpg</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-190380899281-korobka-s-kustovimi-rozami</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-339880785851-kompliment-push</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Дивная Орхидея</t>
+          <t>Комплимент МАРМЕЛАД</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>5600</v>
+        <v>2650</v>
       </c>
       <c r="C326" t="inlineStr"/>
       <c r="D326" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6631-3961-4166-a236-343666333130/79650328.jpg</t>
+          <t>https://static.tildacdn.com/stor3965-3439-4462-b735-636564646463/91567819.jpg</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-399495570211-divnaya-orhideya</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-322995211141-kompliment-marmelad</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Коробка "Орхидея "</t>
+          <t>Шикарная корзина с кустовыми розами</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>5700</v>
-      </c>
-      <c r="C327" t="inlineStr"/>
+        <v>18990</v>
+      </c>
+      <c r="C327" t="n">
+        <v>21500</v>
+      </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6531-3062-4739-a365-633930663962/93446831.jpg</t>
+          <t>https://static.tildacdn.com/stor3938-6432-4138-a266-633765366335/95496298.jpg</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-909950155641-korobka-orhideya-</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-329147948761-shikarnaya-korzina-s-kustovimi-rozami</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Букет КРИСТАЛЛ</t>
+          <t>Букет ароматных лилии в ленту - 3 - Атласная лента</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>6999</v>
+        <v>2350</v>
       </c>
       <c r="C328" t="inlineStr"/>
       <c r="D328" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3366-3065-4265-b239-376235653964/39754072.jpg</t>
+          <t>https://static.tildacdn.com/stor6261-3863-4464-b164-376561333937/27613053.jpg</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-516964640791-buket-kristall</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-854974054121-buket-aromatnih-lilii-v-lentu?editionuid=807760891511</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Розовый дым</t>
+          <t>Букет ароматных лилии в ленту - 5 - Атласная лента</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>13500</v>
+        <v>3850</v>
       </c>
       <c r="C329" t="inlineStr"/>
       <c r="D329" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6161-6139-4462-b233-336561353864/89607982.jpg</t>
+          <t>https://static.tildacdn.com/stor3232-3234-4665-b932-346439353435/70920808.jpg</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-802553109081-rozovii-dim</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-854974054121-buket-aromatnih-lilii-v-lentu?editionuid=935605880011</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Комплимент МАРМЕЛАД</t>
+          <t>Букет ароматных лилии в ленту - 7 - Атласная лента</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>2650</v>
+        <v>5350</v>
       </c>
       <c r="C330" t="inlineStr"/>
       <c r="D330" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3965-3439-4462-b735-636564646463/91567819.jpg</t>
+          <t>https://static.tildacdn.com/stor3266-3865-4235-a261-383438323636/78878017.jpg</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-322995211141-kompliment-marmelad</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-854974054121-buket-aromatnih-lilii-v-lentu?editionuid=621399533081</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Шикарная корзина с кустовыми розами</t>
+          <t>Букет ароматных лилии в ленту - 3 - Матовая бумага</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>18990</v>
-      </c>
-      <c r="C331" t="n">
-        <v>21500</v>
-      </c>
+        <v>2550</v>
+      </c>
+      <c r="C331" t="inlineStr"/>
       <c r="D331" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3938-6432-4138-a266-633765366335/95496298.jpg</t>
+          <t>https://static.tildacdn.com/stor3433-3933-4632-b430-363235313034/58463971.jpg</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-329147948761-shikarnaya-korzina-s-kustovimi-rozami</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-854974054121-buket-aromatnih-lilii-v-lentu?editionuid=428830803781</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Букет ароматных лилии в ленту - 3 - Атласная лента</t>
+          <t>Букет ароматных лилии в ленту - 5 - Матовая бумага</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>2350</v>
+        <v>4250</v>
       </c>
       <c r="C332" t="inlineStr"/>
       <c r="D332" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6261-3863-4464-b164-376561333937/27613053.jpg</t>
+          <t>https://static.tildacdn.com/stor6364-6334-4261-a634-336263636434/83026114.jpg</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-854974054121-buket-aromatnih-lilii-v-lentu?editionuid=807760891511</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-854974054121-buket-aromatnih-lilii-v-lentu?editionuid=507029921911</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Букет ароматных лилии в ленту - 5 - Атласная лента</t>
+          <t>Букет ароматных лилии в ленту - 7 - Матовая бумага</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>3850</v>
+        <v>5900</v>
       </c>
       <c r="C333" t="inlineStr"/>
       <c r="D333" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3232-3234-4665-b932-346439353435/70920808.jpg</t>
+          <t>https://static.tildacdn.com/stor3534-6531-4138-a363-356333643062/85735675.jpg</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-854974054121-buket-aromatnih-lilii-v-lentu?editionuid=935605880011</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-854974054121-buket-aromatnih-lilii-v-lentu?editionuid=330876877451</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Букет ароматных лилии в ленту - 7 - Атласная лента</t>
+          <t>Букет ароматных лилии в ленту - 11 - Атласная лента</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>5350</v>
+        <v>8600</v>
       </c>
       <c r="C334" t="inlineStr"/>
       <c r="D334" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3266-3865-4235-a261-383438323636/78878017.jpg</t>
+          <t>https://static.tildacdn.com/stor6231-6132-4133-b632-656636393735/40808809.jpg</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-854974054121-buket-aromatnih-lilii-v-lentu?editionuid=621399533081</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-854974054121-buket-aromatnih-lilii-v-lentu?editionuid=352141135642</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Букет ароматных лилии в ленту - 3 - Матовая бумага</t>
+          <t>Букет ароматных лилии в ленту - 11 - Матовая бумага</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>2550</v>
+        <v>8990</v>
       </c>
       <c r="C335" t="inlineStr"/>
       <c r="D335" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3433-3933-4632-b430-363235313034/58463971.jpg</t>
+          <t>https://static.tildacdn.com/stor3239-6236-4438-b538-633738336135/85330738.jpg</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-854974054121-buket-aromatnih-lilii-v-lentu?editionuid=428830803781</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-854974054121-buket-aromatnih-lilii-v-lentu?editionuid=444544724772</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Букет ароматных лилии в ленту - 5 - Матовая бумага</t>
+          <t>Букет ароматных лилии в ленту - 15 - Матовая бумага</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>4250</v>
+        <v>11990</v>
       </c>
       <c r="C336" t="inlineStr"/>
       <c r="D336" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6364-6334-4261-a634-336263636434/83026114.jpg</t>
+          <t>https://static.tildacdn.com/stor3239-6236-4438-b538-633738336135/85330738.jpg</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-854974054121-buket-aromatnih-lilii-v-lentu?editionuid=507029921911</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-854974054121-buket-aromatnih-lilii-v-lentu?editionuid=810198608332</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Букет ароматных лилии в ленту - 7 - Матовая бумага</t>
+          <t>Мечта</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>5900</v>
-      </c>
-      <c r="C337" t="inlineStr"/>
+        <v>6500</v>
+      </c>
+      <c r="C337" t="n">
+        <v>6500</v>
+      </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3534-6531-4138-a363-356333643062/85735675.jpg</t>
+          <t>https://static.tildacdn.com/stor6538-3533-4866-b134-646334653462/14245314.jpg</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-854974054121-buket-aromatnih-lilii-v-lentu?editionuid=330876877451</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-831554304821-mechta</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Букет ароматных лилии в ленту - 11 - Атласная лента</t>
+          <t>51 кремовая роза</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>8600</v>
+        <v>12590</v>
       </c>
       <c r="C338" t="inlineStr"/>
       <c r="D338" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6231-6132-4133-b632-656636393735/40808809.jpg</t>
+          <t>https://static.tildacdn.com/stor3063-3966-4136-b735-386133633035/40006718.jpg</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-854974054121-buket-aromatnih-lilii-v-lentu?editionuid=352141135642</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-555099133731-51-kremovaya-roza</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Букет ароматных лилии в ленту - 11 - Матовая бумага</t>
+          <t>Корзина кустовых роз 1</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>8990</v>
-      </c>
-      <c r="C339" t="inlineStr"/>
+        <v>13990</v>
+      </c>
+      <c r="C339" t="n">
+        <v>14990</v>
+      </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3239-6236-4438-b538-633738336135/85330738.jpg</t>
+          <t>https://static.tildacdn.com/stor3661-3663-4137-a566-393037623464/36437121.jpg</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-854974054121-buket-aromatnih-lilii-v-lentu?editionuid=444544724772</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-626227787071-korzina-kustovih-roz-1</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Букет ароматных лилии в ленту - 15 - Матовая бумага</t>
+          <t>Букет пионовидных роз с эвкалиптом - 15</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>11990</v>
+        <v>6400</v>
       </c>
       <c r="C340" t="inlineStr"/>
       <c r="D340" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3239-6236-4438-b538-633738336135/85330738.jpg</t>
+          <t>https://static.tildacdn.com/stor3062-6363-4933-b066-333439363166/16107521.jpg</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-854974054121-buket-aromatnih-lilii-v-lentu?editionuid=810198608332</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-779240055231-buket-pionovidnih-roz-s-evkaliptom?editionuid=708375581471</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Мечта</t>
+          <t>Букет пионовидных роз с эвкалиптом - 25</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>6500</v>
-      </c>
-      <c r="C341" t="n">
-        <v>6500</v>
-      </c>
+        <v>10800</v>
+      </c>
+      <c r="C341" t="inlineStr"/>
       <c r="D341" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6538-3533-4866-b134-646334653462/14245314.jpg</t>
+          <t>https://static.tildacdn.com/stor3062-6363-4933-b066-333439363166/16107521.jpg</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-831554304821-mechta</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-779240055231-buket-pionovidnih-roz-s-evkaliptom?editionuid=997102028441</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>51 кремовая роза</t>
+          <t>Букет пионовидных роз с эвкалиптом - 35</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>12590</v>
+        <v>16500</v>
       </c>
       <c r="C342" t="inlineStr"/>
       <c r="D342" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3063-3966-4136-b735-386133633035/40006718.jpg</t>
+          <t>https://static.tildacdn.com/stor3062-6363-4933-b066-333439363166/16107521.jpg</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-555099133731-51-kremovaya-roza</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-779240055231-buket-pionovidnih-roz-s-evkaliptom?editionuid=585625855371</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Корзина кустовых роз 1</t>
+          <t>Букет пионовидных роз с эвкалиптом - 11</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>13990</v>
-      </c>
-      <c r="C343" t="n">
-        <v>14990</v>
-      </c>
+        <v>5200</v>
+      </c>
+      <c r="C343" t="inlineStr"/>
       <c r="D343" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3661-3663-4137-a566-393037623464/36437121.jpg</t>
+          <t>https://static.tildacdn.com/stor3062-6363-4933-b066-333439363166/16107521.jpg</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-626227787071-korzina-kustovih-roz-1</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-779240055231-buket-pionovidnih-roz-s-evkaliptom?editionuid=976684960222</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Букет пионовидных роз с эвкалиптом - 15</t>
+          <t>Букет пионовидных роз с эвкалиптом - 9</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>6400</v>
+        <v>4400</v>
       </c>
       <c r="C344" t="inlineStr"/>
       <c r="D344" t="inlineStr">
@@ -7935,1538 +7933,1538 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-779240055231-buket-pionovidnih-roz-s-evkaliptom?editionuid=708375581471</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-779240055231-buket-pionovidnih-roz-s-evkaliptom?editionuid=285996858812</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Букет пионовидных роз с эвкалиптом - 25</t>
+          <t>ПИОНОВИДНЫЕ РОЗЫ ЭСПЕРАНС в оформлении - 15</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>10800</v>
-      </c>
-      <c r="C345" t="inlineStr"/>
+        <v>5050</v>
+      </c>
+      <c r="C345" t="n">
+        <v>5500</v>
+      </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3062-6363-4933-b066-333439363166/16107521.jpg</t>
+          <t>https://static.tildacdn.com/stor3165-3932-4861-a531-323836623735/37479800.jpg</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-779240055231-buket-pionovidnih-roz-s-evkaliptom?editionuid=997102028441</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-630572230861-pionovidnie-rozi-esperans-v-oformlenii?editionuid=996141501582</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Букет пионовидных роз с эвкалиптом - 35</t>
+          <t>ПИОНОВИДНЫЕ РОЗЫ ЭСПЕРАНС в оформлении - 25</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>16500</v>
-      </c>
-      <c r="C346" t="inlineStr"/>
+        <v>8250</v>
+      </c>
+      <c r="C346" t="n">
+        <v>9500</v>
+      </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3062-6363-4933-b066-333439363166/16107521.jpg</t>
+          <t>https://static.tildacdn.com/stor3136-6364-4463-b436-653834326437/18587012.jpg</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-779240055231-buket-pionovidnih-roz-s-evkaliptom?editionuid=585625855371</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-630572230861-pionovidnie-rozi-esperans-v-oformlenii?editionuid=204989056352</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Букет пионовидных роз с эвкалиптом - 11</t>
+          <t>ПИОНОВИДНЫЕ РОЗЫ ЭСПЕРАНС в оформлении - 35</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>5200</v>
-      </c>
-      <c r="C347" t="inlineStr"/>
+        <v>11250</v>
+      </c>
+      <c r="C347" t="n">
+        <v>15500</v>
+      </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3062-6363-4933-b066-333439363166/16107521.jpg</t>
+          <t>https://static.tildacdn.com/stor6635-3139-4339-a461-326665396331/67564859.jpg</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-779240055231-buket-pionovidnih-roz-s-evkaliptom?editionuid=976684960222</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-630572230861-pionovidnie-rozi-esperans-v-oformlenii?editionuid=958352563632</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Букет пионовидных роз с эвкалиптом - 9</t>
+          <t>ПИОНОВИДНЫЕ РОЗЫ ЭСПЕРАНС в оформлении - 51</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>4400</v>
-      </c>
-      <c r="C348" t="inlineStr"/>
+        <v>15550</v>
+      </c>
+      <c r="C348" t="n">
+        <v>18200</v>
+      </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3062-6363-4933-b066-333439363166/16107521.jpg</t>
+          <t>https://static.tildacdn.com/stor3337-3966-4535-a635-373930393161/67450178.jpg</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-779240055231-buket-pionovidnih-roz-s-evkaliptom?editionuid=285996858812</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-630572230861-pionovidnie-rozi-esperans-v-oformlenii?editionuid=211503308152</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>ПИОНОВИДНЫЕ РОЗЫ ЭСПЕРАНС в оформлении - 15</t>
+          <t>ПИОНОВИДНЫЕ РОЗЫ ЭСПЕРАНС в оформлении - 101</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>5100</v>
+        <v>27999</v>
       </c>
       <c r="C349" t="n">
-        <v>15500</v>
+        <v>35500</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3165-3932-4861-a531-323836623735/37479800.jpg</t>
+          <t>https://static.tildacdn.com/stor6263-3536-4263-a631-653462343963/77678309.jpg</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-630572230861-pionovidnie-rozi-esperans-v-oformlenii?editionuid=996141501582</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-630572230861-pionovidnie-rozi-esperans-v-oformlenii?editionuid=807594863492</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>ПИОНОВИДНЫЕ РОЗЫ ЭСПЕРАНС в оформлении - 25</t>
+          <t>ПИОНОВИДНЫЕ РОЗЫ ЭСПЕРАНС в оформлении - 9</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>8250</v>
+        <v>3250</v>
       </c>
       <c r="C350" t="n">
-        <v>15500</v>
+        <v>3500</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3136-6364-4463-b436-653834326437/18587012.jpg</t>
+          <t>https://static.tildacdn.com/stor6534-3533-4134-b562-623233306363/74005429.jpg</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-630572230861-pionovidnie-rozi-esperans-v-oformlenii?editionuid=204989056352</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-630572230861-pionovidnie-rozi-esperans-v-oformlenii?editionuid=672364840112</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>ПИОНОВИДНЫЕ РОЗЫ ЭСПЕРАНС в оформлении - 35</t>
+          <t>Вау-букет 151 роза и Большой медведь</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>11250</v>
+        <v>39990</v>
       </c>
       <c r="C351" t="n">
-        <v>15500</v>
+        <v>49999</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6635-3139-4339-a461-326665396331/67564859.jpg</t>
+          <t>https://static.tildacdn.com/stor3031-3464-4438-a530-343839366363/74084416.jpg</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-630572230861-pionovidnie-rozi-esperans-v-oformlenii?editionuid=958352563632</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-694865027691-vau-buket-151-roza-i-bolshoi-medved</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>ПИОНОВИДНЫЕ РОЗЫ ЭСПЕРАНС в оформлении - 51</t>
+          <t>КОРЗИНА РОМАШЕК из хризантем - 9</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>15550</v>
-      </c>
-      <c r="C352" t="n">
-        <v>18200</v>
-      </c>
+        <v>3650</v>
+      </c>
+      <c r="C352" t="inlineStr"/>
       <c r="D352" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3337-3966-4535-a635-373930393161/67450178.jpg</t>
+          <t>https://static.tildacdn.com/stor6462-6261-4231-b161-623838343362/35127181.jpg</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-630572230861-pionovidnie-rozi-esperans-v-oformlenii?editionuid=211503308152</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-174679188781-korzina-romashek-iz-hrizantem?editionuid=456287886831</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>ПИОНОВИДНЫЕ РОЗЫ ЭСПЕРАНС в оформлении - 101</t>
+          <t>КОРЗИНА РОМАШЕК из хризантем - 11</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>29999</v>
-      </c>
-      <c r="C353" t="n">
-        <v>35500</v>
-      </c>
+        <v>4100</v>
+      </c>
+      <c r="C353" t="inlineStr"/>
       <c r="D353" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6263-3536-4263-a631-653462343963/77678309.jpg</t>
+          <t>https://static.tildacdn.com/stor3663-6331-4837-a661-626362363061/94340912.jpg</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-630572230861-pionovidnie-rozi-esperans-v-oformlenii?editionuid=807594863492</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-174679188781-korzina-romashek-iz-hrizantem?editionuid=845116940031</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>ПИОНОВИДНЫЕ РОЗЫ ЭСПЕРАНС в оформлении - 9</t>
+          <t>КОРЗИНА РОМАШЕК из хризантем - 25</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>3700</v>
-      </c>
-      <c r="C354" t="n">
-        <v>35500</v>
-      </c>
+        <v>9100</v>
+      </c>
+      <c r="C354" t="inlineStr"/>
       <c r="D354" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6534-3533-4134-b562-623233306363/74005429.jpg</t>
+          <t>https://static.tildacdn.com/stor6433-3038-4363-a130-353261333636/29689047.jpg</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-630572230861-pionovidnie-rozi-esperans-v-oformlenii?editionuid=672364840112</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-174679188781-korzina-romashek-iz-hrizantem?editionuid=862089508361</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Вау-букет 151 роза и Большой медведь</t>
+          <t>КОРЗИНА РОМАШЕК из хризантем - 51</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>39990</v>
-      </c>
-      <c r="C355" t="n">
-        <v>49999</v>
-      </c>
+        <v>14900</v>
+      </c>
+      <c r="C355" t="inlineStr"/>
       <c r="D355" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3031-3464-4438-a530-343839366363/74084416.jpg</t>
+          <t>https://static.tildacdn.com/stor6433-3038-4363-a130-353261333636/29689047.jpg</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-694865027691-vau-buket-151-roza-i-bolshoi-medved</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-174679188781-korzina-romashek-iz-hrizantem?editionuid=295574500062</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>КОРЗИНА РОМАШЕК из хризантем - 9</t>
+          <t>КОРЗИНА РОМАШЕК из хризантем - 101</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>3650</v>
+        <v>23990</v>
       </c>
       <c r="C356" t="inlineStr"/>
       <c r="D356" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6462-6261-4231-b161-623838343362/35127181.jpg</t>
+          <t>https://static.tildacdn.com/stor3861-3363-4864-b836-663831653462/25298990.jpg</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-174679188781-korzina-romashek-iz-hrizantem?editionuid=456287886831</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-174679188781-korzina-romashek-iz-hrizantem?editionuid=167066001212</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>КОРЗИНА РОМАШЕК из хризантем - 11</t>
+          <t>КОРЗИНА РОМАШЕК из хризантем - 15</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>4100</v>
+        <v>5750</v>
       </c>
       <c r="C357" t="inlineStr"/>
       <c r="D357" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3663-6331-4837-a661-626362363061/94340912.jpg</t>
+          <t>https://static.tildacdn.com/stor3462-3837-4339-b136-373366663565/97529689.jpg</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-174679188781-korzina-romashek-iz-hrizantem?editionuid=845116940031</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-174679188781-korzina-romashek-iz-hrizantem?editionuid=854699513312</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>КОРЗИНА РОМАШЕК из хризантем - 25</t>
+          <t>Корзина люкс</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>9100</v>
-      </c>
-      <c r="C358" t="inlineStr"/>
+        <v>39000</v>
+      </c>
+      <c r="C358" t="n">
+        <v>49990</v>
+      </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6433-3038-4363-a130-353261333636/29689047.jpg</t>
+          <t>https://static.tildacdn.com/stor3665-3335-4462-b738-363535393066/72943061.jpg</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-174679188781-korzina-romashek-iz-hrizantem?editionuid=862089508361</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-832446607671-korzina-lyuks</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>КОРЗИНА РОМАШЕК из хризантем - 51</t>
+          <t>Букет "Улыбка "</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>14900</v>
+        <v>4450</v>
       </c>
       <c r="C359" t="inlineStr"/>
       <c r="D359" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6433-3038-4363-a130-353261333636/29689047.jpg</t>
+          <t>https://static.tildacdn.com/stor3061-3038-4737-a139-323338396665/77387930.jpg</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-174679188781-korzina-romashek-iz-hrizantem?editionuid=295574500062</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-639588006771-buket-ulibka-</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>КОРЗИНА РОМАШЕК из хризантем - 101</t>
+          <t>Букет "Свидание"</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>23990</v>
-      </c>
-      <c r="C360" t="inlineStr"/>
+        <v>6250</v>
+      </c>
+      <c r="C360" t="n">
+        <v>7500</v>
+      </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3861-3363-4864-b836-663831653462/25298990.jpg</t>
+          <t>https://static.tildacdn.com/stor3733-6532-4265-a430-643866626163/43983847.jpg</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-174679188781-korzina-romashek-iz-hrizantem?editionuid=167066001212</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-719554914021-buket-svidanie</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>КОРЗИНА РОМАШЕК из хризантем - 15</t>
+          <t>КОРЗИНА АЛЬСТРОМЕРИИ</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>5750</v>
-      </c>
-      <c r="C361" t="inlineStr"/>
+        <v>12999</v>
+      </c>
+      <c r="C361" t="n">
+        <v>15590</v>
+      </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3462-3837-4339-b136-373366663565/97529689.jpg</t>
+          <t>https://static.tildacdn.com/stor3063-3261-4239-b065-376335323134/13594109.jpg</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-174679188781-korzina-romashek-iz-hrizantem?editionuid=854699513312</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-337767923621-korzina-alstromerii</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Корзина люкс</t>
+          <t>Комплимент "НЕЖНОСТЬ"</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>39000</v>
-      </c>
-      <c r="C362" t="n">
-        <v>49990</v>
-      </c>
+        <v>3650</v>
+      </c>
+      <c r="C362" t="inlineStr"/>
       <c r="D362" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3665-3335-4462-b738-363535393066/72943061.jpg</t>
+          <t>https://static.tildacdn.com/stor3639-3537-4637-b334-343835343030/44921274.jpg</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-832446607671-korzina-lyuks</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-559524591171-kompliment-nezhnost</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Букет "Улыбка "</t>
+          <t>Комплимент "Дюшес"</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>4450</v>
-      </c>
-      <c r="C363" t="inlineStr"/>
+        <v>2450</v>
+      </c>
+      <c r="C363" t="n">
+        <v>2600</v>
+      </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3061-3038-4737-a139-323338396665/77387930.jpg</t>
+          <t>https://static.tildacdn.com/stor3931-3233-4435-a435-613230333733/29080419.jpg</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-639588006771-buket-ulibka-</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-660527432041-kompliment-dyushes</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Букет "Свидание"</t>
+          <t>ИГРУШКА) - Нет</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>6250</v>
-      </c>
-      <c r="C364" t="n">
-        <v>7500</v>
-      </c>
+        <v>3300</v>
+      </c>
+      <c r="C364" t="inlineStr"/>
       <c r="D364" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3733-6532-4265-a430-643866626163/43983847.jpg</t>
+          <t>https://static.tildacdn.com/stor6564-3265-4165-b836-316637653438/14104172.jpg</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-719554914021-buket-svidanie</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-236889112951-igrushka?editionuid=223863406172</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Букет "Милашка"</t>
+          <t>ИГРУШКА) - Да</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>8950</v>
-      </c>
-      <c r="C365" t="n">
-        <v>9990</v>
-      </c>
+        <v>3550</v>
+      </c>
+      <c r="C365" t="inlineStr"/>
       <c r="D365" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3033-6433-4637-b666-346533306135/93848240.jpg</t>
+          <t>https://static.tildacdn.com/stor3361-6263-4639-b237-383237333030/83919482.jpg</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-103213775721-buket-milashka</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-236889112951-igrushka?editionuid=119690417772</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>КОРЗИНА АЛЬСТРОМЕРИИ</t>
+          <t>Букет ПЛОМБИР</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>12999</v>
-      </c>
-      <c r="C366" t="n">
-        <v>15590</v>
-      </c>
+        <v>4100</v>
+      </c>
+      <c r="C366" t="inlineStr"/>
       <c r="D366" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3063-3261-4239-b065-376335323134/13594109.jpg</t>
+          <t>https://static.tildacdn.com/stor6262-6631-4563-a539-666230633333/16075438.jpg</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-337767923621-korzina-alstromerii</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-437576209011-buket-plombir</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Комплимент "Дюшес"</t>
+          <t>Комплимент "КРЕМ"</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>2450</v>
-      </c>
-      <c r="C367" t="n">
-        <v>2600</v>
-      </c>
+        <v>3650</v>
+      </c>
+      <c r="C367" t="inlineStr"/>
       <c r="D367" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3931-3233-4435-a435-613230333733/29080419.jpg</t>
+          <t>https://static.tildacdn.com/stor6430-3531-4135-a633-303931373131/16463170.jpg</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-660527432041-kompliment-dyushes</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-391414887741-kompliment-krem</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>ИГРУШКА) - Нет</t>
+          <t>Мишка-плюш с бантом "M"</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>3300</v>
+        <v>1850</v>
       </c>
       <c r="C368" t="inlineStr"/>
       <c r="D368" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6564-3265-4165-b836-316637653438/14104172.jpg</t>
+          <t>https://static.tildacdn.com/stor3861-3531-4361-b737-646332333164/65839106.jpg</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-236889112951-igrushka?editionuid=223863406172</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-763780152561-mishka-plyush-s-bantom-m</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>ИГРУШКА) - Да</t>
+          <t>Медведь большой Ягодка</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>3550</v>
+        <v>5500</v>
       </c>
       <c r="C369" t="inlineStr"/>
       <c r="D369" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3361-6263-4639-b237-383237333030/83919482.jpg</t>
+          <t>https://static.tildacdn.com/stor3361-3432-4163-b165-616433306430/44526455.jpg</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-236889112951-igrushka?editionuid=119690417772</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-551329556541-medved-bolshoi-yagodka</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Букет ПЛОМБИР</t>
+          <t>Мишка-плюш "S" беж.</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>3900</v>
+        <v>1300</v>
       </c>
       <c r="C370" t="inlineStr"/>
       <c r="D370" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6262-6631-4563-a539-666230633333/16075438.jpg</t>
+          <t>https://static.tildacdn.com/stor3735-3232-4230-b363-303739646231/14667432.jpg</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-437576209011-buket-plombir</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-554350694011-mishka-plyush-s-bezh</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Комплимент "КРЕМ"</t>
+          <t>Мишка-плюш "S" белый</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>3600</v>
+        <v>1300</v>
       </c>
       <c r="C371" t="inlineStr"/>
       <c r="D371" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6430-3531-4135-a633-303931373131/16463170.jpg</t>
+          <t>https://static.tildacdn.com/stor6261-6461-4639-b830-623535303032/54965825.jpg</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-391414887741-kompliment-krem</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-292174636271-mishka-plyush-s-belii</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Мишка-плюш с бантом "M"</t>
+          <t>Букет ГИПНОЗ</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>1850</v>
-      </c>
-      <c r="C372" t="inlineStr"/>
+        <v>6700</v>
+      </c>
+      <c r="C372" t="n">
+        <v>7200</v>
+      </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3861-3531-4361-b737-646332333164/65839106.jpg</t>
+          <t>https://static.tildacdn.com/stor3763-3431-4736-b439-363632386633/37134397.jpg</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-763780152561-mishka-plyush-s-bantom-m</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-362023850031-buket-gipnoz</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Медведь большой Ягодка</t>
+          <t>Коробка "Ангажемент "</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>5500</v>
+        <v>4300</v>
       </c>
       <c r="C373" t="inlineStr"/>
       <c r="D373" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3361-3432-4163-b165-616433306430/44526455.jpg</t>
+          <t>https://static.tildacdn.com/stor6363-3963-4364-a238-633236333363/13028423.jpg</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-551329556541-medved-bolshoi-yagodka</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-359890373941-korobka-angazhement-</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Мишка-плюш "S" беж.</t>
+          <t>Коробка "Ангажемент Лайт"</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>1300</v>
+        <v>4500</v>
       </c>
       <c r="C374" t="inlineStr"/>
       <c r="D374" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3735-3232-4230-b363-303739646231/14667432.jpg</t>
+          <t>https://static.tildacdn.com/stor6537-6664-4833-b033-343662313561/26722422.jpg</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-554350694011-mishka-plyush-s-bezh</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-522766706011-korobka-angazhement-lait</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Мишка-плюш "S" белый</t>
+          <t>51 роза нежный микс в корзине</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>1300</v>
-      </c>
-      <c r="C375" t="inlineStr"/>
+        <v>15750</v>
+      </c>
+      <c r="C375" t="n">
+        <v>18990</v>
+      </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6261-6461-4639-b830-623535303032/54965825.jpg</t>
+          <t>https://static.tildacdn.com/stor3733-3265-4436-a539-626133653530/77569907.jpg</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-292174636271-mishka-plyush-s-belii</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-987092854851-51-roza-nezhnii-miks-v-korzine</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Букет ГИПНОЗ</t>
+          <t>Микс "Нежный "в шляпной коробке</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>6700</v>
+        <v>4500</v>
       </c>
       <c r="C376" t="n">
-        <v>7200</v>
+        <v>4600</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3763-3431-4736-b439-363632386633/37134397.jpg</t>
+          <t>https://static.tildacdn.com/stor3962-3266-4430-b762-613863326537/35194428.jpg</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-362023850031-buket-gipnoz</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-940945779031-miks-nezhnii-v-shlyapnoi-korobke</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Коробка "Ангажемент "</t>
+          <t>"Ванильное небо "в шляпной коробке лучшей маме на свете</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>4300</v>
-      </c>
-      <c r="C377" t="inlineStr"/>
+        <v>3890</v>
+      </c>
+      <c r="C377" t="n">
+        <v>4500</v>
+      </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6363-3963-4364-a238-633236333363/13028423.jpg</t>
+          <t>https://static.tildacdn.com/stor3530-3138-4664-a365-636461383061/29872873.jpg</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-359890373941-korobka-angazhement-</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-654674837331-vanilnoe-nebo-v-shlyapnoi-korobke-luchsh</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Коробка "Ангажемент Лайт"</t>
+          <t>"Ванильное небо "в шляпной коробке</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>4500</v>
+        <v>4999</v>
       </c>
       <c r="C378" t="inlineStr"/>
       <c r="D378" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6537-6664-4833-b033-343662313561/26722422.jpg</t>
+          <t>https://static.tildacdn.com/stor6338-3661-4264-a238-663161626462/86539497.jpg</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-522766706011-korobka-angazhement-lait</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-192732519511-vanilnoe-nebo-v-shlyapnoi-korobke</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>51 роза нежный микс в корзине</t>
+          <t>"Мерилин "</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>15750</v>
+        <v>3650</v>
       </c>
       <c r="C379" t="n">
-        <v>18990</v>
+        <v>3999</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3733-3265-4436-a539-626133653530/77569907.jpg</t>
+          <t>https://static.tildacdn.com/stor6437-3261-4836-b665-353037326231/74437439.jpg</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-987092854851-51-roza-nezhnii-miks-v-korzine</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-570756966211-merilin-</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Микс "Нежный "в шляпной коробке</t>
+          <t>Мон Амур - 25</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>4500</v>
-      </c>
-      <c r="C380" t="n">
-        <v>4600</v>
-      </c>
+        <v>6800</v>
+      </c>
+      <c r="C380" t="inlineStr"/>
       <c r="D380" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3962-3266-4430-b762-613863326537/35194428.jpg</t>
+          <t>https://static.tildacdn.com/stor3564-6238-4537-b331-393231666534/39451674.jpg</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-940945779031-miks-nezhnii-v-shlyapnoi-korobke</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-488774775451-mon-amur?editionuid=330327920391</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>"Ванильное небо "в шляпной коробке лучшей маме на свете</t>
+          <t>Мон Амур - 35</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>3890</v>
-      </c>
-      <c r="C381" t="n">
-        <v>4500</v>
-      </c>
+        <v>9300</v>
+      </c>
+      <c r="C381" t="inlineStr"/>
       <c r="D381" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3530-3138-4664-a365-636461383061/29872873.jpg</t>
+          <t>https://static.tildacdn.com/stor6530-3135-4634-a435-303833653537/62658586.jpg</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-654674837331-vanilnoe-nebo-v-shlyapnoi-korobke-luchsh</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-488774775451-mon-amur?editionuid=460518387891</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>"Ванильное небо "в шляпной коробке</t>
+          <t>Мон Амур - 51</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>4999</v>
-      </c>
-      <c r="C382" t="inlineStr"/>
+        <v>12990</v>
+      </c>
+      <c r="C382" t="n">
+        <v>17750</v>
+      </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6338-3661-4264-a238-663161626462/86539497.jpg</t>
+          <t>https://static.tildacdn.com/stor6530-3135-4634-a435-303833653537/62658586.jpg</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-192732519511-vanilnoe-nebo-v-shlyapnoi-korobke</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-488774775451-mon-amur?editionuid=548699367961</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>"Мерилин "</t>
+          <t>Мон Амур - 101</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>3650</v>
+        <v>24990</v>
       </c>
       <c r="C383" t="n">
-        <v>3999</v>
+        <v>35600</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6437-3261-4836-b665-353037326231/74437439.jpg</t>
+          <t>https://static.tildacdn.com/stor6530-3135-4634-a435-303833653537/62658586.jpg</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-570756966211-merilin-</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-488774775451-mon-amur?editionuid=769488407402</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Мон Амур - 25</t>
+          <t>Коробка L с радужной гипсофилой для мамы</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>6800</v>
+        <v>3799</v>
       </c>
       <c r="C384" t="inlineStr"/>
       <c r="D384" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3564-6238-4537-b331-393231666534/39451674.jpg</t>
+          <t>https://static.tildacdn.com/stor3634-6566-4338-b733-663135306263/58897006.jpg</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-488774775451-mon-amur?editionuid=330327920391</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-600666953471-korobka-l-s-raduzhnoi-gipsofiloi-dlya-ma</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Мон Амур - 35</t>
+          <t>Коробка для мамы с гипсофилой M</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>9300</v>
+        <v>2999</v>
       </c>
       <c r="C385" t="inlineStr"/>
       <c r="D385" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6530-3135-4634-a435-303833653537/62658586.jpg</t>
+          <t>https://static.tildacdn.com/stor6534-3033-4361-a336-343962343961/44420144.jpg</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-488774775451-mon-amur?editionuid=460518387891</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-582942710541-korobka-dlya-mami-s-gipsofiloi-m</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Мон Амур - 51</t>
+          <t>101 роза нежный микс в корзине</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>12990</v>
+        <v>27990</v>
       </c>
       <c r="C386" t="n">
-        <v>17750</v>
+        <v>33500</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6530-3135-4634-a435-303833653537/62658586.jpg</t>
+          <t>https://static.tildacdn.com/stor6439-3961-4033-a239-613063663235/53251246.jpg</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-488774775451-mon-amur?editionuid=548699367961</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-251477018101-101-roza-nezhnii-miks-v-korzine</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Мон Амур - 101</t>
+          <t>Букет ЛЕТО с хризантемами и ромашками</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>24990</v>
-      </c>
-      <c r="C387" t="n">
-        <v>35600</v>
-      </c>
+        <v>3100</v>
+      </c>
+      <c r="C387" t="inlineStr"/>
       <c r="D387" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6530-3135-4634-a435-303833653537/62658586.jpg</t>
+          <t>https://static.tildacdn.com/stor3134-6132-4238-b161-343433346231/88471835.jpg</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-488774775451-mon-amur?editionuid=769488407402</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-821180964631-buket-leto-s-hrizantemami-i-romashkami</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Коробка L с радужной гипсофилой для мамы</t>
+          <t>Букет АРОМАТ</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>3799</v>
+        <v>2700</v>
       </c>
       <c r="C388" t="inlineStr"/>
       <c r="D388" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3634-6566-4338-b733-663135306263/58897006.jpg</t>
+          <t>https://static.tildacdn.com/stor3837-6639-4439-b637-613064363466/87696411.jpg</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-600666953471-korobka-l-s-raduzhnoi-gipsofiloi-dlya-ma</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-489100649391-buket-aromat</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Коробка для мамы с гипсофилой M</t>
+          <t>Вставка сердце в букет</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>2999</v>
+        <v>250</v>
       </c>
       <c r="C389" t="inlineStr"/>
       <c r="D389" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6534-3033-4361-a336-343962343961/44420144.jpg</t>
+          <t>https://static.tildacdn.com/stor3230-6663-4066-b534-643662323937/62263476.jpg</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-582942710541-korobka-dlya-mami-s-gipsofiloi-m</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-974556600091-vstavka-serdtse-v-buket</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>101 роза нежный микс в корзине</t>
+          <t>Букет ФЕЯ</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>27990</v>
+        <v>3890</v>
       </c>
       <c r="C390" t="n">
-        <v>33500</v>
+        <v>4000</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6439-3961-4033-a239-613063663235/53251246.jpg</t>
+          <t>https://static.tildacdn.com/stor3333-6334-4865-b463-363036343536/77073318.jpg</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-251477018101-101-roza-nezhnii-miks-v-korzine</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-720813660271-buket-feya</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Букет ЛЕТО с хризантемами и ромашками</t>
+          <t>Букет "Стильный микс" с орхидеями</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>3100</v>
-      </c>
-      <c r="C391" t="inlineStr"/>
+        <v>5300</v>
+      </c>
+      <c r="C391" t="n">
+        <v>5900</v>
+      </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3134-6132-4238-b161-343433346231/88471835.jpg</t>
+          <t>https://static.tildacdn.com/stor3438-3261-4464-a639-333432623737/58155197.jpg</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-821180964631-buket-leto-s-hrizantemami-i-romashkami</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-704877065131-buket-stilnii-miks-s-orhideyami</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Букет АРОМАТ</t>
+          <t>Букет 11 красных роз с кустовыми розами в красивом оформлении</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>2700</v>
+        <v>7200</v>
       </c>
       <c r="C392" t="inlineStr"/>
       <c r="D392" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3837-6639-4439-b637-613064363466/87696411.jpg</t>
+          <t>https://static.tildacdn.com/stor3337-6636-4435-b631-343863306433/59411787.jpg</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-489100649391-buket-aromat</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-335025577601-buket-11-krasnih-roz-s-kustovimi-rozami</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Вставка сердце в букет</t>
+          <t>Букет ПЕРВАЯ ЛЮБОВЬ - Xl</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>250</v>
+        <v>4690</v>
       </c>
       <c r="C393" t="inlineStr"/>
       <c r="D393" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3230-6663-4066-b534-643662323937/62263476.jpg</t>
+          <t>https://static.tildacdn.com/stor3239-3737-4435-a633-613836386633/51111587.jpg</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-974556600091-vstavka-serdtse-v-buket</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-659712674101-buket-pervaya-lyubov?editionuid=958551503321</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Букет ФЕЯ</t>
+          <t>Букет ПЕРВАЯ ЛЮБОВЬ - L</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>3890</v>
-      </c>
-      <c r="C394" t="n">
-        <v>4000</v>
-      </c>
+        <v>3500</v>
+      </c>
+      <c r="C394" t="inlineStr"/>
       <c r="D394" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3333-6334-4865-b463-363036343536/77073318.jpg</t>
+          <t>https://static.tildacdn.com/stor6666-6663-4466-b936-653534393765/80171896.jpg</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-720813660271-buket-feya</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-659712674101-buket-pervaya-lyubov?editionuid=138048727071</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Букет "Стильный микс" с орхидеями</t>
+          <t>Букет БОМБИТА</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>5300</v>
+        <v>4050</v>
       </c>
       <c r="C395" t="n">
-        <v>5900</v>
+        <v>5400</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3438-3261-4464-a639-333432623737/58155197.jpg</t>
+          <t>https://static.tildacdn.com/stor3530-6363-4130-a535-336236616236/99256221.jpg</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-704877065131-buket-stilnii-miks-s-orhideyami</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-148743167681-buket-bombita</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Букет 11 красных роз с кустовыми розами в красивом оформлении</t>
+          <t>Комплимент из пионовидных роз в оформлении - 7</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>7200</v>
+        <v>2650</v>
       </c>
       <c r="C396" t="inlineStr"/>
       <c r="D396" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3337-6636-4435-b631-343863306433/59411787.jpg</t>
+          <t>https://static.tildacdn.com/stor3437-6163-4565-a262-326664653130/42939189.jpg</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-335025577601-buket-11-krasnih-roz-s-kustovimi-rozami</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-597405396191-kompliment-iz-pionovidnih-roz-v-oformlen?editionuid=308194824921</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Букет ПЕРВАЯ ЛЮБОВЬ - Xl</t>
+          <t>Комплимент из пионовидных роз в оформлении - 9</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>4690</v>
+        <v>3250</v>
       </c>
       <c r="C397" t="inlineStr"/>
       <c r="D397" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3239-3737-4435-a633-613836386633/51111587.jpg</t>
+          <t>https://static.tildacdn.com/stor3730-6336-4237-a665-313838623331/13509496.jpg</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-659712674101-buket-pervaya-lyubov?editionuid=958551503321</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-597405396191-kompliment-iz-pionovidnih-roz-v-oformlen?editionuid=302968644811</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Букет ПЕРВАЯ ЛЮБОВЬ - L</t>
+          <t>Комплимент из пионовидных роз в оформлении - 11</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>3500</v>
+        <v>3850</v>
       </c>
       <c r="C398" t="inlineStr"/>
       <c r="D398" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6666-6663-4466-b936-653534393765/80171896.jpg</t>
+          <t>https://static.tildacdn.com/stor3965-3561-4438-b732-376434653936/64677586.jpg</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-659712674101-buket-pervaya-lyubov?editionuid=138048727071</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-597405396191-kompliment-iz-pionovidnih-roz-v-oformlen?editionuid=266242456331</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Комплимент из пионовидных роз в оформлении - 7</t>
+          <t>Букет ТВОЙ ДЕНЬ</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>2650</v>
+        <v>3590</v>
       </c>
       <c r="C399" t="inlineStr"/>
       <c r="D399" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3437-6163-4565-a262-326664653130/42939189.jpg</t>
+          <t>https://static.tildacdn.com/stor3434-6538-4239-b135-306430353463/13446289.jpg</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-597405396191-kompliment-iz-pionovidnih-roz-v-oformlen?editionuid=308194824921</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-845612782351-buket-tvoi-den</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Комплимент из пионовидных роз в оформлении - 9</t>
+          <t>Ромашкина любовь</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>3250</v>
+        <v>10990</v>
       </c>
       <c r="C400" t="inlineStr"/>
       <c r="D400" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3730-6336-4237-a665-313838623331/13509496.jpg</t>
+          <t>https://static.tildacdn.com/stor6165-3562-4761-b936-303433316233/50013829.jpg</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-597405396191-kompliment-iz-pionovidnih-roz-v-oformlen?editionuid=302968644811</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-950411727471-romashkina-lyubov</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Комплимент из пионовидных роз в оформлении - 11</t>
+          <t>ВАУ КОРЗИНА ОРХИДЕЙ</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>3850</v>
+        <v>32990</v>
       </c>
       <c r="C401" t="inlineStr"/>
       <c r="D401" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3965-3561-4438-b732-376434653936/64677586.jpg</t>
+          <t>https://static.tildacdn.com/stor6232-6239-4333-b864-323133363433/21466466.jpg</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-597405396191-kompliment-iz-pionovidnih-roz-v-oformlen?editionuid=266242456331</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-522713984731-vau-korzina-orhidei</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Букет ТВОЙ ДЕНЬ</t>
+          <t>КОМПЛИМЕНТ "НЕЖЕНКА"</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>3590</v>
+        <v>2250</v>
       </c>
       <c r="C402" t="inlineStr"/>
       <c r="D402" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3434-6538-4239-b135-306430353463/13446289.jpg</t>
+          <t>https://static.tildacdn.com/stor3734-3730-4135-a565-386666386134/91097418.jpg</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-845612782351-buket-tvoi-den</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-500037248201-kompliment-nezhenka</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Ромашкина любовь</t>
+          <t>Букет РАДУЖНЫЙ</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>10990</v>
-      </c>
-      <c r="C403" t="inlineStr"/>
+        <v>2700</v>
+      </c>
+      <c r="C403" t="n">
+        <v>3450</v>
+      </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6165-3562-4761-b936-303433316233/50013829.jpg</t>
+          <t>https://static.tildacdn.com/stor6464-6336-4230-b836-643663653338/18214303.jpg</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-950411727471-romashkina-lyubov</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-290729033721-buket-raduzhnii</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>ВАУ КОРЗИНА ОРХИДЕЙ</t>
+          <t>Гипсофила от всего сердца</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>32990</v>
+        <v>3200</v>
       </c>
       <c r="C404" t="inlineStr"/>
       <c r="D404" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6232-6239-4333-b864-323133363433/21466466.jpg</t>
+          <t>https://static.tildacdn.com/stor3531-6530-4836-a565-643263303762/33953573.jpg</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-522713984731-vau-korzina-orhidei</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-398838219472-gipsofila-ot-vsego-serdtsa</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>КОМПЛИМЕНТ "НЕЖЕНКА"</t>
+          <t>Букет " ТЕБЕ КОНФЕТКА"</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>2250</v>
+        <v>3600</v>
       </c>
       <c r="C405" t="inlineStr"/>
       <c r="D405" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3734-3730-4135-a565-386666386134/91097418.jpg</t>
+          <t>https://static.tildacdn.com/stor3863-3438-4534-a566-343962323762/19778219.jpg</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-500037248201-kompliment-nezhenka</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-843977882512-buket-tebe-konfetka</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Букет РАДУЖНЫЙ</t>
+          <t>Букет МАЛИНОВОЕ СУФЛЕ</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>2700</v>
-      </c>
-      <c r="C406" t="n">
-        <v>3450</v>
-      </c>
+        <v>3600</v>
+      </c>
+      <c r="C406" t="inlineStr"/>
       <c r="D406" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6464-6336-4230-b836-643663653338/18214303.jpg</t>
+          <t>https://static.tildacdn.com/stor3839-3732-4230-b263-356135623338/81392984.jpg</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-290729033721-buket-raduzhnii</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-910512563562-buket-malinovoe-sufle</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Гипсофила от всего сердца</t>
+          <t>Букет СИНЯЯ ОРХИДЕЯ</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>3200</v>
+        <v>5650</v>
       </c>
       <c r="C407" t="inlineStr"/>
       <c r="D407" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3531-6530-4836-a565-643263303762/33953573.jpg</t>
+          <t>https://static.tildacdn.com/stor6162-3435-4736-b964-373535626539/31455574.jpg</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-398838219472-gipsofila-ot-vsego-serdtsa</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-907367951302-buket-sinyaya-orhideya</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Букет " ТЕБЕ КОНФЕТКА"</t>
+          <t>51 пионовидная кустовая роза в нежном оформлении</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>3600</v>
-      </c>
-      <c r="C408" t="inlineStr"/>
+        <v>15500</v>
+      </c>
+      <c r="C408" t="n">
+        <v>18000</v>
+      </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3863-3438-4534-a566-343962323762/19778219.jpg</t>
+          <t>https://static.tildacdn.com/stor3634-3734-4461-b561-613532326164/47005492.jpg</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-843977882512-buket-tebe-konfetka</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-420829464592-51-pionovidnaya-kustovaya-roza-v-nezhnom</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>51 пионовидная кустовая роза в нежном оформлении</t>
+          <t>Букет РОМАНТИКА</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>15500</v>
+        <v>4150</v>
       </c>
       <c r="C409" t="n">
-        <v>18000</v>
+        <v>5790</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3634-3734-4461-b561-613532326164/47005492.jpg</t>
+          <t>https://static.tildacdn.com/stor6236-3638-4164-b265-643862396434/56613877.jpg</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-420829464592-51-pionovidnaya-kustovaya-roza-v-nezhnom</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-359890420482-buket-romantika</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Букет РОМАНТИКА</t>
+          <t>Комплимент с маттиолой</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>4150</v>
-      </c>
-      <c r="C410" t="n">
-        <v>5790</v>
-      </c>
+        <v>1800</v>
+      </c>
+      <c r="C410" t="inlineStr"/>
       <c r="D410" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6236-3638-4164-b265-643862396434/56613877.jpg</t>
+          <t>https://static.tildacdn.com/stor3634-3738-4766-b239-623731653165/17661798.jpg</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-359890420482-buket-romantika</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-232892230242-kompliment-s-mattioloi</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Комплимент с маттиолой</t>
+          <t>Пионовидные кустовые розы в оформлении - 9</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>1900</v>
+        <v>3650</v>
       </c>
       <c r="C411" t="inlineStr"/>
       <c r="D411" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3634-3738-4766-b239-623731653165/17661798.jpg</t>
+          <t>https://static.tildacdn.com/stor3364-3334-4339-b730-653536623666/41200469.jpg</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-232892230242-kompliment-s-mattioloi</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-883743434962-pionovidnie-kustovie-rozi-v-oformlenii?editionuid=762768049002</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Пионовидные кустовые розы в оформлении - 9</t>
+          <t>Пионовидные кустовые розы в оформлении - 11</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>3650</v>
+        <v>4400</v>
       </c>
       <c r="C412" t="inlineStr"/>
       <c r="D412" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3364-3334-4339-b730-653536623666/41200469.jpg</t>
+          <t>https://static.tildacdn.com/stor3564-6135-4630-b531-356538373065/45691131.jpg</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-883743434962-pionovidnie-kustovie-rozi-v-oformlenii?editionuid=762768049002</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-883743434962-pionovidnie-kustovie-rozi-v-oformlenii?editionuid=231966809752</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Пионовидные кустовые розы в оформлении - 11</t>
+          <t>Пионовидные кустовые розы в оформлении - 15</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>4400</v>
+        <v>5500</v>
       </c>
       <c r="C413" t="inlineStr"/>
       <c r="D413" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3564-6135-4630-b531-356538373065/45691131.jpg</t>
+          <t>https://static.tildacdn.com/stor6530-3165-4131-b634-353939346238/45754421.jpg</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-883743434962-pionovidnie-kustovie-rozi-v-oformlenii?editionuid=231966809752</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-883743434962-pionovidnie-kustovie-rozi-v-oformlenii?editionuid=197416122812</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Пионовидные кустовые розы в оформлении - 15</t>
+          <t>Пионовидные кустовые розы в оформлении - 25</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="C414" t="inlineStr"/>
       <c r="D414" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6530-3165-4131-b634-353939346238/45754421.jpg</t>
+          <t>https://static.tildacdn.com/stor6166-6339-4931-a536-383533343232/59431960.jpg</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-883743434962-pionovidnie-kustovie-rozi-v-oformlenii?editionuid=197416122812</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-883743434962-pionovidnie-kustovie-rozi-v-oformlenii?editionuid=531645917332</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Пионовидные кустовые розы в оформлении - 25</t>
+          <t>Пионовидные кустовые розы в оформлении - 35</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>9500</v>
+        <v>12900</v>
       </c>
       <c r="C415" t="inlineStr"/>
       <c r="D415" t="inlineStr">
@@ -9476,18 +9474,18 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-883743434962-pionovidnie-kustovie-rozi-v-oformlenii?editionuid=531645917332</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-883743434962-pionovidnie-kustovie-rozi-v-oformlenii?editionuid=172751700112</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Пионовидные кустовые розы в оформлении - 35</t>
+          <t>Пионовидные кустовые розы в оформлении - 51</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>12900</v>
+        <v>15900</v>
       </c>
       <c r="C416" t="inlineStr"/>
       <c r="D416" t="inlineStr">
@@ -9497,18 +9495,18 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-883743434962-pionovidnie-kustovie-rozi-v-oformlenii?editionuid=172751700112</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-883743434962-pionovidnie-kustovie-rozi-v-oformlenii?editionuid=261066938402</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Пионовидные кустовые розы в оформлении - 51</t>
+          <t>Пионовидные кустовые розы в оформлении - 101</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>15900</v>
+        <v>31100</v>
       </c>
       <c r="C417" t="inlineStr"/>
       <c r="D417" t="inlineStr">
@@ -9518,39 +9516,39 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-883743434962-pionovidnie-kustovie-rozi-v-oformlenii?editionuid=261066938402</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-883743434962-pionovidnie-kustovie-rozi-v-oformlenii?editionuid=818806872532</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Пионовидные кустовые розы в оформлении - 101</t>
+          <t>ХРИЗАНТЕМНЫЙ ХИТ с ароматным эвкалиптом - 7</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>31100</v>
+        <v>2800</v>
       </c>
       <c r="C418" t="inlineStr"/>
       <c r="D418" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6166-6339-4931-a536-383533343232/59431960.jpg</t>
+          <t>https://static.tildacdn.com/stor6161-6130-4532-b930-666332343033/85650724.jpg</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-883743434962-pionovidnie-kustovie-rozi-v-oformlenii?editionuid=818806872532</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-115432094412-hrizantemnii-hit-s-aromatnim-evkaliptom?editionuid=567905219022</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>ХРИЗАНТЕМНЫЙ ХИТ с ароматным эвкалиптом - 7</t>
+          <t>ХРИЗАНТЕМНЫЙ ХИТ с ароматным эвкалиптом - 9</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="C419" t="inlineStr"/>
       <c r="D419" t="inlineStr">
@@ -9560,60 +9558,60 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-115432094412-hrizantemnii-hit-s-aromatnim-evkaliptom?editionuid=567905219022</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-115432094412-hrizantemnii-hit-s-aromatnim-evkaliptom?editionuid=644036935612</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>ХРИЗАНТЕМНЫЙ ХИТ с ароматным эвкалиптом - 9</t>
+          <t>ХРИЗАНТЕМНЫЙ ХИТ с ароматным эвкалиптом - 15</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="C420" t="inlineStr"/>
       <c r="D420" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6161-6130-4532-b930-666332343033/85650724.jpg</t>
+          <t>https://static.tildacdn.com/stor3532-3633-4461-b437-343834656232/90309562.jpg</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-115432094412-hrizantemnii-hit-s-aromatnim-evkaliptom?editionuid=644036935612</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-115432094412-hrizantemnii-hit-s-aromatnim-evkaliptom?editionuid=726938892802</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>ХРИЗАНТЕМНЫЙ ХИТ с ароматным эвкалиптом - 15</t>
+          <t>ХРИЗАНТЕМНЫЙ ХИТ с ароматным эвкалиптом - 25</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>5500</v>
+        <v>8700</v>
       </c>
       <c r="C421" t="inlineStr"/>
       <c r="D421" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3532-3633-4461-b437-343834656232/90309562.jpg</t>
+          <t>https://static.tildacdn.com/stor3430-3636-4034-b134-346533313532/67329986.jpg</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-115432094412-hrizantemnii-hit-s-aromatnim-evkaliptom?editionuid=726938892802</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-115432094412-hrizantemnii-hit-s-aromatnim-evkaliptom?editionuid=114889111492</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>ХРИЗАНТЕМНЫЙ ХИТ с ароматным эвкалиптом - 25</t>
+          <t>ХРИЗАНТЕМНЫЙ ХИТ с ароматным эвкалиптом - 51</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>8700</v>
+        <v>15900</v>
       </c>
       <c r="C422" t="inlineStr"/>
       <c r="D422" t="inlineStr">
@@ -9623,91 +9621,91 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-115432094412-hrizantemnii-hit-s-aromatnim-evkaliptom?editionuid=114889111492</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-115432094412-hrizantemnii-hit-s-aromatnim-evkaliptom?editionuid=505843168492</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>ХРИЗАНТЕМНЫЙ ХИТ с ароматным эвкалиптом - 51</t>
+          <t>Подарочный набор для мамы 1</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>15900</v>
+        <v>3990</v>
       </c>
       <c r="C423" t="inlineStr"/>
       <c r="D423" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3430-3636-4034-b134-346533313532/67329986.jpg</t>
+          <t>https://static.tildacdn.com/stor3034-6266-4430-a335-333262613362/59813076.jpg</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-115432094412-hrizantemnii-hit-s-aromatnim-evkaliptom?editionuid=505843168492</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-786253932122-podarochnii-nabor-dlya-mami-1</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Подарочный набор для мамы 1</t>
+          <t>Подарок для мамы 2</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>3990</v>
+        <v>4990</v>
       </c>
       <c r="C424" t="inlineStr"/>
       <c r="D424" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3034-6266-4430-a335-333262613362/59813076.jpg</t>
+          <t>https://static.tildacdn.com/stor6463-3033-4463-b465-336631396138/43923411.jpg</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-786253932122-podarochnii-nabor-dlya-mami-1</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-738379822212-podarok-dlya-mami-2</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Подарок для мамы 2</t>
+          <t>Подарок для мамы 3 селебрити</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>4990</v>
+        <v>5199</v>
       </c>
       <c r="C425" t="inlineStr"/>
       <c r="D425" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6463-3033-4463-b465-336631396138/43923411.jpg</t>
+          <t>https://static.tildacdn.com/stor3034-6266-4430-a335-333262613362/59813076.jpg</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-738379822212-podarok-dlya-mami-2</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-307373021402-podarok-dlya-mami-3-selebriti</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Подарок для мамы 3 селебрити</t>
+          <t>Букет ЛЕДИ РЕД</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>5199</v>
+        <v>2450</v>
       </c>
       <c r="C426" t="inlineStr"/>
       <c r="D426" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3034-6266-4430-a335-333262613362/59813076.jpg</t>
+          <t>https://static.tildacdn.com/stor6430-6634-4338-a635-316164643339/52783953.jpg</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-307373021402-podarok-dlya-mami-3-selebriti</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-341373252172-buket-ledi-red</t>
         </is>
       </c>
     </row>

--- a/feed_converted.xlsx
+++ b/feed_converted.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E434"/>
+  <dimension ref="A1:E423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6811,3067 +6811,2828 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Букет "Сердце" из роз - 51 - Красный</t>
+          <t>Букет ромашек "Модный"</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>13200</v>
-      </c>
-      <c r="C292" t="inlineStr"/>
+        <v>2800</v>
+      </c>
+      <c r="C292" t="n">
+        <v>3200</v>
+      </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3265-6563-4066-b333-623131303566/86344649.jpg</t>
+          <t>https://static.tildacdn.com/stor3661-3832-4565-b737-636232616363/96239568.jpg</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-476287490581-buket-serdtse-iz-roz?editionuid=596862368331</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-966890057501-buket-romashek-modnii</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Букет "Сердце" из роз - 35 - Красный</t>
+          <t>ЛАЙК с красными розами</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>9300</v>
+        <v>3500</v>
       </c>
       <c r="C293" t="inlineStr"/>
       <c r="D293" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3730-3736-4134-a134-623235356232/75639760.jpg</t>
+          <t>https://static.tildacdn.com/stor3830-3031-4835-b835-383138636235/22989356.jpg</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-476287490581-buket-serdtse-iz-roz?editionuid=420576792261</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-271548446971-laik-s-krasnimi-rozami</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Букет "Сердце" из роз - 51 - Белые</t>
+          <t>ПИОН РОЗЫ КЕНДИЛАЙТ с роскошным бутоном - 7 - Матовая бумага</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>13200</v>
+        <v>2650</v>
       </c>
       <c r="C294" t="inlineStr"/>
       <c r="D294" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6332-3761-4964-b337-633939613039/40797598.jpg</t>
+          <t>https://static.tildacdn.com/stor6431-3361-4431-b434-346262633764/67610820.jpg</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-476287490581-buket-serdtse-iz-roz?editionuid=384773199531</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-408842247631-pion-rozi-kendilait-s-roskoshnim-butonom?editionuid=685412047851</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Букет "Сердце" из роз - 35 - Белые</t>
+          <t>ПИОН РОЗЫ КЕНДИЛАЙТ с роскошным бутоном - 9 - Матовая бумага</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>9300</v>
-      </c>
-      <c r="C295" t="n">
-        <v>11500</v>
-      </c>
+        <v>3250</v>
+      </c>
+      <c r="C295" t="inlineStr"/>
       <c r="D295" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6332-3761-4964-b337-633939613039/40797598.jpg</t>
+          <t>https://static.tildacdn.com/stor3530-3261-4731-b234-386337616532/43856125.jpg</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-476287490581-buket-serdtse-iz-roz?editionuid=310959153071</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-408842247631-pion-rozi-kendilait-s-roskoshnim-butonom?editionuid=747300906151</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Букет "Сердце" из роз - 51 - Пионовидные крем</t>
+          <t>ПИОН РОЗЫ КЕНДИЛАЙТ с роскошным бутоном - 11 - Матовая бумага</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>15500</v>
-      </c>
-      <c r="C296" t="n">
-        <v>16500</v>
-      </c>
+        <v>3850</v>
+      </c>
+      <c r="C296" t="inlineStr"/>
       <c r="D296" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6135-3363-4562-b462-396239336435/10956098.jpg</t>
+          <t>https://static.tildacdn.com/stor6436-3239-4132-b137-306231333036/58018420.jpg</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-476287490581-buket-serdtse-iz-roz?editionuid=419923721431</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-408842247631-pion-rozi-kendilait-s-roskoshnim-butonom?editionuid=112918374101</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Букет "Сердце" из роз - 51 - Нежные</t>
+          <t>ПИОН РОЗЫ КЕНДИЛАЙТ с роскошным бутоном - 15 - Матовая бумага</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>13200</v>
+        <v>5050</v>
       </c>
       <c r="C297" t="inlineStr"/>
       <c r="D297" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6530-3433-4738-b166-646364353731/26315844.jpg</t>
+          <t>https://static.tildacdn.com/stor3764-3935-4162-b661-326239363839/24782806.jpg</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-476287490581-buket-serdtse-iz-roz?editionuid=131250231871</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-408842247631-pion-rozi-kendilait-s-roskoshnim-butonom?editionuid=584191326611</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Букет "Сердце" из роз - 51 - Микс</t>
+          <t>ПИОН РОЗЫ КЕНДИЛАЙТ с роскошным бутоном - 25 - Матовая бумага</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>13200</v>
-      </c>
-      <c r="C298" t="n">
-        <v>14500</v>
-      </c>
+        <v>8250</v>
+      </c>
+      <c r="C298" t="inlineStr"/>
       <c r="D298" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6166-3936-4262-b064-303838613332/48226272.jpg</t>
+          <t>https://static.tildacdn.com/stor6534-3430-4766-b836-313464656162/12162191.jpg</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-476287490581-buket-serdtse-iz-roz?editionuid=197174543341</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-408842247631-pion-rozi-kendilait-s-roskoshnim-butonom?editionuid=409857313401</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Букет "Сердце" из роз - 35 - Микс</t>
+          <t>ПИОН РОЗЫ КЕНДИЛАЙТ с роскошным бутоном - 35 - Матовая бумага</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>9300</v>
+        <v>11250</v>
       </c>
       <c r="C299" t="inlineStr"/>
       <c r="D299" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6166-3936-4262-b064-303838613332/48226272.jpg</t>
+          <t>https://static.tildacdn.com/stor6261-6633-4938-b362-393762646662/67653659.jpg</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-476287490581-buket-serdtse-iz-roz?editionuid=168510316671</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-408842247631-pion-rozi-kendilait-s-roskoshnim-butonom?editionuid=447172835881</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Букет "Сердце" из роз - 35 - Нежные</t>
+          <t>ПИОН РОЗЫ КЕНДИЛАЙТ с роскошным бутоном - 51 - Матовая бумага</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>9200</v>
+        <v>15550</v>
       </c>
       <c r="C300" t="inlineStr"/>
       <c r="D300" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3730-3532-4662-b161-323433393562/67841903.jpg</t>
+          <t>https://static.tildacdn.com/stor3065-3436-4637-a539-326138303462/27922432.jpg</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-476287490581-buket-serdtse-iz-roz?editionuid=356370001431</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-408842247631-pion-rozi-kendilait-s-roskoshnim-butonom?editionuid=499742739092</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Букет ромашек "Модный"</t>
+          <t>ПИОН РОЗЫ КЕНДИЛАЙТ с роскошным бутоном - 101 - Матовая бумага</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>2800</v>
-      </c>
-      <c r="C301" t="n">
-        <v>3200</v>
-      </c>
+        <v>28990</v>
+      </c>
+      <c r="C301" t="inlineStr"/>
       <c r="D301" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3661-3832-4565-b737-636232616363/96239568.jpg</t>
+          <t>https://static.tildacdn.com/stor3065-3436-4637-a539-326138303462/27922432.jpg</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-966890057501-buket-romashek-modnii</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-408842247631-pion-rozi-kendilait-s-roskoshnim-butonom?editionuid=490529641782</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>ЛАЙК с красными розами</t>
+          <t>Микс "Нежный " - 25 - Матовая бумага</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>3500</v>
+        <v>6700</v>
       </c>
       <c r="C302" t="inlineStr"/>
       <c r="D302" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3830-3031-4835-b835-383138636235/22989356.jpg</t>
+          <t>https://static.tildacdn.com/stor3235-6463-4134-b838-643065393437/42874590.jpg</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-271548446971-laik-s-krasnimi-rozami</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-969675948161-miks-nezhnii-?editionuid=144808655921</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>ПИОН РОЗЫ КЕНДИЛАЙТ с роскошным бутоном - 7 - Матовая бумага</t>
+          <t>Микс "Нежный " - 35 - Матовая бумага</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>2650</v>
+        <v>9300</v>
       </c>
       <c r="C303" t="inlineStr"/>
       <c r="D303" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6431-3361-4431-b434-346262633764/67610820.jpg</t>
+          <t>https://static.tildacdn.com/stor3537-6464-4265-a237-376565623661/67652712.jpg</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-408842247631-pion-rozi-kendilait-s-roskoshnim-butonom?editionuid=685412047851</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-969675948161-miks-nezhnii-?editionuid=682095661901</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>ПИОН РОЗЫ КЕНДИЛАЙТ с роскошным бутоном - 9 - Матовая бумага</t>
+          <t>Микс "Нежный " - 51 - Матовая бумага</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>3250</v>
+        <v>12300</v>
       </c>
       <c r="C304" t="inlineStr"/>
       <c r="D304" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3530-3261-4731-b234-386337616532/43856125.jpg</t>
+          <t>https://static.tildacdn.com/stor3230-3565-4330-a533-343835336231/19693626.jpg</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-408842247631-pion-rozi-kendilait-s-roskoshnim-butonom?editionuid=747300906151</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-969675948161-miks-nezhnii-?editionuid=818421126901</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>ПИОН РОЗЫ КЕНДИЛАЙТ с роскошным бутоном - 11 - Матовая бумага</t>
+          <t>Микс "Нежный " - 101 - Матовая бумага</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>3850</v>
+        <v>22999</v>
       </c>
       <c r="C305" t="inlineStr"/>
       <c r="D305" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6436-3239-4132-b137-306231333036/58018420.jpg</t>
+          <t>https://static.tildacdn.com/stor3537-6464-4265-a237-376565623661/67652712.jpg</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-408842247631-pion-rozi-kendilait-s-roskoshnim-butonom?editionuid=112918374101</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-969675948161-miks-nezhnii-?editionuid=339758706201</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>ПИОН РОЗЫ КЕНДИЛАЙТ с роскошным бутоном - 15 - Матовая бумага</t>
+          <t>Микс "Нежный " - 11 - Матовая бумага</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>5050</v>
+        <v>3300</v>
       </c>
       <c r="C306" t="inlineStr"/>
       <c r="D306" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3764-3935-4162-b661-326239363839/24782806.jpg</t>
+          <t>https://static.tildacdn.com/stor6230-3539-4562-b538-353434303535/33043186.jpg</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-408842247631-pion-rozi-kendilait-s-roskoshnim-butonom?editionuid=584191326611</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-969675948161-miks-nezhnii-?editionuid=231105875691</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>ПИОН РОЗЫ КЕНДИЛАЙТ с роскошным бутоном - 25 - Матовая бумага</t>
+          <t>Микс "Нежный " - 15 - Матовая бумага</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>8250</v>
+        <v>4100</v>
       </c>
       <c r="C307" t="inlineStr"/>
       <c r="D307" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6534-3430-4766-b836-313464656162/12162191.jpg</t>
+          <t>https://static.tildacdn.com/stor6162-6638-4265-a134-666564346264/85360901.jpg</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-408842247631-pion-rozi-kendilait-s-roskoshnim-butonom?editionuid=409857313401</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-969675948161-miks-nezhnii-?editionuid=759439311541</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>ПИОН РОЗЫ КЕНДИЛАЙТ с роскошным бутоном - 35 - Матовая бумага</t>
+          <t>Букет Белый шоколад</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>11250</v>
-      </c>
-      <c r="C308" t="inlineStr"/>
+        <v>5800</v>
+      </c>
+      <c r="C308" t="n">
+        <v>5900</v>
+      </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6261-6633-4938-b362-393762646662/67653659.jpg</t>
+          <t>https://static.tildacdn.com/stor3531-6333-4436-b830-636438386630/21485586.jpg</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-408842247631-pion-rozi-kendilait-s-roskoshnim-butonom?editionuid=447172835881</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-604610293441-buket-belii-shokolad</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>ПИОН РОЗЫ КЕНДИЛАЙТ с роскошным бутоном - 51 - Матовая бумага</t>
+          <t>Ажурные розы в коробке</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>15550</v>
+        <v>3800</v>
       </c>
       <c r="C309" t="inlineStr"/>
       <c r="D309" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3065-3436-4637-a539-326138303462/27922432.jpg</t>
+          <t>https://static.tildacdn.com/stor3638-6166-4062-a634-363361633538/95787248.jpg</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-408842247631-pion-rozi-kendilait-s-roskoshnim-butonom?editionuid=499742739092</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-706637499731-azhurnie-rozi-v-korobke</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>ПИОН РОЗЫ КЕНДИЛАЙТ с роскошным бутоном - 101 - Матовая бумага</t>
+          <t>Комплимент ВАНИЛЬ с ромашками</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>28990</v>
+        <v>2690</v>
       </c>
       <c r="C310" t="inlineStr"/>
       <c r="D310" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3065-3436-4637-a539-326138303462/27922432.jpg</t>
+          <t>https://static.tildacdn.com/stor3361-3566-4639-b964-323030333165/90202533.jpg</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-408842247631-pion-rozi-kendilait-s-roskoshnim-butonom?editionuid=490529641782</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-355408923071-kompliment-vanil-s-romashkami</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Микс "Нежный " - 25 - Матовая бумага</t>
+          <t>Коробка с кустовыми розами</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>6700</v>
+        <v>3500</v>
       </c>
       <c r="C311" t="inlineStr"/>
       <c r="D311" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3235-6463-4134-b838-643065393437/42874590.jpg</t>
+          <t>https://static.tildacdn.com/stor6561-6635-4566-b836-393737636261/47533235.jpg</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-969675948161-miks-nezhnii-?editionuid=144808655921</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-190380899281-korobka-s-kustovimi-rozami</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Микс "Нежный " - 35 - Матовая бумага</t>
+          <t>Дивная Орхидея</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>9300</v>
+        <v>5600</v>
       </c>
       <c r="C312" t="inlineStr"/>
       <c r="D312" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3537-6464-4265-a237-376565623661/67652712.jpg</t>
+          <t>https://static.tildacdn.com/stor6631-3961-4166-a236-343666333130/79650328.jpg</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-969675948161-miks-nezhnii-?editionuid=682095661901</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-399495570211-divnaya-orhideya</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Микс "Нежный " - 51 - Матовая бумага</t>
+          <t>Коробка "Орхидея "</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>12300</v>
+        <v>5700</v>
       </c>
       <c r="C313" t="inlineStr"/>
       <c r="D313" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3230-3565-4330-a533-343835336231/19693626.jpg</t>
+          <t>https://static.tildacdn.com/stor6531-3062-4739-a365-633930663962/93446831.jpg</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-969675948161-miks-nezhnii-?editionuid=818421126901</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-909950155641-korobka-orhideya-</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Микс "Нежный " - 101 - Матовая бумага</t>
+          <t>Букет КРИСТАЛЛ</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>22999</v>
+        <v>6999</v>
       </c>
       <c r="C314" t="inlineStr"/>
       <c r="D314" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3537-6464-4265-a237-376565623661/67652712.jpg</t>
+          <t>https://static.tildacdn.com/stor3366-3065-4265-b239-376235653964/39754072.jpg</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-969675948161-miks-nezhnii-?editionuid=339758706201</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-516964640791-buket-kristall</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Микс "Нежный " - 11 - Матовая бумага</t>
+          <t>Розовый дым</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>3300</v>
+        <v>13500</v>
       </c>
       <c r="C315" t="inlineStr"/>
       <c r="D315" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6230-3539-4562-b538-353434303535/33043186.jpg</t>
+          <t>https://static.tildacdn.com/stor6161-6139-4462-b233-336561353864/89607982.jpg</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-969675948161-miks-nezhnii-?editionuid=231105875691</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-802553109081-rozovii-dim</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Микс "Нежный " - 15 - Матовая бумага</t>
+          <t>Комплимент ПУШ - M</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>4100</v>
+        <v>1800</v>
       </c>
       <c r="C316" t="inlineStr"/>
       <c r="D316" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6162-6638-4265-a134-666564346264/85360901.jpg</t>
+          <t>https://static.tildacdn.com/stor6130-3238-4262-a461-356438363462/10580626.jpg</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-969675948161-miks-nezhnii-?editionuid=759439311541</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-339880785851-kompliment-push?editionuid=217256802002</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Букет Белый шоколад</t>
+          <t>Комплимент ПУШ - L</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>5800</v>
-      </c>
-      <c r="C317" t="n">
-        <v>5900</v>
-      </c>
+        <v>2150</v>
+      </c>
+      <c r="C317" t="inlineStr"/>
       <c r="D317" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3531-6333-4436-b830-636438386630/21485586.jpg</t>
+          <t>https://static.tildacdn.com/stor3166-3461-4061-b836-613539313633/10742640.jpg</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-604610293441-buket-belii-shokolad</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-339880785851-kompliment-push?editionuid=989656423962</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Ажурные розы в коробке</t>
+          <t>Комплимент МАРМЕЛАД</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>3800</v>
+        <v>2650</v>
       </c>
       <c r="C318" t="inlineStr"/>
       <c r="D318" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3638-6166-4062-a634-363361633538/95787248.jpg</t>
+          <t>https://static.tildacdn.com/stor3965-3439-4462-b735-636564646463/91567819.jpg</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-706637499731-azhurnie-rozi-v-korobke</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-322995211141-kompliment-marmelad</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Комплимент ВАНИЛЬ с ромашками</t>
+          <t>Шикарная корзина с кустовыми розами</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>2690</v>
-      </c>
-      <c r="C319" t="inlineStr"/>
+        <v>18990</v>
+      </c>
+      <c r="C319" t="n">
+        <v>21500</v>
+      </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3361-3566-4639-b964-323030333165/90202533.jpg</t>
+          <t>https://static.tildacdn.com/stor3938-6432-4138-a266-633765366335/95496298.jpg</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-355408923071-kompliment-vanil-s-romashkami</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-329147948761-shikarnaya-korzina-s-kustovimi-rozami</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Коробка с кустовыми розами</t>
+          <t>Букет ароматных лилии в ленту - 3 - Атласная лента</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>3500</v>
+        <v>2350</v>
       </c>
       <c r="C320" t="inlineStr"/>
       <c r="D320" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6561-6635-4566-b836-393737636261/47533235.jpg</t>
+          <t>https://static.tildacdn.com/stor6261-3863-4464-b164-376561333937/27613053.jpg</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-190380899281-korobka-s-kustovimi-rozami</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-854974054121-buket-aromatnih-lilii-v-lentu?editionuid=807760891511</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Дивная Орхидея</t>
+          <t>Букет ароматных лилии в ленту - 5 - Атласная лента</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>5600</v>
+        <v>3850</v>
       </c>
       <c r="C321" t="inlineStr"/>
       <c r="D321" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6631-3961-4166-a236-343666333130/79650328.jpg</t>
+          <t>https://static.tildacdn.com/stor3232-3234-4665-b932-346439353435/70920808.jpg</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-399495570211-divnaya-orhideya</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-854974054121-buket-aromatnih-lilii-v-lentu?editionuid=935605880011</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Коробка "Орхидея "</t>
+          <t>Букет ароматных лилии в ленту - 7 - Атласная лента</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>5700</v>
+        <v>5350</v>
       </c>
       <c r="C322" t="inlineStr"/>
       <c r="D322" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6531-3062-4739-a365-633930663962/93446831.jpg</t>
+          <t>https://static.tildacdn.com/stor3266-3865-4235-a261-383438323636/78878017.jpg</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-909950155641-korobka-orhideya-</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-854974054121-buket-aromatnih-lilii-v-lentu?editionuid=621399533081</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Букет КРИСТАЛЛ</t>
+          <t>Букет ароматных лилии в ленту - 3 - Матовая бумага</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>6999</v>
+        <v>2550</v>
       </c>
       <c r="C323" t="inlineStr"/>
       <c r="D323" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3366-3065-4265-b239-376235653964/39754072.jpg</t>
+          <t>https://static.tildacdn.com/stor3433-3933-4632-b430-363235313034/58463971.jpg</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-516964640791-buket-kristall</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-854974054121-buket-aromatnih-lilii-v-lentu?editionuid=428830803781</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Розовый дым</t>
+          <t>Букет ароматных лилии в ленту - 5 - Матовая бумага</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>13500</v>
+        <v>4250</v>
       </c>
       <c r="C324" t="inlineStr"/>
       <c r="D324" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6161-6139-4462-b233-336561353864/89607982.jpg</t>
+          <t>https://static.tildacdn.com/stor6364-6334-4261-a634-336263636434/83026114.jpg</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-802553109081-rozovii-dim</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-854974054121-buket-aromatnih-lilii-v-lentu?editionuid=507029921911</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Комплимент ПУШ</t>
+          <t>Букет ароматных лилии в ленту - 7 - Матовая бумага</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>1800</v>
+        <v>5900</v>
       </c>
       <c r="C325" t="inlineStr"/>
       <c r="D325" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3434-3066-4762-b833-646330663731/23788964.jpg</t>
+          <t>https://static.tildacdn.com/stor3534-6531-4138-a363-356333643062/85735675.jpg</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-339880785851-kompliment-push</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-854974054121-buket-aromatnih-lilii-v-lentu?editionuid=330876877451</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Комплимент МАРМЕЛАД</t>
+          <t>Букет ароматных лилии в ленту - 11 - Атласная лента</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>2650</v>
+        <v>8600</v>
       </c>
       <c r="C326" t="inlineStr"/>
       <c r="D326" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3965-3439-4462-b735-636564646463/91567819.jpg</t>
+          <t>https://static.tildacdn.com/stor6231-6132-4133-b632-656636393735/40808809.jpg</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-322995211141-kompliment-marmelad</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-854974054121-buket-aromatnih-lilii-v-lentu?editionuid=352141135642</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Шикарная корзина с кустовыми розами</t>
+          <t>Букет ароматных лилии в ленту - 11 - Матовая бумага</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>18990</v>
-      </c>
-      <c r="C327" t="n">
-        <v>21500</v>
-      </c>
+        <v>8990</v>
+      </c>
+      <c r="C327" t="inlineStr"/>
       <c r="D327" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3938-6432-4138-a266-633765366335/95496298.jpg</t>
+          <t>https://static.tildacdn.com/stor3239-6236-4438-b538-633738336135/85330738.jpg</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-329147948761-shikarnaya-korzina-s-kustovimi-rozami</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-854974054121-buket-aromatnih-lilii-v-lentu?editionuid=444544724772</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Букет ароматных лилии в ленту - 3 - Атласная лента</t>
+          <t>Букет ароматных лилии в ленту - 15 - Матовая бумага</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>2350</v>
+        <v>11990</v>
       </c>
       <c r="C328" t="inlineStr"/>
       <c r="D328" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6261-3863-4464-b164-376561333937/27613053.jpg</t>
+          <t>https://static.tildacdn.com/stor3239-6236-4438-b538-633738336135/85330738.jpg</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-854974054121-buket-aromatnih-lilii-v-lentu?editionuid=807760891511</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-854974054121-buket-aromatnih-lilii-v-lentu?editionuid=810198608332</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Букет ароматных лилии в ленту - 5 - Атласная лента</t>
+          <t>Мечта</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>3850</v>
-      </c>
-      <c r="C329" t="inlineStr"/>
+        <v>6500</v>
+      </c>
+      <c r="C329" t="n">
+        <v>6500</v>
+      </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3232-3234-4665-b932-346439353435/70920808.jpg</t>
+          <t>https://static.tildacdn.com/stor6538-3533-4866-b134-646334653462/14245314.jpg</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-854974054121-buket-aromatnih-lilii-v-lentu?editionuid=935605880011</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-831554304821-mechta</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Букет ароматных лилии в ленту - 7 - Атласная лента</t>
+          <t>Корзина кустовых роз 1</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>5350</v>
-      </c>
-      <c r="C330" t="inlineStr"/>
+        <v>13990</v>
+      </c>
+      <c r="C330" t="n">
+        <v>14990</v>
+      </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3266-3865-4235-a261-383438323636/78878017.jpg</t>
+          <t>https://static.tildacdn.com/stor3661-3663-4137-a566-393037623464/36437121.jpg</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-854974054121-buket-aromatnih-lilii-v-lentu?editionuid=621399533081</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-626227787071-korzina-kustovih-roz-1</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Букет ароматных лилии в ленту - 3 - Матовая бумага</t>
+          <t>Букет пионовидных роз с эвкалиптом - 15</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>2550</v>
+        <v>6400</v>
       </c>
       <c r="C331" t="inlineStr"/>
       <c r="D331" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3433-3933-4632-b430-363235313034/58463971.jpg</t>
+          <t>https://static.tildacdn.com/stor3062-6363-4933-b066-333439363166/16107521.jpg</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-854974054121-buket-aromatnih-lilii-v-lentu?editionuid=428830803781</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-779240055231-buket-pionovidnih-roz-s-evkaliptom?editionuid=708375581471</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Букет ароматных лилии в ленту - 5 - Матовая бумага</t>
+          <t>Букет пионовидных роз с эвкалиптом - 25</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>4250</v>
+        <v>10800</v>
       </c>
       <c r="C332" t="inlineStr"/>
       <c r="D332" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6364-6334-4261-a634-336263636434/83026114.jpg</t>
+          <t>https://static.tildacdn.com/stor3062-6363-4933-b066-333439363166/16107521.jpg</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-854974054121-buket-aromatnih-lilii-v-lentu?editionuid=507029921911</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-779240055231-buket-pionovidnih-roz-s-evkaliptom?editionuid=997102028441</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Букет ароматных лилии в ленту - 7 - Матовая бумага</t>
+          <t>Букет пионовидных роз с эвкалиптом - 35</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>5900</v>
+        <v>16500</v>
       </c>
       <c r="C333" t="inlineStr"/>
       <c r="D333" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3534-6531-4138-a363-356333643062/85735675.jpg</t>
+          <t>https://static.tildacdn.com/stor3062-6363-4933-b066-333439363166/16107521.jpg</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-854974054121-buket-aromatnih-lilii-v-lentu?editionuid=330876877451</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-779240055231-buket-pionovidnih-roz-s-evkaliptom?editionuid=585625855371</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Букет ароматных лилии в ленту - 11 - Атласная лента</t>
+          <t>Букет пионовидных роз с эвкалиптом - 11</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>8600</v>
+        <v>5200</v>
       </c>
       <c r="C334" t="inlineStr"/>
       <c r="D334" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6231-6132-4133-b632-656636393735/40808809.jpg</t>
+          <t>https://static.tildacdn.com/stor3062-6363-4933-b066-333439363166/16107521.jpg</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-854974054121-buket-aromatnih-lilii-v-lentu?editionuid=352141135642</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-779240055231-buket-pionovidnih-roz-s-evkaliptom?editionuid=976684960222</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Букет ароматных лилии в ленту - 11 - Матовая бумага</t>
+          <t>Букет пионовидных роз с эвкалиптом - 9</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>8990</v>
+        <v>4400</v>
       </c>
       <c r="C335" t="inlineStr"/>
       <c r="D335" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3239-6236-4438-b538-633738336135/85330738.jpg</t>
+          <t>https://static.tildacdn.com/stor3062-6363-4933-b066-333439363166/16107521.jpg</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-854974054121-buket-aromatnih-lilii-v-lentu?editionuid=444544724772</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-779240055231-buket-pionovidnih-roz-s-evkaliptom?editionuid=285996858812</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Букет ароматных лилии в ленту - 15 - Матовая бумага</t>
+          <t>ПИОНОВИДНЫЕ РОЗЫ ЭСПЕРАНС в оформлении - 15</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>11990</v>
-      </c>
-      <c r="C336" t="inlineStr"/>
+        <v>5050</v>
+      </c>
+      <c r="C336" t="n">
+        <v>5500</v>
+      </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3239-6236-4438-b538-633738336135/85330738.jpg</t>
+          <t>https://static.tildacdn.com/stor3165-3932-4861-a531-323836623735/37479800.jpg</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-854974054121-buket-aromatnih-lilii-v-lentu?editionuid=810198608332</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-630572230861-pionovidnie-rozi-esperans-v-oformlenii?editionuid=996141501582</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Мечта</t>
+          <t>ПИОНОВИДНЫЕ РОЗЫ ЭСПЕРАНС в оформлении - 25</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>6500</v>
+        <v>8250</v>
       </c>
       <c r="C337" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6538-3533-4866-b134-646334653462/14245314.jpg</t>
+          <t>https://static.tildacdn.com/stor3136-6364-4463-b436-653834326437/18587012.jpg</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-831554304821-mechta</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-630572230861-pionovidnie-rozi-esperans-v-oformlenii?editionuid=204989056352</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>51 кремовая роза</t>
+          <t>ПИОНОВИДНЫЕ РОЗЫ ЭСПЕРАНС в оформлении - 35</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>12590</v>
-      </c>
-      <c r="C338" t="inlineStr"/>
+        <v>11250</v>
+      </c>
+      <c r="C338" t="n">
+        <v>15500</v>
+      </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3063-3966-4136-b735-386133633035/40006718.jpg</t>
+          <t>https://static.tildacdn.com/stor6635-3139-4339-a461-326665396331/67564859.jpg</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-555099133731-51-kremovaya-roza</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-630572230861-pionovidnie-rozi-esperans-v-oformlenii?editionuid=958352563632</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Корзина кустовых роз 1</t>
+          <t>ПИОНОВИДНЫЕ РОЗЫ ЭСПЕРАНС в оформлении - 51</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>13990</v>
+        <v>15550</v>
       </c>
       <c r="C339" t="n">
-        <v>14990</v>
+        <v>18200</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3661-3663-4137-a566-393037623464/36437121.jpg</t>
+          <t>https://static.tildacdn.com/stor3337-3966-4535-a635-373930393161/67450178.jpg</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-626227787071-korzina-kustovih-roz-1</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-630572230861-pionovidnie-rozi-esperans-v-oformlenii?editionuid=211503308152</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Букет пионовидных роз с эвкалиптом - 15</t>
+          <t>ПИОНОВИДНЫЕ РОЗЫ ЭСПЕРАНС в оформлении - 101</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>6400</v>
-      </c>
-      <c r="C340" t="inlineStr"/>
+        <v>27999</v>
+      </c>
+      <c r="C340" t="n">
+        <v>35500</v>
+      </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3062-6363-4933-b066-333439363166/16107521.jpg</t>
+          <t>https://static.tildacdn.com/stor6263-3536-4263-a631-653462343963/77678309.jpg</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-779240055231-buket-pionovidnih-roz-s-evkaliptom?editionuid=708375581471</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-630572230861-pionovidnie-rozi-esperans-v-oformlenii?editionuid=807594863492</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Букет пионовидных роз с эвкалиптом - 25</t>
+          <t>ПИОНОВИДНЫЕ РОЗЫ ЭСПЕРАНС в оформлении - 9</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>10800</v>
-      </c>
-      <c r="C341" t="inlineStr"/>
+        <v>3250</v>
+      </c>
+      <c r="C341" t="n">
+        <v>3500</v>
+      </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3062-6363-4933-b066-333439363166/16107521.jpg</t>
+          <t>https://static.tildacdn.com/stor6534-3533-4134-b562-623233306363/74005429.jpg</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-779240055231-buket-pionovidnih-roz-s-evkaliptom?editionuid=997102028441</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-630572230861-pionovidnie-rozi-esperans-v-oformlenii?editionuid=672364840112</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Букет пионовидных роз с эвкалиптом - 35</t>
+          <t>Вау-букет 151 роза и Большой медведь</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>16500</v>
-      </c>
-      <c r="C342" t="inlineStr"/>
+        <v>39990</v>
+      </c>
+      <c r="C342" t="n">
+        <v>49999</v>
+      </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3062-6363-4933-b066-333439363166/16107521.jpg</t>
+          <t>https://static.tildacdn.com/stor3031-3464-4438-a530-343839366363/74084416.jpg</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-779240055231-buket-pionovidnih-roz-s-evkaliptom?editionuid=585625855371</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-694865027691-vau-buket-151-roza-i-bolshoi-medved</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Букет пионовидных роз с эвкалиптом - 11</t>
+          <t>КОРЗИНА РОМАШЕК из хризантем - 9</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>5200</v>
+        <v>3650</v>
       </c>
       <c r="C343" t="inlineStr"/>
       <c r="D343" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3062-6363-4933-b066-333439363166/16107521.jpg</t>
+          <t>https://static.tildacdn.com/stor6462-6261-4231-b161-623838343362/35127181.jpg</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-779240055231-buket-pionovidnih-roz-s-evkaliptom?editionuid=976684960222</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-174679188781-korzina-romashek-iz-hrizantem?editionuid=456287886831</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Букет пионовидных роз с эвкалиптом - 9</t>
+          <t>КОРЗИНА РОМАШЕК из хризантем - 11</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="C344" t="inlineStr"/>
       <c r="D344" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3062-6363-4933-b066-333439363166/16107521.jpg</t>
+          <t>https://static.tildacdn.com/stor3663-6331-4837-a661-626362363061/94340912.jpg</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-779240055231-buket-pionovidnih-roz-s-evkaliptom?editionuid=285996858812</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-174679188781-korzina-romashek-iz-hrizantem?editionuid=845116940031</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>ПИОНОВИДНЫЕ РОЗЫ ЭСПЕРАНС в оформлении - 15</t>
+          <t>КОРЗИНА РОМАШЕК из хризантем - 25</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>5050</v>
-      </c>
-      <c r="C345" t="n">
-        <v>5500</v>
-      </c>
+        <v>9100</v>
+      </c>
+      <c r="C345" t="inlineStr"/>
       <c r="D345" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3165-3932-4861-a531-323836623735/37479800.jpg</t>
+          <t>https://static.tildacdn.com/stor6433-3038-4363-a130-353261333636/29689047.jpg</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-630572230861-pionovidnie-rozi-esperans-v-oformlenii?editionuid=996141501582</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-174679188781-korzina-romashek-iz-hrizantem?editionuid=862089508361</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>ПИОНОВИДНЫЕ РОЗЫ ЭСПЕРАНС в оформлении - 25</t>
+          <t>КОРЗИНА РОМАШЕК из хризантем - 51</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>8250</v>
-      </c>
-      <c r="C346" t="n">
-        <v>9500</v>
-      </c>
+        <v>14900</v>
+      </c>
+      <c r="C346" t="inlineStr"/>
       <c r="D346" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3136-6364-4463-b436-653834326437/18587012.jpg</t>
+          <t>https://static.tildacdn.com/stor6433-3038-4363-a130-353261333636/29689047.jpg</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-630572230861-pionovidnie-rozi-esperans-v-oformlenii?editionuid=204989056352</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-174679188781-korzina-romashek-iz-hrizantem?editionuid=295574500062</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>ПИОНОВИДНЫЕ РОЗЫ ЭСПЕРАНС в оформлении - 35</t>
+          <t>КОРЗИНА РОМАШЕК из хризантем - 101</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>11250</v>
-      </c>
-      <c r="C347" t="n">
-        <v>15500</v>
-      </c>
+        <v>23990</v>
+      </c>
+      <c r="C347" t="inlineStr"/>
       <c r="D347" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6635-3139-4339-a461-326665396331/67564859.jpg</t>
+          <t>https://static.tildacdn.com/stor3861-3363-4864-b836-663831653462/25298990.jpg</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-630572230861-pionovidnie-rozi-esperans-v-oformlenii?editionuid=958352563632</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-174679188781-korzina-romashek-iz-hrizantem?editionuid=167066001212</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>ПИОНОВИДНЫЕ РОЗЫ ЭСПЕРАНС в оформлении - 51</t>
+          <t>КОРЗИНА РОМАШЕК из хризантем - 15</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>15550</v>
-      </c>
-      <c r="C348" t="n">
-        <v>18200</v>
-      </c>
+        <v>5750</v>
+      </c>
+      <c r="C348" t="inlineStr"/>
       <c r="D348" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3337-3966-4535-a635-373930393161/67450178.jpg</t>
+          <t>https://static.tildacdn.com/stor3462-3837-4339-b136-373366663565/97529689.jpg</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-630572230861-pionovidnie-rozi-esperans-v-oformlenii?editionuid=211503308152</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-174679188781-korzina-romashek-iz-hrizantem?editionuid=854699513312</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>ПИОНОВИДНЫЕ РОЗЫ ЭСПЕРАНС в оформлении - 101</t>
+          <t>Корзина люкс</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>27999</v>
+        <v>39000</v>
       </c>
       <c r="C349" t="n">
-        <v>35500</v>
+        <v>49990</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6263-3536-4263-a631-653462343963/77678309.jpg</t>
+          <t>https://static.tildacdn.com/stor3665-3335-4462-b738-363535393066/72943061.jpg</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-630572230861-pionovidnie-rozi-esperans-v-oformlenii?editionuid=807594863492</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-832446607671-korzina-lyuks</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>ПИОНОВИДНЫЕ РОЗЫ ЭСПЕРАНС в оформлении - 9</t>
+          <t>Букет "Улыбка "</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>3250</v>
-      </c>
-      <c r="C350" t="n">
-        <v>3500</v>
-      </c>
+        <v>4450</v>
+      </c>
+      <c r="C350" t="inlineStr"/>
       <c r="D350" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6534-3533-4134-b562-623233306363/74005429.jpg</t>
+          <t>https://static.tildacdn.com/stor3061-3038-4737-a139-323338396665/77387930.jpg</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-630572230861-pionovidnie-rozi-esperans-v-oformlenii?editionuid=672364840112</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-639588006771-buket-ulibka-</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Вау-букет 151 роза и Большой медведь</t>
+          <t>Букет "Свидание"</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>39990</v>
+        <v>6250</v>
       </c>
       <c r="C351" t="n">
-        <v>49999</v>
+        <v>7500</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3031-3464-4438-a530-343839366363/74084416.jpg</t>
+          <t>https://static.tildacdn.com/stor3733-6532-4265-a430-643866626163/43983847.jpg</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-694865027691-vau-buket-151-roza-i-bolshoi-medved</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-719554914021-buket-svidanie</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>КОРЗИНА РОМАШЕК из хризантем - 9</t>
+          <t>КОРЗИНА АЛЬСТРОМЕРИИ</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>3650</v>
-      </c>
-      <c r="C352" t="inlineStr"/>
+        <v>12999</v>
+      </c>
+      <c r="C352" t="n">
+        <v>15590</v>
+      </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6462-6261-4231-b161-623838343362/35127181.jpg</t>
+          <t>https://static.tildacdn.com/stor3063-3261-4239-b065-376335323134/13594109.jpg</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-174679188781-korzina-romashek-iz-hrizantem?editionuid=456287886831</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-337767923621-korzina-alstromerii</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>КОРЗИНА РОМАШЕК из хризантем - 11</t>
+          <t>Комплимент "НЕЖНОСТЬ"</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>4100</v>
+        <v>3650</v>
       </c>
       <c r="C353" t="inlineStr"/>
       <c r="D353" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3663-6331-4837-a661-626362363061/94340912.jpg</t>
+          <t>https://static.tildacdn.com/stor3639-3537-4637-b334-343835343030/44921274.jpg</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-174679188781-korzina-romashek-iz-hrizantem?editionuid=845116940031</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-559524591171-kompliment-nezhnost</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>КОРЗИНА РОМАШЕК из хризантем - 25</t>
+          <t>Комплимент "Дюшес"</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>9100</v>
-      </c>
-      <c r="C354" t="inlineStr"/>
+        <v>2450</v>
+      </c>
+      <c r="C354" t="n">
+        <v>2600</v>
+      </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6433-3038-4363-a130-353261333636/29689047.jpg</t>
+          <t>https://static.tildacdn.com/stor3931-3233-4435-a435-613230333733/29080419.jpg</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-174679188781-korzina-romashek-iz-hrizantem?editionuid=862089508361</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-660527432041-kompliment-dyushes</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>КОРЗИНА РОМАШЕК из хризантем - 51</t>
+          <t>ИГРУШКА) - Нет</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>14900</v>
+        <v>3300</v>
       </c>
       <c r="C355" t="inlineStr"/>
       <c r="D355" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6433-3038-4363-a130-353261333636/29689047.jpg</t>
+          <t>https://static.tildacdn.com/stor6564-3265-4165-b836-316637653438/14104172.jpg</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-174679188781-korzina-romashek-iz-hrizantem?editionuid=295574500062</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-236889112951-igrushka?editionuid=223863406172</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>КОРЗИНА РОМАШЕК из хризантем - 101</t>
+          <t>ИГРУШКА) - Да</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>23990</v>
+        <v>3550</v>
       </c>
       <c r="C356" t="inlineStr"/>
       <c r="D356" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3861-3363-4864-b836-663831653462/25298990.jpg</t>
+          <t>https://static.tildacdn.com/stor3361-6263-4639-b237-383237333030/83919482.jpg</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-174679188781-korzina-romashek-iz-hrizantem?editionuid=167066001212</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-236889112951-igrushka?editionuid=119690417772</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>КОРЗИНА РОМАШЕК из хризантем - 15</t>
+          <t>Букет ПЛОМБИР</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>5750</v>
+        <v>4100</v>
       </c>
       <c r="C357" t="inlineStr"/>
       <c r="D357" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3462-3837-4339-b136-373366663565/97529689.jpg</t>
+          <t>https://static.tildacdn.com/stor6262-6631-4563-a539-666230633333/16075438.jpg</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-174679188781-korzina-romashek-iz-hrizantem?editionuid=854699513312</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-437576209011-buket-plombir</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Корзина люкс</t>
+          <t>Комплимент "КРЕМ"</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>39000</v>
-      </c>
-      <c r="C358" t="n">
-        <v>49990</v>
-      </c>
+        <v>3650</v>
+      </c>
+      <c r="C358" t="inlineStr"/>
       <c r="D358" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3665-3335-4462-b738-363535393066/72943061.jpg</t>
+          <t>https://static.tildacdn.com/stor6430-3531-4135-a633-303931373131/16463170.jpg</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-832446607671-korzina-lyuks</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-391414887741-kompliment-krem</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Букет "Улыбка "</t>
+          <t>Мишка-плюш с бантом "M"</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>4450</v>
+        <v>1850</v>
       </c>
       <c r="C359" t="inlineStr"/>
       <c r="D359" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3061-3038-4737-a139-323338396665/77387930.jpg</t>
+          <t>https://static.tildacdn.com/stor3861-3531-4361-b737-646332333164/65839106.jpg</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-639588006771-buket-ulibka-</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-763780152561-mishka-plyush-s-bantom-m</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Букет "Свидание"</t>
+          <t>Медведь большой Ягодка</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>6250</v>
-      </c>
-      <c r="C360" t="n">
-        <v>7500</v>
-      </c>
+        <v>5500</v>
+      </c>
+      <c r="C360" t="inlineStr"/>
       <c r="D360" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3733-6532-4265-a430-643866626163/43983847.jpg</t>
+          <t>https://static.tildacdn.com/stor3361-3432-4163-b165-616433306430/44526455.jpg</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-719554914021-buket-svidanie</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-551329556541-medved-bolshoi-yagodka</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>КОРЗИНА АЛЬСТРОМЕРИИ</t>
+          <t>Мишка-плюш "S" беж.</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>12999</v>
-      </c>
-      <c r="C361" t="n">
-        <v>15590</v>
-      </c>
+        <v>1300</v>
+      </c>
+      <c r="C361" t="inlineStr"/>
       <c r="D361" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3063-3261-4239-b065-376335323134/13594109.jpg</t>
+          <t>https://static.tildacdn.com/stor3735-3232-4230-b363-303739646231/14667432.jpg</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-337767923621-korzina-alstromerii</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-554350694011-mishka-plyush-s-bezh</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Комплимент "НЕЖНОСТЬ"</t>
+          <t>Мишка-плюш "S" белый</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>3650</v>
+        <v>1300</v>
       </c>
       <c r="C362" t="inlineStr"/>
       <c r="D362" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3639-3537-4637-b334-343835343030/44921274.jpg</t>
+          <t>https://static.tildacdn.com/stor6261-6461-4639-b830-623535303032/54965825.jpg</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-559524591171-kompliment-nezhnost</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-292174636271-mishka-plyush-s-belii</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Комплимент "Дюшес"</t>
+          <t>Букет ГИПНОЗ</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>2450</v>
+        <v>6700</v>
       </c>
       <c r="C363" t="n">
-        <v>2600</v>
+        <v>7200</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3931-3233-4435-a435-613230333733/29080419.jpg</t>
+          <t>https://static.tildacdn.com/stor3763-3431-4736-b439-363632386633/37134397.jpg</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-660527432041-kompliment-dyushes</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-362023850031-buket-gipnoz</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>ИГРУШКА) - Нет</t>
+          <t>Коробка "Ангажемент "</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>3300</v>
+        <v>4300</v>
       </c>
       <c r="C364" t="inlineStr"/>
       <c r="D364" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6564-3265-4165-b836-316637653438/14104172.jpg</t>
+          <t>https://static.tildacdn.com/stor6363-3963-4364-a238-633236333363/13028423.jpg</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-236889112951-igrushka?editionuid=223863406172</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-359890373941-korobka-angazhement-</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>ИГРУШКА) - Да</t>
+          <t>Коробка "Ангажемент Лайт"</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>3550</v>
+        <v>4500</v>
       </c>
       <c r="C365" t="inlineStr"/>
       <c r="D365" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3361-6263-4639-b237-383237333030/83919482.jpg</t>
+          <t>https://static.tildacdn.com/stor6537-6664-4833-b033-343662313561/26722422.jpg</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-236889112951-igrushka?editionuid=119690417772</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-522766706011-korobka-angazhement-lait</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Букет ПЛОМБИР</t>
+          <t>51 роза нежный микс в корзине</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>4100</v>
-      </c>
-      <c r="C366" t="inlineStr"/>
+        <v>15750</v>
+      </c>
+      <c r="C366" t="n">
+        <v>18990</v>
+      </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6262-6631-4563-a539-666230633333/16075438.jpg</t>
+          <t>https://static.tildacdn.com/stor3733-3265-4436-a539-626133653530/77569907.jpg</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-437576209011-buket-plombir</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-987092854851-51-roza-nezhnii-miks-v-korzine</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Комплимент "КРЕМ"</t>
+          <t>Микс "Нежный "в шляпной коробке</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>3650</v>
-      </c>
-      <c r="C367" t="inlineStr"/>
+        <v>4500</v>
+      </c>
+      <c r="C367" t="n">
+        <v>4600</v>
+      </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6430-3531-4135-a633-303931373131/16463170.jpg</t>
+          <t>https://static.tildacdn.com/stor3962-3266-4430-b762-613863326537/35194428.jpg</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-391414887741-kompliment-krem</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-940945779031-miks-nezhnii-v-shlyapnoi-korobke</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Мишка-плюш с бантом "M"</t>
+          <t>"Ванильное небо "в шляпной коробке лучшей маме на свете</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>1850</v>
-      </c>
-      <c r="C368" t="inlineStr"/>
+        <v>3890</v>
+      </c>
+      <c r="C368" t="n">
+        <v>4500</v>
+      </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3861-3531-4361-b737-646332333164/65839106.jpg</t>
+          <t>https://static.tildacdn.com/stor3530-3138-4664-a365-636461383061/29872873.jpg</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-763780152561-mishka-plyush-s-bantom-m</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-654674837331-vanilnoe-nebo-v-shlyapnoi-korobke-luchsh</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Медведь большой Ягодка</t>
+          <t>"Ванильное небо "в шляпной коробке</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>5500</v>
+        <v>4999</v>
       </c>
       <c r="C369" t="inlineStr"/>
       <c r="D369" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3361-3432-4163-b165-616433306430/44526455.jpg</t>
+          <t>https://static.tildacdn.com/stor6338-3661-4264-a238-663161626462/86539497.jpg</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-551329556541-medved-bolshoi-yagodka</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-192732519511-vanilnoe-nebo-v-shlyapnoi-korobke</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Мишка-плюш "S" беж.</t>
+          <t>"Мерилин "</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>1300</v>
-      </c>
-      <c r="C370" t="inlineStr"/>
+        <v>3650</v>
+      </c>
+      <c r="C370" t="n">
+        <v>3999</v>
+      </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3735-3232-4230-b363-303739646231/14667432.jpg</t>
+          <t>https://static.tildacdn.com/stor6437-3261-4836-b665-353037326231/74437439.jpg</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-554350694011-mishka-plyush-s-bezh</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-570756966211-merilin-</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Мишка-плюш "S" белый</t>
+          <t>Мон Амур - 25</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>1300</v>
+        <v>6800</v>
       </c>
       <c r="C371" t="inlineStr"/>
       <c r="D371" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6261-6461-4639-b830-623535303032/54965825.jpg</t>
+          <t>https://static.tildacdn.com/stor3564-6238-4537-b331-393231666534/39451674.jpg</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-292174636271-mishka-plyush-s-belii</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-488774775451-mon-amur?editionuid=330327920391</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Букет ГИПНОЗ</t>
+          <t>Мон Амур - 35</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>6700</v>
-      </c>
-      <c r="C372" t="n">
-        <v>7200</v>
-      </c>
+        <v>9300</v>
+      </c>
+      <c r="C372" t="inlineStr"/>
       <c r="D372" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3763-3431-4736-b439-363632386633/37134397.jpg</t>
+          <t>https://static.tildacdn.com/stor6530-3135-4634-a435-303833653537/62658586.jpg</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-362023850031-buket-gipnoz</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-488774775451-mon-amur?editionuid=460518387891</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Коробка "Ангажемент "</t>
+          <t>Мон Амур - 51</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>4300</v>
-      </c>
-      <c r="C373" t="inlineStr"/>
+        <v>12990</v>
+      </c>
+      <c r="C373" t="n">
+        <v>17750</v>
+      </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6363-3963-4364-a238-633236333363/13028423.jpg</t>
+          <t>https://static.tildacdn.com/stor6530-3135-4634-a435-303833653537/62658586.jpg</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-359890373941-korobka-angazhement-</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-488774775451-mon-amur?editionuid=548699367961</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Коробка "Ангажемент Лайт"</t>
+          <t>Мон Амур - 101</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>4500</v>
-      </c>
-      <c r="C374" t="inlineStr"/>
+        <v>24990</v>
+      </c>
+      <c r="C374" t="n">
+        <v>35600</v>
+      </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6537-6664-4833-b033-343662313561/26722422.jpg</t>
+          <t>https://static.tildacdn.com/stor6530-3135-4634-a435-303833653537/62658586.jpg</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-522766706011-korobka-angazhement-lait</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-488774775451-mon-amur?editionuid=769488407402</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>51 роза нежный микс в корзине</t>
+          <t>Коробка L с радужной гипсофилой для мамы</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>15750</v>
-      </c>
-      <c r="C375" t="n">
-        <v>18990</v>
-      </c>
+        <v>3799</v>
+      </c>
+      <c r="C375" t="inlineStr"/>
       <c r="D375" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3733-3265-4436-a539-626133653530/77569907.jpg</t>
+          <t>https://static.tildacdn.com/stor3634-6566-4338-b733-663135306263/58897006.jpg</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-987092854851-51-roza-nezhnii-miks-v-korzine</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-600666953471-korobka-l-s-raduzhnoi-gipsofiloi-dlya-ma</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Микс "Нежный "в шляпной коробке</t>
+          <t>Коробка для мамы с гипсофилой M</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>4500</v>
-      </c>
-      <c r="C376" t="n">
-        <v>4600</v>
-      </c>
+        <v>2999</v>
+      </c>
+      <c r="C376" t="inlineStr"/>
       <c r="D376" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3962-3266-4430-b762-613863326537/35194428.jpg</t>
+          <t>https://static.tildacdn.com/stor6534-3033-4361-a336-343962343961/44420144.jpg</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-940945779031-miks-nezhnii-v-shlyapnoi-korobke</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-582942710541-korobka-dlya-mami-s-gipsofiloi-m</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>"Ванильное небо "в шляпной коробке лучшей маме на свете</t>
+          <t>101 роза нежный микс в корзине</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>3890</v>
+        <v>27990</v>
       </c>
       <c r="C377" t="n">
-        <v>4500</v>
+        <v>33500</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3530-3138-4664-a365-636461383061/29872873.jpg</t>
+          <t>https://static.tildacdn.com/stor6439-3961-4033-a239-613063663235/53251246.jpg</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-654674837331-vanilnoe-nebo-v-shlyapnoi-korobke-luchsh</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-251477018101-101-roza-nezhnii-miks-v-korzine</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>"Ванильное небо "в шляпной коробке</t>
+          <t>Букет ЛЕТО с хризантемами и ромашками</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>4999</v>
+        <v>3100</v>
       </c>
       <c r="C378" t="inlineStr"/>
       <c r="D378" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6338-3661-4264-a238-663161626462/86539497.jpg</t>
+          <t>https://static.tildacdn.com/stor3134-6132-4238-b161-343433346231/88471835.jpg</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-192732519511-vanilnoe-nebo-v-shlyapnoi-korobke</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-821180964631-buket-leto-s-hrizantemami-i-romashkami</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>"Мерилин "</t>
+          <t>Букет АРОМАТ</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>3650</v>
-      </c>
-      <c r="C379" t="n">
-        <v>3999</v>
-      </c>
+        <v>2700</v>
+      </c>
+      <c r="C379" t="inlineStr"/>
       <c r="D379" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6437-3261-4836-b665-353037326231/74437439.jpg</t>
+          <t>https://static.tildacdn.com/stor3837-6639-4439-b637-613064363466/87696411.jpg</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-570756966211-merilin-</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-489100649391-buket-aromat</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Мон Амур - 25</t>
+          <t>Вставка сердце в букет</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>6800</v>
+        <v>250</v>
       </c>
       <c r="C380" t="inlineStr"/>
       <c r="D380" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3564-6238-4537-b331-393231666534/39451674.jpg</t>
+          <t>https://static.tildacdn.com/stor3230-6663-4066-b534-643662323937/62263476.jpg</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-488774775451-mon-amur?editionuid=330327920391</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-974556600091-vstavka-serdtse-v-buket</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Мон Амур - 35</t>
+          <t>Букет ФЕЯ</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>9300</v>
-      </c>
-      <c r="C381" t="inlineStr"/>
+        <v>3890</v>
+      </c>
+      <c r="C381" t="n">
+        <v>4000</v>
+      </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6530-3135-4634-a435-303833653537/62658586.jpg</t>
+          <t>https://static.tildacdn.com/stor3333-6334-4865-b463-363036343536/77073318.jpg</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-488774775451-mon-amur?editionuid=460518387891</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-720813660271-buket-feya</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Мон Амур - 51</t>
+          <t>Букет "Стильный микс" с орхидеями</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>12990</v>
+        <v>5300</v>
       </c>
       <c r="C382" t="n">
-        <v>17750</v>
+        <v>5900</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6530-3135-4634-a435-303833653537/62658586.jpg</t>
+          <t>https://static.tildacdn.com/stor3438-3261-4464-a639-333432623737/58155197.jpg</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-488774775451-mon-amur?editionuid=548699367961</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-704877065131-buket-stilnii-miks-s-orhideyami</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Мон Амур - 101</t>
+          <t>Букет 11 красных роз с кустовыми розами в красивом оформлении</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>24990</v>
-      </c>
-      <c r="C383" t="n">
-        <v>35600</v>
-      </c>
+        <v>7200</v>
+      </c>
+      <c r="C383" t="inlineStr"/>
       <c r="D383" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6530-3135-4634-a435-303833653537/62658586.jpg</t>
+          <t>https://static.tildacdn.com/stor3337-6636-4435-b631-343863306433/59411787.jpg</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-488774775451-mon-amur?editionuid=769488407402</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-335025577601-buket-11-krasnih-roz-s-kustovimi-rozami</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Коробка L с радужной гипсофилой для мамы</t>
+          <t>Букет ПЕРВАЯ ЛЮБОВЬ - Xl</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>3799</v>
+        <v>4690</v>
       </c>
       <c r="C384" t="inlineStr"/>
       <c r="D384" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3634-6566-4338-b733-663135306263/58897006.jpg</t>
+          <t>https://static.tildacdn.com/stor3239-3737-4435-a633-613836386633/51111587.jpg</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-600666953471-korobka-l-s-raduzhnoi-gipsofiloi-dlya-ma</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-659712674101-buket-pervaya-lyubov?editionuid=958551503321</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Коробка для мамы с гипсофилой M</t>
+          <t>Букет ПЕРВАЯ ЛЮБОВЬ - L</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>2999</v>
+        <v>3500</v>
       </c>
       <c r="C385" t="inlineStr"/>
       <c r="D385" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6534-3033-4361-a336-343962343961/44420144.jpg</t>
+          <t>https://static.tildacdn.com/stor6666-6663-4466-b936-653534393765/80171896.jpg</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-582942710541-korobka-dlya-mami-s-gipsofiloi-m</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-659712674101-buket-pervaya-lyubov?editionuid=138048727071</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>101 роза нежный микс в корзине</t>
+          <t>Комплимент из пионовидных роз в оформлении - 7</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>27990</v>
-      </c>
-      <c r="C386" t="n">
-        <v>33500</v>
-      </c>
+        <v>2650</v>
+      </c>
+      <c r="C386" t="inlineStr"/>
       <c r="D386" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6439-3961-4033-a239-613063663235/53251246.jpg</t>
+          <t>https://static.tildacdn.com/stor3437-6163-4565-a262-326664653130/42939189.jpg</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-251477018101-101-roza-nezhnii-miks-v-korzine</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-597405396191-kompliment-iz-pionovidnih-roz-v-oformlen?editionuid=308194824921</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Букет ЛЕТО с хризантемами и ромашками</t>
+          <t>Комплимент из пионовидных роз в оформлении - 9</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>3100</v>
+        <v>3250</v>
       </c>
       <c r="C387" t="inlineStr"/>
       <c r="D387" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3134-6132-4238-b161-343433346231/88471835.jpg</t>
+          <t>https://static.tildacdn.com/stor3730-6336-4237-a665-313838623331/13509496.jpg</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-821180964631-buket-leto-s-hrizantemami-i-romashkami</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-597405396191-kompliment-iz-pionovidnih-roz-v-oformlen?editionuid=302968644811</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Букет АРОМАТ</t>
+          <t>Комплимент из пионовидных роз в оформлении - 11</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>2700</v>
+        <v>3850</v>
       </c>
       <c r="C388" t="inlineStr"/>
       <c r="D388" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3837-6639-4439-b637-613064363466/87696411.jpg</t>
+          <t>https://static.tildacdn.com/stor3965-3561-4438-b732-376434653936/64677586.jpg</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-489100649391-buket-aromat</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-597405396191-kompliment-iz-pionovidnih-roz-v-oformlen?editionuid=266242456331</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Вставка сердце в букет</t>
+          <t>Букет ТВОЙ ДЕНЬ</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>250</v>
+        <v>3590</v>
       </c>
       <c r="C389" t="inlineStr"/>
       <c r="D389" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3230-6663-4066-b534-643662323937/62263476.jpg</t>
+          <t>https://static.tildacdn.com/stor3434-6538-4239-b135-306430353463/13446289.jpg</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-974556600091-vstavka-serdtse-v-buket</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-845612782351-buket-tvoi-den</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Букет ФЕЯ</t>
+          <t>Ромашкина любовь</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>3890</v>
-      </c>
-      <c r="C390" t="n">
-        <v>4000</v>
-      </c>
+        <v>10990</v>
+      </c>
+      <c r="C390" t="inlineStr"/>
       <c r="D390" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3333-6334-4865-b463-363036343536/77073318.jpg</t>
+          <t>https://static.tildacdn.com/stor6165-3562-4761-b936-303433316233/50013829.jpg</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-720813660271-buket-feya</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-950411727471-romashkina-lyubov</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Букет "Стильный микс" с орхидеями</t>
+          <t>ВАУ КОРЗИНА ОРХИДЕЙ</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>5300</v>
-      </c>
-      <c r="C391" t="n">
-        <v>5900</v>
-      </c>
+        <v>32990</v>
+      </c>
+      <c r="C391" t="inlineStr"/>
       <c r="D391" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3438-3261-4464-a639-333432623737/58155197.jpg</t>
+          <t>https://static.tildacdn.com/stor6232-6239-4333-b864-323133363433/21466466.jpg</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-704877065131-buket-stilnii-miks-s-orhideyami</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-522713984731-vau-korzina-orhidei</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Букет 11 красных роз с кустовыми розами в красивом оформлении</t>
+          <t>КОМПЛИМЕНТ "НЕЖЕНКА"</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>7200</v>
+        <v>2250</v>
       </c>
       <c r="C392" t="inlineStr"/>
       <c r="D392" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3337-6636-4435-b631-343863306433/59411787.jpg</t>
+          <t>https://static.tildacdn.com/stor3734-3730-4135-a565-386666386134/91097418.jpg</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-335025577601-buket-11-krasnih-roz-s-kustovimi-rozami</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-500037248201-kompliment-nezhenka</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Букет ПЕРВАЯ ЛЮБОВЬ - Xl</t>
+          <t>Букет РАДУЖНЫЙ</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>4690</v>
-      </c>
-      <c r="C393" t="inlineStr"/>
+        <v>2700</v>
+      </c>
+      <c r="C393" t="n">
+        <v>3450</v>
+      </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3239-3737-4435-a633-613836386633/51111587.jpg</t>
+          <t>https://static.tildacdn.com/stor6464-6336-4230-b836-643663653338/18214303.jpg</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-659712674101-buket-pervaya-lyubov?editionuid=958551503321</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-290729033721-buket-raduzhnii</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Букет ПЕРВАЯ ЛЮБОВЬ - L</t>
+          <t>Гипсофила от всего сердца</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>3500</v>
+        <v>3200</v>
       </c>
       <c r="C394" t="inlineStr"/>
       <c r="D394" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6666-6663-4466-b936-653534393765/80171896.jpg</t>
+          <t>https://static.tildacdn.com/stor3531-6530-4836-a565-643263303762/33953573.jpg</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-659712674101-buket-pervaya-lyubov?editionuid=138048727071</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-398838219472-gipsofila-ot-vsego-serdtsa</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Букет БОМБИТА</t>
+          <t>Букет " ТЕБЕ КОНФЕТКА"</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>4050</v>
-      </c>
-      <c r="C395" t="n">
-        <v>5400</v>
-      </c>
+        <v>3600</v>
+      </c>
+      <c r="C395" t="inlineStr"/>
       <c r="D395" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3530-6363-4130-a535-336236616236/99256221.jpg</t>
+          <t>https://static.tildacdn.com/stor3863-3438-4534-a566-343962323762/19778219.jpg</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-148743167681-buket-bombita</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-843977882512-buket-tebe-konfetka</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Комплимент из пионовидных роз в оформлении - 7</t>
+          <t>Букет МАЛИНОВОЕ СУФЛЕ</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>2650</v>
+        <v>3600</v>
       </c>
       <c r="C396" t="inlineStr"/>
       <c r="D396" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3437-6163-4565-a262-326664653130/42939189.jpg</t>
+          <t>https://static.tildacdn.com/stor3839-3732-4230-b263-356135623338/81392984.jpg</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-597405396191-kompliment-iz-pionovidnih-roz-v-oformlen?editionuid=308194824921</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-910512563562-buket-malinovoe-sufle</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Комплимент из пионовидных роз в оформлении - 9</t>
+          <t>Букет СИНЯЯ ОРХИДЕЯ</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>3250</v>
+        <v>5650</v>
       </c>
       <c r="C397" t="inlineStr"/>
       <c r="D397" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3730-6336-4237-a665-313838623331/13509496.jpg</t>
+          <t>https://static.tildacdn.com/stor6162-3435-4736-b964-373535626539/31455574.jpg</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-597405396191-kompliment-iz-pionovidnih-roz-v-oformlen?editionuid=302968644811</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-907367951302-buket-sinyaya-orhideya</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Комплимент из пионовидных роз в оформлении - 11</t>
+          <t>51 пионовидная кустовая роза в нежном оформлении</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>3850</v>
-      </c>
-      <c r="C398" t="inlineStr"/>
+        <v>15500</v>
+      </c>
+      <c r="C398" t="n">
+        <v>18000</v>
+      </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3965-3561-4438-b732-376434653936/64677586.jpg</t>
+          <t>https://static.tildacdn.com/stor3634-3734-4461-b561-613532326164/47005492.jpg</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-597405396191-kompliment-iz-pionovidnih-roz-v-oformlen?editionuid=266242456331</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-420829464592-51-pionovidnaya-kustovaya-roza-v-nezhnom</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Букет ТВОЙ ДЕНЬ</t>
+          <t>Букет РОМАНТИКА</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>3590</v>
-      </c>
-      <c r="C399" t="inlineStr"/>
+        <v>4150</v>
+      </c>
+      <c r="C399" t="n">
+        <v>5790</v>
+      </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3434-6538-4239-b135-306430353463/13446289.jpg</t>
+          <t>https://static.tildacdn.com/stor6236-3638-4164-b265-643862396434/56613877.jpg</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-845612782351-buket-tvoi-den</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-359890420482-buket-romantika</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Ромашкина любовь</t>
+          <t>Комплимент с маттиолой</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>10990</v>
+        <v>1800</v>
       </c>
       <c r="C400" t="inlineStr"/>
       <c r="D400" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6165-3562-4761-b936-303433316233/50013829.jpg</t>
+          <t>https://static.tildacdn.com/stor3634-3738-4766-b239-623731653165/17661798.jpg</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-950411727471-romashkina-lyubov</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-232892230242-kompliment-s-mattioloi</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>ВАУ КОРЗИНА ОРХИДЕЙ</t>
+          <t>Пионовидные кустовые розы в оформлении - 9</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>32990</v>
+        <v>3650</v>
       </c>
       <c r="C401" t="inlineStr"/>
       <c r="D401" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6232-6239-4333-b864-323133363433/21466466.jpg</t>
+          <t>https://static.tildacdn.com/stor3364-3334-4339-b730-653536623666/41200469.jpg</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-522713984731-vau-korzina-orhidei</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-883743434962-pionovidnie-kustovie-rozi-v-oformlenii?editionuid=762768049002</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>КОМПЛИМЕНТ "НЕЖЕНКА"</t>
+          <t>Пионовидные кустовые розы в оформлении - 11</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>2250</v>
+        <v>4400</v>
       </c>
       <c r="C402" t="inlineStr"/>
       <c r="D402" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3734-3730-4135-a565-386666386134/91097418.jpg</t>
+          <t>https://static.tildacdn.com/stor3564-6135-4630-b531-356538373065/45691131.jpg</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-500037248201-kompliment-nezhenka</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-883743434962-pionovidnie-kustovie-rozi-v-oformlenii?editionuid=231966809752</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Букет РАДУЖНЫЙ</t>
+          <t>Пионовидные кустовые розы в оформлении - 15</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>2700</v>
-      </c>
-      <c r="C403" t="n">
-        <v>3450</v>
-      </c>
+        <v>5500</v>
+      </c>
+      <c r="C403" t="inlineStr"/>
       <c r="D403" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6464-6336-4230-b836-643663653338/18214303.jpg</t>
+          <t>https://static.tildacdn.com/stor6530-3165-4131-b634-353939346238/45754421.jpg</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-290729033721-buket-raduzhnii</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-883743434962-pionovidnie-kustovie-rozi-v-oformlenii?editionuid=197416122812</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Гипсофила от всего сердца</t>
+          <t>Пионовидные кустовые розы в оформлении - 25</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>3200</v>
+        <v>9500</v>
       </c>
       <c r="C404" t="inlineStr"/>
       <c r="D404" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3531-6530-4836-a565-643263303762/33953573.jpg</t>
+          <t>https://static.tildacdn.com/stor6166-6339-4931-a536-383533343232/59431960.jpg</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-398838219472-gipsofila-ot-vsego-serdtsa</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-883743434962-pionovidnie-kustovie-rozi-v-oformlenii?editionuid=531645917332</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Букет " ТЕБЕ КОНФЕТКА"</t>
+          <t>Пионовидные кустовые розы в оформлении - 35</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>3600</v>
+        <v>12900</v>
       </c>
       <c r="C405" t="inlineStr"/>
       <c r="D405" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3863-3438-4534-a566-343962323762/19778219.jpg</t>
+          <t>https://static.tildacdn.com/stor6166-6339-4931-a536-383533343232/59431960.jpg</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-843977882512-buket-tebe-konfetka</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-883743434962-pionovidnie-kustovie-rozi-v-oformlenii?editionuid=172751700112</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Букет МАЛИНОВОЕ СУФЛЕ</t>
+          <t>Пионовидные кустовые розы в оформлении - 51</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>3600</v>
+        <v>15900</v>
       </c>
       <c r="C406" t="inlineStr"/>
       <c r="D406" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3839-3732-4230-b263-356135623338/81392984.jpg</t>
+          <t>https://static.tildacdn.com/stor6166-6339-4931-a536-383533343232/59431960.jpg</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-910512563562-buket-malinovoe-sufle</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-883743434962-pionovidnie-kustovie-rozi-v-oformlenii?editionuid=261066938402</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Букет СИНЯЯ ОРХИДЕЯ</t>
+          <t>Пионовидные кустовые розы в оформлении - 101</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>5650</v>
+        <v>31100</v>
       </c>
       <c r="C407" t="inlineStr"/>
       <c r="D407" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6162-3435-4736-b964-373535626539/31455574.jpg</t>
+          <t>https://static.tildacdn.com/stor6166-6339-4931-a536-383533343232/59431960.jpg</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-907367951302-buket-sinyaya-orhideya</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-883743434962-pionovidnie-kustovie-rozi-v-oformlenii?editionuid=818806872532</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>51 пионовидная кустовая роза в нежном оформлении</t>
+          <t>ХРИЗАНТЕМНЫЙ ХИТ с ароматным эвкалиптом - 7</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>15500</v>
-      </c>
-      <c r="C408" t="n">
-        <v>18000</v>
-      </c>
+        <v>2800</v>
+      </c>
+      <c r="C408" t="inlineStr"/>
       <c r="D408" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3634-3734-4461-b561-613532326164/47005492.jpg</t>
+          <t>https://static.tildacdn.com/stor6161-6130-4532-b930-666332343033/85650724.jpg</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-420829464592-51-pionovidnaya-kustovaya-roza-v-nezhnom</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-115432094412-hrizantemnii-hit-s-aromatnim-evkaliptom?editionuid=567905219022</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Букет РОМАНТИКА</t>
+          <t>ХРИЗАНТЕМНЫЙ ХИТ с ароматным эвкалиптом - 9</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>4150</v>
-      </c>
-      <c r="C409" t="n">
-        <v>5790</v>
-      </c>
+        <v>3500</v>
+      </c>
+      <c r="C409" t="inlineStr"/>
       <c r="D409" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6236-3638-4164-b265-643862396434/56613877.jpg</t>
+          <t>https://static.tildacdn.com/stor6161-6130-4532-b930-666332343033/85650724.jpg</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-359890420482-buket-romantika</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-115432094412-hrizantemnii-hit-s-aromatnim-evkaliptom?editionuid=644036935612</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Комплимент с маттиолой</t>
+          <t>ХРИЗАНТЕМНЫЙ ХИТ с ароматным эвкалиптом - 15</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>1800</v>
+        <v>5500</v>
       </c>
       <c r="C410" t="inlineStr"/>
       <c r="D410" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3634-3738-4766-b239-623731653165/17661798.jpg</t>
+          <t>https://static.tildacdn.com/stor3532-3633-4461-b437-343834656232/90309562.jpg</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-232892230242-kompliment-s-mattioloi</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-115432094412-hrizantemnii-hit-s-aromatnim-evkaliptom?editionuid=726938892802</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Пионовидные кустовые розы в оформлении - 9</t>
+          <t>ХРИЗАНТЕМНЫЙ ХИТ с ароматным эвкалиптом - 25</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>3650</v>
+        <v>8700</v>
       </c>
       <c r="C411" t="inlineStr"/>
       <c r="D411" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3364-3334-4339-b730-653536623666/41200469.jpg</t>
+          <t>https://static.tildacdn.com/stor3430-3636-4034-b134-346533313532/67329986.jpg</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-883743434962-pionovidnie-kustovie-rozi-v-oformlenii?editionuid=762768049002</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-115432094412-hrizantemnii-hit-s-aromatnim-evkaliptom?editionuid=114889111492</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Пионовидные кустовые розы в оформлении - 11</t>
+          <t>ХРИЗАНТЕМНЫЙ ХИТ с ароматным эвкалиптом - 51</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>4400</v>
+        <v>15900</v>
       </c>
       <c r="C412" t="inlineStr"/>
       <c r="D412" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3564-6135-4630-b531-356538373065/45691131.jpg</t>
+          <t>https://static.tildacdn.com/stor3430-3636-4034-b134-346533313532/67329986.jpg</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-883743434962-pionovidnie-kustovie-rozi-v-oformlenii?editionuid=231966809752</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-115432094412-hrizantemnii-hit-s-aromatnim-evkaliptom?editionuid=505843168492</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Пионовидные кустовые розы в оформлении - 15</t>
+          <t>Подарочный набор для мамы 1</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>5500</v>
+        <v>3990</v>
       </c>
       <c r="C413" t="inlineStr"/>
       <c r="D413" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6530-3165-4131-b634-353939346238/45754421.jpg</t>
+          <t>https://static.tildacdn.com/stor3034-6266-4430-a335-333262613362/59813076.jpg</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-883743434962-pionovidnie-kustovie-rozi-v-oformlenii?editionuid=197416122812</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-786253932122-podarochnii-nabor-dlya-mami-1</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Пионовидные кустовые розы в оформлении - 25</t>
+          <t>Подарок для мамы 2</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>9500</v>
+        <v>4990</v>
       </c>
       <c r="C414" t="inlineStr"/>
       <c r="D414" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6166-6339-4931-a536-383533343232/59431960.jpg</t>
+          <t>https://static.tildacdn.com/stor6463-3033-4463-b465-336631396138/43923411.jpg</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-883743434962-pionovidnie-kustovie-rozi-v-oformlenii?editionuid=531645917332</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-738379822212-podarok-dlya-mami-2</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Пионовидные кустовые розы в оформлении - 35</t>
+          <t>Подарок для мамы 3 селебрити</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>12900</v>
+        <v>5199</v>
       </c>
       <c r="C415" t="inlineStr"/>
       <c r="D415" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6166-6339-4931-a536-383533343232/59431960.jpg</t>
+          <t>https://static.tildacdn.com/stor3034-6266-4430-a335-333262613362/59813076.jpg</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-883743434962-pionovidnie-kustovie-rozi-v-oformlenii?editionuid=172751700112</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-307373021402-podarok-dlya-mami-3-selebriti</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Пионовидные кустовые розы в оформлении - 51</t>
+          <t>Подарочный бокс Рафаэлло</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>15900</v>
+        <v>2300</v>
       </c>
       <c r="C416" t="inlineStr"/>
       <c r="D416" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6166-6339-4931-a536-383533343232/59431960.jpg</t>
+          <t>https://static.tildacdn.com/stor3132-3163-4362-b936-303066363765/67414703.jpg</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-883743434962-pionovidnie-kustovie-rozi-v-oformlenii?editionuid=261066938402</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-291016517802-podarochnii-boks-rafaello</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Пионовидные кустовые розы в оформлении - 101</t>
+          <t>Мишка "Валентин"</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>31100</v>
+        <v>1300</v>
       </c>
       <c r="C417" t="inlineStr"/>
       <c r="D417" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6166-6339-4931-a536-383533343232/59431960.jpg</t>
+          <t>https://static.tildacdn.com/stor6237-3065-4533-a239-366234626365/19817249.jpg</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-883743434962-pionovidnie-kustovie-rozi-v-oformlenii?editionuid=818806872532</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-630681598512-mishka-valentin</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>ХРИЗАНТЕМНЫЙ ХИТ с ароматным эвкалиптом - 7</t>
+          <t>Котик - 25см</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>2800</v>
+        <v>1200</v>
       </c>
       <c r="C418" t="inlineStr"/>
       <c r="D418" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6161-6130-4532-b930-666332343033/85650724.jpg</t>
+          <t>https://static.tildacdn.com/stor3737-6166-4664-a139-353931396239/38823458.jpg</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-115432094412-hrizantemnii-hit-s-aromatnim-evkaliptom?editionuid=567905219022</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-863762674412-kotik?editionuid=707456987082</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>ХРИЗАНТЕМНЫЙ ХИТ с ароматным эвкалиптом - 9</t>
+          <t>Котик - 35см</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>3500</v>
+        <v>1850</v>
       </c>
       <c r="C419" t="inlineStr"/>
       <c r="D419" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6161-6130-4532-b930-666332343033/85650724.jpg</t>
+          <t>https://static.tildacdn.com/stor3737-6166-4664-a139-353931396239/38823458.jpg</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-115432094412-hrizantemnii-hit-s-aromatnim-evkaliptom?editionuid=644036935612</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-863762674412-kotik?editionuid=932117895852</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>ХРИЗАНТЕМНЫЙ ХИТ с ароматным эвкалиптом - 15</t>
+          <t>Мишка Милые глазки - 25см</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>5500</v>
+        <v>1100</v>
       </c>
       <c r="C420" t="inlineStr"/>
       <c r="D420" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3532-3633-4461-b437-343834656232/90309562.jpg</t>
+          <t>https://static.tildacdn.com/stor3738-6530-4433-b733-383763306638/66223016.jpg</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-115432094412-hrizantemnii-hit-s-aromatnim-evkaliptom?editionuid=726938892802</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-138877637952-mishka-milie-glazki?editionuid=689680733112</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>ХРИЗАНТЕМНЫЙ ХИТ с ароматным эвкалиптом - 25</t>
+          <t>Мишка Милые глазки - 35см</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>8700</v>
+        <v>1850</v>
       </c>
       <c r="C421" t="inlineStr"/>
       <c r="D421" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3430-3636-4034-b134-346533313532/67329986.jpg</t>
+          <t>https://static.tildacdn.com/stor3738-6530-4433-b733-383763306638/66223016.jpg</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-115432094412-hrizantemnii-hit-s-aromatnim-evkaliptom?editionuid=114889111492</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-138877637952-mishka-milie-glazki?editionuid=511053776132</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>ХРИЗАНТЕМНЫЙ ХИТ с ароматным эвкалиптом - 51</t>
+          <t>Гипсофила от всего сердца</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>15900</v>
+        <v>4550</v>
       </c>
       <c r="C422" t="inlineStr"/>
       <c r="D422" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3430-3636-4034-b134-346533313532/67329986.jpg</t>
+          <t>https://static.tildacdn.com/stor6565-3231-4933-b332-373334633831/91612642.jpg</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-115432094412-hrizantemnii-hit-s-aromatnim-evkaliptom?editionuid=505843168492</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-745191202102-gipsofila-ot-vsego-serdtsa</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Подарочный набор для мамы 1</t>
+          <t>Букет ЭКСЛЮЗИВ</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>3990</v>
+        <v>7200</v>
       </c>
       <c r="C423" t="inlineStr"/>
       <c r="D423" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3034-6266-4430-a335-333262613362/59813076.jpg</t>
+          <t>https://static.tildacdn.com/stor3465-6139-4161-b636-326631643031/80766082.jpg</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
-        <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-786253932122-podarochnii-nabor-dlya-mami-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="inlineStr">
-        <is>
-          <t>Подарок для мамы 2</t>
-        </is>
-      </c>
-      <c r="B424" t="n">
-        <v>4990</v>
-      </c>
-      <c r="C424" t="inlineStr"/>
-      <c r="D424" t="inlineStr">
-        <is>
-          <t>https://static.tildacdn.com/stor6463-3033-4463-b465-336631396138/43923411.jpg</t>
-        </is>
-      </c>
-      <c r="E424" t="inlineStr">
-        <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-738379822212-podarok-dlya-mami-2</t>
-        </is>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" t="inlineStr">
-        <is>
-          <t>Подарок для мамы 3 селебрити</t>
-        </is>
-      </c>
-      <c r="B425" t="n">
-        <v>5199</v>
-      </c>
-      <c r="C425" t="inlineStr"/>
-      <c r="D425" t="inlineStr">
-        <is>
-          <t>https://static.tildacdn.com/stor3034-6266-4430-a335-333262613362/59813076.jpg</t>
-        </is>
-      </c>
-      <c r="E425" t="inlineStr">
-        <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-307373021402-podarok-dlya-mami-3-selebriti</t>
-        </is>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" t="inlineStr">
-        <is>
-          <t>Букет ЛЕДИ РЕД</t>
-        </is>
-      </c>
-      <c r="B426" t="n">
-        <v>2450</v>
-      </c>
-      <c r="C426" t="inlineStr"/>
-      <c r="D426" t="inlineStr">
-        <is>
-          <t>https://static.tildacdn.com/stor6430-6634-4338-a635-316164643339/52783953.jpg</t>
-        </is>
-      </c>
-      <c r="E426" t="inlineStr">
-        <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-341373252172-buket-ledi-red</t>
-        </is>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" t="inlineStr">
-        <is>
-          <t>Подарочный бокс Рафаэлло</t>
-        </is>
-      </c>
-      <c r="B427" t="n">
-        <v>2300</v>
-      </c>
-      <c r="C427" t="inlineStr"/>
-      <c r="D427" t="inlineStr">
-        <is>
-          <t>https://static.tildacdn.com/stor3132-3163-4362-b936-303066363765/67414703.jpg</t>
-        </is>
-      </c>
-      <c r="E427" t="inlineStr">
-        <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-291016517802-podarochnii-boks-rafaello</t>
-        </is>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" t="inlineStr">
-        <is>
-          <t>Мишка "Валентин"</t>
-        </is>
-      </c>
-      <c r="B428" t="n">
-        <v>1300</v>
-      </c>
-      <c r="C428" t="inlineStr"/>
-      <c r="D428" t="inlineStr">
-        <is>
-          <t>https://static.tildacdn.com/stor6237-3065-4533-a239-366234626365/19817249.jpg</t>
-        </is>
-      </c>
-      <c r="E428" t="inlineStr">
-        <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-630681598512-mishka-valentin</t>
-        </is>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" t="inlineStr">
-        <is>
-          <t>Котик - 25см</t>
-        </is>
-      </c>
-      <c r="B429" t="n">
-        <v>1200</v>
-      </c>
-      <c r="C429" t="inlineStr"/>
-      <c r="D429" t="inlineStr">
-        <is>
-          <t>https://static.tildacdn.com/stor3737-6166-4664-a139-353931396239/38823458.jpg</t>
-        </is>
-      </c>
-      <c r="E429" t="inlineStr">
-        <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-863762674412-kotik?editionuid=707456987082</t>
-        </is>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" t="inlineStr">
-        <is>
-          <t>Котик - 35см</t>
-        </is>
-      </c>
-      <c r="B430" t="n">
-        <v>1850</v>
-      </c>
-      <c r="C430" t="inlineStr"/>
-      <c r="D430" t="inlineStr">
-        <is>
-          <t>https://static.tildacdn.com/stor3737-6166-4664-a139-353931396239/38823458.jpg</t>
-        </is>
-      </c>
-      <c r="E430" t="inlineStr">
-        <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-863762674412-kotik?editionuid=932117895852</t>
-        </is>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" t="inlineStr">
-        <is>
-          <t>Мишка Милые глазки - 25см</t>
-        </is>
-      </c>
-      <c r="B431" t="n">
-        <v>1100</v>
-      </c>
-      <c r="C431" t="inlineStr"/>
-      <c r="D431" t="inlineStr">
-        <is>
-          <t>https://static.tildacdn.com/stor3738-6530-4433-b733-383763306638/66223016.jpg</t>
-        </is>
-      </c>
-      <c r="E431" t="inlineStr">
-        <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-138877637952-mishka-milie-glazki?editionuid=689680733112</t>
-        </is>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" t="inlineStr">
-        <is>
-          <t>Мишка Милые глазки - 35см</t>
-        </is>
-      </c>
-      <c r="B432" t="n">
-        <v>1850</v>
-      </c>
-      <c r="C432" t="inlineStr"/>
-      <c r="D432" t="inlineStr">
-        <is>
-          <t>https://static.tildacdn.com/stor3738-6530-4433-b733-383763306638/66223016.jpg</t>
-        </is>
-      </c>
-      <c r="E432" t="inlineStr">
-        <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-138877637952-mishka-milie-glazki?editionuid=511053776132</t>
-        </is>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" t="inlineStr">
-        <is>
-          <t>Гипсофила от всего сердца</t>
-        </is>
-      </c>
-      <c r="B433" t="n">
-        <v>4550</v>
-      </c>
-      <c r="C433" t="inlineStr"/>
-      <c r="D433" t="inlineStr">
-        <is>
-          <t>https://static.tildacdn.com/stor6565-3231-4933-b332-373334633831/91612642.jpg</t>
-        </is>
-      </c>
-      <c r="E433" t="inlineStr">
-        <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-745191202102-gipsofila-ot-vsego-serdtsa</t>
-        </is>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" t="inlineStr">
-        <is>
-          <t>Букет ЭКСЛЮЗИВ</t>
-        </is>
-      </c>
-      <c r="B434" t="n">
-        <v>7200</v>
-      </c>
-      <c r="C434" t="inlineStr"/>
-      <c r="D434" t="inlineStr">
-        <is>
-          <t>https://static.tildacdn.com/stor3465-6139-4161-b636-326631643031/80766082.jpg</t>
-        </is>
-      </c>
-      <c r="E434" t="inlineStr">
         <is>
           <t>https://ohapka-flowers.ru/tproduct/802241395-655606921272-buket-ekslyuziv</t>
         </is>

--- a/feed_converted.xlsx
+++ b/feed_converted.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E423"/>
+  <dimension ref="A1:E420"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6698,357 +6698,353 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>БУКЕТ "ЛЮБЛЮ" -</t>
+          <t>Букет Красотуля</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>16290</v>
-      </c>
-      <c r="C287" t="n">
-        <v>175550</v>
-      </c>
+        <v>3300</v>
+      </c>
+      <c r="C287" t="inlineStr"/>
       <c r="D287" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6536-3637-4863-a130-623137613739/27964095.jpg</t>
+          <t>https://static.tildacdn.com/stor3235-3531-4231-b735-333535643938/12128252.jpg</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-594449693621-buket-lyublyu?editionuid=990271714812</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-619538785821-buket-krasotulya</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>БУКЕТ "ЛЮБЛЮ" -</t>
+          <t>25 белых роз с эвкалиптом</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>8500</v>
+        <v>7800</v>
       </c>
       <c r="C288" t="n">
-        <v>9200</v>
+        <v>9750</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6536-3637-4863-a130-623137613739/27964095.jpg</t>
+          <t>https://static.tildacdn.com/stor6530-6132-4064-a332-316230306131/91575755.jpg</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-594449693621-buket-lyublyu?editionuid=736484317922</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-624506536881-25-belih-roz-s-evkaliptom</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Букет Красотуля</t>
+          <t>Букет орхидей БАБОЧКА</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>3300</v>
-      </c>
-      <c r="C289" t="inlineStr"/>
+        <v>3750</v>
+      </c>
+      <c r="C289" t="n">
+        <v>4300</v>
+      </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3235-3531-4231-b735-333535643938/12128252.jpg</t>
+          <t>https://static.tildacdn.com/stor3834-6334-4363-b333-613363393661/14233072.jpg</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-619538785821-buket-krasotulya</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-229561542201-buket-orhidei-babochka</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>25 белых роз с эвкалиптом</t>
+          <t>Букет ромашек "Модный"</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>7800</v>
+        <v>2800</v>
       </c>
       <c r="C290" t="n">
-        <v>9750</v>
+        <v>3200</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6530-6132-4064-a332-316230306131/91575755.jpg</t>
+          <t>https://static.tildacdn.com/stor3661-3832-4565-b737-636232616363/96239568.jpg</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-624506536881-25-belih-roz-s-evkaliptom</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-966890057501-buket-romashek-modnii</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Букет орхидей БАБОЧКА</t>
+          <t>ЛАЙК с красными розами</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>3750</v>
-      </c>
-      <c r="C291" t="n">
-        <v>4300</v>
-      </c>
+        <v>3500</v>
+      </c>
+      <c r="C291" t="inlineStr"/>
       <c r="D291" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3834-6334-4363-b333-613363393661/14233072.jpg</t>
+          <t>https://static.tildacdn.com/stor3830-3031-4835-b835-383138636235/22989356.jpg</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-229561542201-buket-orhidei-babochka</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-271548446971-laik-s-krasnimi-rozami</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Букет ромашек "Модный"</t>
+          <t>ПИОН РОЗЫ КЕНДИЛАЙТ с роскошным бутоном - 7 - Матовая бумага</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>2800</v>
-      </c>
-      <c r="C292" t="n">
-        <v>3200</v>
-      </c>
+        <v>2650</v>
+      </c>
+      <c r="C292" t="inlineStr"/>
       <c r="D292" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3661-3832-4565-b737-636232616363/96239568.jpg</t>
+          <t>https://static.tildacdn.com/stor6431-3361-4431-b434-346262633764/67610820.jpg</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-966890057501-buket-romashek-modnii</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-408842247631-pion-rozi-kendilait-s-roskoshnim-butonom?editionuid=685412047851</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>ЛАЙК с красными розами</t>
+          <t>ПИОН РОЗЫ КЕНДИЛАЙТ с роскошным бутоном - 9 - Матовая бумага</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>3500</v>
+        <v>3250</v>
       </c>
       <c r="C293" t="inlineStr"/>
       <c r="D293" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3830-3031-4835-b835-383138636235/22989356.jpg</t>
+          <t>https://static.tildacdn.com/stor3530-3261-4731-b234-386337616532/43856125.jpg</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-271548446971-laik-s-krasnimi-rozami</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-408842247631-pion-rozi-kendilait-s-roskoshnim-butonom?editionuid=747300906151</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>ПИОН РОЗЫ КЕНДИЛАЙТ с роскошным бутоном - 7 - Матовая бумага</t>
+          <t>ПИОН РОЗЫ КЕНДИЛАЙТ с роскошным бутоном - 11 - Матовая бумага</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>2650</v>
+        <v>3850</v>
       </c>
       <c r="C294" t="inlineStr"/>
       <c r="D294" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6431-3361-4431-b434-346262633764/67610820.jpg</t>
+          <t>https://static.tildacdn.com/stor6436-3239-4132-b137-306231333036/58018420.jpg</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-408842247631-pion-rozi-kendilait-s-roskoshnim-butonom?editionuid=685412047851</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-408842247631-pion-rozi-kendilait-s-roskoshnim-butonom?editionuid=112918374101</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>ПИОН РОЗЫ КЕНДИЛАЙТ с роскошным бутоном - 9 - Матовая бумага</t>
+          <t>ПИОН РОЗЫ КЕНДИЛАЙТ с роскошным бутоном - 15 - Матовая бумага</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>3250</v>
+        <v>5050</v>
       </c>
       <c r="C295" t="inlineStr"/>
       <c r="D295" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3530-3261-4731-b234-386337616532/43856125.jpg</t>
+          <t>https://static.tildacdn.com/stor3764-3935-4162-b661-326239363839/24782806.jpg</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-408842247631-pion-rozi-kendilait-s-roskoshnim-butonom?editionuid=747300906151</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-408842247631-pion-rozi-kendilait-s-roskoshnim-butonom?editionuid=584191326611</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>ПИОН РОЗЫ КЕНДИЛАЙТ с роскошным бутоном - 11 - Матовая бумага</t>
+          <t>ПИОН РОЗЫ КЕНДИЛАЙТ с роскошным бутоном - 25 - Матовая бумага</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>3850</v>
+        <v>8250</v>
       </c>
       <c r="C296" t="inlineStr"/>
       <c r="D296" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6436-3239-4132-b137-306231333036/58018420.jpg</t>
+          <t>https://static.tildacdn.com/stor6534-3430-4766-b836-313464656162/12162191.jpg</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-408842247631-pion-rozi-kendilait-s-roskoshnim-butonom?editionuid=112918374101</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-408842247631-pion-rozi-kendilait-s-roskoshnim-butonom?editionuid=409857313401</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>ПИОН РОЗЫ КЕНДИЛАЙТ с роскошным бутоном - 15 - Матовая бумага</t>
+          <t>ПИОН РОЗЫ КЕНДИЛАЙТ с роскошным бутоном - 35 - Матовая бумага</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>5050</v>
+        <v>11250</v>
       </c>
       <c r="C297" t="inlineStr"/>
       <c r="D297" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3764-3935-4162-b661-326239363839/24782806.jpg</t>
+          <t>https://static.tildacdn.com/stor6261-6633-4938-b362-393762646662/67653659.jpg</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-408842247631-pion-rozi-kendilait-s-roskoshnim-butonom?editionuid=584191326611</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-408842247631-pion-rozi-kendilait-s-roskoshnim-butonom?editionuid=447172835881</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>ПИОН РОЗЫ КЕНДИЛАЙТ с роскошным бутоном - 25 - Матовая бумага</t>
+          <t>ПИОН РОЗЫ КЕНДИЛАЙТ с роскошным бутоном - 51 - Матовая бумага</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>8250</v>
+        <v>15550</v>
       </c>
       <c r="C298" t="inlineStr"/>
       <c r="D298" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6534-3430-4766-b836-313464656162/12162191.jpg</t>
+          <t>https://static.tildacdn.com/stor3065-3436-4637-a539-326138303462/27922432.jpg</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-408842247631-pion-rozi-kendilait-s-roskoshnim-butonom?editionuid=409857313401</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-408842247631-pion-rozi-kendilait-s-roskoshnim-butonom?editionuid=499742739092</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>ПИОН РОЗЫ КЕНДИЛАЙТ с роскошным бутоном - 35 - Матовая бумага</t>
+          <t>ПИОН РОЗЫ КЕНДИЛАЙТ с роскошным бутоном - 101 - Матовая бумага</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>11250</v>
+        <v>28990</v>
       </c>
       <c r="C299" t="inlineStr"/>
       <c r="D299" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6261-6633-4938-b362-393762646662/67653659.jpg</t>
+          <t>https://static.tildacdn.com/stor3065-3436-4637-a539-326138303462/27922432.jpg</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-408842247631-pion-rozi-kendilait-s-roskoshnim-butonom?editionuid=447172835881</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-408842247631-pion-rozi-kendilait-s-roskoshnim-butonom?editionuid=490529641782</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>ПИОН РОЗЫ КЕНДИЛАЙТ с роскошным бутоном - 51 - Матовая бумага</t>
+          <t>Микс "Нежный " - 25 - Матовая бумага</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>15550</v>
+        <v>6700</v>
       </c>
       <c r="C300" t="inlineStr"/>
       <c r="D300" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3065-3436-4637-a539-326138303462/27922432.jpg</t>
+          <t>https://static.tildacdn.com/stor3235-6463-4134-b838-643065393437/42874590.jpg</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-408842247631-pion-rozi-kendilait-s-roskoshnim-butonom?editionuid=499742739092</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-969675948161-miks-nezhnii-?editionuid=144808655921</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>ПИОН РОЗЫ КЕНДИЛАЙТ с роскошным бутоном - 101 - Матовая бумага</t>
+          <t>Микс "Нежный " - 35 - Матовая бумага</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>28990</v>
+        <v>9300</v>
       </c>
       <c r="C301" t="inlineStr"/>
       <c r="D301" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3065-3436-4637-a539-326138303462/27922432.jpg</t>
+          <t>https://static.tildacdn.com/stor3537-6464-4265-a237-376565623661/67652712.jpg</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-408842247631-pion-rozi-kendilait-s-roskoshnim-butonom?editionuid=490529641782</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-969675948161-miks-nezhnii-?editionuid=682095661901</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Микс "Нежный " - 25 - Матовая бумага</t>
+          <t>Микс "Нежный " - 51 - Матовая бумага</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>6700</v>
+        <v>12300</v>
       </c>
       <c r="C302" t="inlineStr"/>
       <c r="D302" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3235-6463-4134-b838-643065393437/42874590.jpg</t>
+          <t>https://static.tildacdn.com/stor3230-3565-4330-a533-343835336231/19693626.jpg</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-969675948161-miks-nezhnii-?editionuid=144808655921</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-969675948161-miks-nezhnii-?editionuid=818421126901</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Микс "Нежный " - 35 - Матовая бумага</t>
+          <t>Микс "Нежный " - 101 - Матовая бумага</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>9300</v>
+        <v>22999</v>
       </c>
       <c r="C303" t="inlineStr"/>
       <c r="D303" t="inlineStr">
@@ -7058,593 +7054,593 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-969675948161-miks-nezhnii-?editionuid=682095661901</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-969675948161-miks-nezhnii-?editionuid=339758706201</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Микс "Нежный " - 51 - Матовая бумага</t>
+          <t>Микс "Нежный " - 11 - Матовая бумага</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>12300</v>
+        <v>3300</v>
       </c>
       <c r="C304" t="inlineStr"/>
       <c r="D304" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3230-3565-4330-a533-343835336231/19693626.jpg</t>
+          <t>https://static.tildacdn.com/stor6230-3539-4562-b538-353434303535/33043186.jpg</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-969675948161-miks-nezhnii-?editionuid=818421126901</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-969675948161-miks-nezhnii-?editionuid=231105875691</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Микс "Нежный " - 101 - Матовая бумага</t>
+          <t>Микс "Нежный " - 15 - Матовая бумага</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>22999</v>
+        <v>4100</v>
       </c>
       <c r="C305" t="inlineStr"/>
       <c r="D305" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3537-6464-4265-a237-376565623661/67652712.jpg</t>
+          <t>https://static.tildacdn.com/stor6162-6638-4265-a134-666564346264/85360901.jpg</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-969675948161-miks-nezhnii-?editionuid=339758706201</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-969675948161-miks-nezhnii-?editionuid=759439311541</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Микс "Нежный " - 11 - Матовая бумага</t>
+          <t>Букет Белый шоколад</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>3300</v>
-      </c>
-      <c r="C306" t="inlineStr"/>
+        <v>5800</v>
+      </c>
+      <c r="C306" t="n">
+        <v>5900</v>
+      </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6230-3539-4562-b538-353434303535/33043186.jpg</t>
+          <t>https://static.tildacdn.com/stor3531-6333-4436-b830-636438386630/21485586.jpg</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-969675948161-miks-nezhnii-?editionuid=231105875691</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-604610293441-buket-belii-shokolad</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Микс "Нежный " - 15 - Матовая бумага</t>
+          <t>Ажурные розы в коробке</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>4100</v>
+        <v>3800</v>
       </c>
       <c r="C307" t="inlineStr"/>
       <c r="D307" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6162-6638-4265-a134-666564346264/85360901.jpg</t>
+          <t>https://static.tildacdn.com/stor3638-6166-4062-a634-363361633538/95787248.jpg</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-969675948161-miks-nezhnii-?editionuid=759439311541</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-706637499731-azhurnie-rozi-v-korobke</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Букет Белый шоколад</t>
+          <t>Комплимент ВАНИЛЬ с ромашками</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>5800</v>
-      </c>
-      <c r="C308" t="n">
-        <v>5900</v>
-      </c>
+        <v>2690</v>
+      </c>
+      <c r="C308" t="inlineStr"/>
       <c r="D308" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3531-6333-4436-b830-636438386630/21485586.jpg</t>
+          <t>https://static.tildacdn.com/stor3361-3566-4639-b964-323030333165/90202533.jpg</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-604610293441-buket-belii-shokolad</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-355408923071-kompliment-vanil-s-romashkami</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Ажурные розы в коробке</t>
+          <t>Коробка с кустовыми розами</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="C309" t="inlineStr"/>
       <c r="D309" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3638-6166-4062-a634-363361633538/95787248.jpg</t>
+          <t>https://static.tildacdn.com/stor6561-6635-4566-b836-393737636261/47533235.jpg</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-706637499731-azhurnie-rozi-v-korobke</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-190380899281-korobka-s-kustovimi-rozami</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Комплимент ВАНИЛЬ с ромашками</t>
+          <t>Дивная Орхидея</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>2690</v>
+        <v>5600</v>
       </c>
       <c r="C310" t="inlineStr"/>
       <c r="D310" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3361-3566-4639-b964-323030333165/90202533.jpg</t>
+          <t>https://static.tildacdn.com/stor6631-3961-4166-a236-343666333130/79650328.jpg</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-355408923071-kompliment-vanil-s-romashkami</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-399495570211-divnaya-orhideya</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Коробка с кустовыми розами</t>
+          <t>Коробка "Орхидея "</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>3500</v>
+        <v>5700</v>
       </c>
       <c r="C311" t="inlineStr"/>
       <c r="D311" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6561-6635-4566-b836-393737636261/47533235.jpg</t>
+          <t>https://static.tildacdn.com/stor6531-3062-4739-a365-633930663962/93446831.jpg</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-190380899281-korobka-s-kustovimi-rozami</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-909950155641-korobka-orhideya-</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Дивная Орхидея</t>
+          <t>Розовый дым</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>5600</v>
+        <v>13500</v>
       </c>
       <c r="C312" t="inlineStr"/>
       <c r="D312" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6631-3961-4166-a236-343666333130/79650328.jpg</t>
+          <t>https://static.tildacdn.com/stor6161-6139-4462-b233-336561353864/89607982.jpg</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-399495570211-divnaya-orhideya</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-802553109081-rozovii-dim</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Коробка "Орхидея "</t>
+          <t>Комплимент ПУШ - M</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>5700</v>
+        <v>1800</v>
       </c>
       <c r="C313" t="inlineStr"/>
       <c r="D313" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6531-3062-4739-a365-633930663962/93446831.jpg</t>
+          <t>https://static.tildacdn.com/stor6130-3238-4262-a461-356438363462/10580626.jpg</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-909950155641-korobka-orhideya-</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-339880785851-kompliment-push?editionuid=217256802002</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Букет КРИСТАЛЛ</t>
+          <t>Комплимент ПУШ - L</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>6999</v>
+        <v>2150</v>
       </c>
       <c r="C314" t="inlineStr"/>
       <c r="D314" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3366-3065-4265-b239-376235653964/39754072.jpg</t>
+          <t>https://static.tildacdn.com/stor3166-3461-4061-b836-613539313633/10742640.jpg</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-516964640791-buket-kristall</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-339880785851-kompliment-push?editionuid=989656423962</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Розовый дым</t>
+          <t>Комплимент МАРМЕЛАД</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>13500</v>
+        <v>2650</v>
       </c>
       <c r="C315" t="inlineStr"/>
       <c r="D315" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6161-6139-4462-b233-336561353864/89607982.jpg</t>
+          <t>https://static.tildacdn.com/stor3965-3439-4462-b735-636564646463/91567819.jpg</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-802553109081-rozovii-dim</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-322995211141-kompliment-marmelad</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Комплимент ПУШ - M</t>
+          <t>Шикарная корзина с кустовыми розами</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>1800</v>
-      </c>
-      <c r="C316" t="inlineStr"/>
+        <v>18990</v>
+      </c>
+      <c r="C316" t="n">
+        <v>21500</v>
+      </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6130-3238-4262-a461-356438363462/10580626.jpg</t>
+          <t>https://static.tildacdn.com/stor3938-6432-4138-a266-633765366335/95496298.jpg</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-339880785851-kompliment-push?editionuid=217256802002</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-329147948761-shikarnaya-korzina-s-kustovimi-rozami</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Комплимент ПУШ - L</t>
+          <t>Букет ароматных лилии в ленту - 3 - Атласная лента</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>2150</v>
+        <v>2350</v>
       </c>
       <c r="C317" t="inlineStr"/>
       <c r="D317" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3166-3461-4061-b836-613539313633/10742640.jpg</t>
+          <t>https://static.tildacdn.com/stor6261-3863-4464-b164-376561333937/27613053.jpg</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-339880785851-kompliment-push?editionuid=989656423962</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-854974054121-buket-aromatnih-lilii-v-lentu?editionuid=807760891511</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Комплимент МАРМЕЛАД</t>
+          <t>Букет ароматных лилии в ленту - 5 - Атласная лента</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>2650</v>
+        <v>3850</v>
       </c>
       <c r="C318" t="inlineStr"/>
       <c r="D318" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3965-3439-4462-b735-636564646463/91567819.jpg</t>
+          <t>https://static.tildacdn.com/stor3232-3234-4665-b932-346439353435/70920808.jpg</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-322995211141-kompliment-marmelad</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-854974054121-buket-aromatnih-lilii-v-lentu?editionuid=935605880011</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Шикарная корзина с кустовыми розами</t>
+          <t>Букет ароматных лилии в ленту - 7 - Атласная лента</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>18990</v>
-      </c>
-      <c r="C319" t="n">
-        <v>21500</v>
-      </c>
+        <v>5350</v>
+      </c>
+      <c r="C319" t="inlineStr"/>
       <c r="D319" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3938-6432-4138-a266-633765366335/95496298.jpg</t>
+          <t>https://static.tildacdn.com/stor3266-3865-4235-a261-383438323636/78878017.jpg</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-329147948761-shikarnaya-korzina-s-kustovimi-rozami</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-854974054121-buket-aromatnih-lilii-v-lentu?editionuid=621399533081</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Букет ароматных лилии в ленту - 3 - Атласная лента</t>
+          <t>Букет ароматных лилии в ленту - 3 - Матовая бумага</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>2350</v>
+        <v>2550</v>
       </c>
       <c r="C320" t="inlineStr"/>
       <c r="D320" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6261-3863-4464-b164-376561333937/27613053.jpg</t>
+          <t>https://static.tildacdn.com/stor3433-3933-4632-b430-363235313034/58463971.jpg</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-854974054121-buket-aromatnih-lilii-v-lentu?editionuid=807760891511</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-854974054121-buket-aromatnih-lilii-v-lentu?editionuid=428830803781</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Букет ароматных лилии в ленту - 5 - Атласная лента</t>
+          <t>Букет ароматных лилии в ленту - 5 - Матовая бумага</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>3850</v>
+        <v>4250</v>
       </c>
       <c r="C321" t="inlineStr"/>
       <c r="D321" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3232-3234-4665-b932-346439353435/70920808.jpg</t>
+          <t>https://static.tildacdn.com/stor6364-6334-4261-a634-336263636434/83026114.jpg</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-854974054121-buket-aromatnih-lilii-v-lentu?editionuid=935605880011</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-854974054121-buket-aromatnih-lilii-v-lentu?editionuid=507029921911</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Букет ароматных лилии в ленту - 7 - Атласная лента</t>
+          <t>Букет ароматных лилии в ленту - 7 - Матовая бумага</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>5350</v>
+        <v>5900</v>
       </c>
       <c r="C322" t="inlineStr"/>
       <c r="D322" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3266-3865-4235-a261-383438323636/78878017.jpg</t>
+          <t>https://static.tildacdn.com/stor3534-6531-4138-a363-356333643062/85735675.jpg</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-854974054121-buket-aromatnih-lilii-v-lentu?editionuid=621399533081</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-854974054121-buket-aromatnih-lilii-v-lentu?editionuid=330876877451</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Букет ароматных лилии в ленту - 3 - Матовая бумага</t>
+          <t>Букет ароматных лилии в ленту - 11 - Атласная лента</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>2550</v>
+        <v>8600</v>
       </c>
       <c r="C323" t="inlineStr"/>
       <c r="D323" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3433-3933-4632-b430-363235313034/58463971.jpg</t>
+          <t>https://static.tildacdn.com/stor6231-6132-4133-b632-656636393735/40808809.jpg</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-854974054121-buket-aromatnih-lilii-v-lentu?editionuid=428830803781</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-854974054121-buket-aromatnih-lilii-v-lentu?editionuid=352141135642</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Букет ароматных лилии в ленту - 5 - Матовая бумага</t>
+          <t>Букет ароматных лилии в ленту - 11 - Матовая бумага</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>4250</v>
+        <v>8990</v>
       </c>
       <c r="C324" t="inlineStr"/>
       <c r="D324" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6364-6334-4261-a634-336263636434/83026114.jpg</t>
+          <t>https://static.tildacdn.com/stor3239-6236-4438-b538-633738336135/85330738.jpg</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-854974054121-buket-aromatnih-lilii-v-lentu?editionuid=507029921911</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-854974054121-buket-aromatnih-lilii-v-lentu?editionuid=444544724772</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Букет ароматных лилии в ленту - 7 - Матовая бумага</t>
+          <t>Букет ароматных лилии в ленту - 15 - Матовая бумага</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>5900</v>
+        <v>11990</v>
       </c>
       <c r="C325" t="inlineStr"/>
       <c r="D325" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3534-6531-4138-a363-356333643062/85735675.jpg</t>
+          <t>https://static.tildacdn.com/stor3239-6236-4438-b538-633738336135/85330738.jpg</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-854974054121-buket-aromatnih-lilii-v-lentu?editionuid=330876877451</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-854974054121-buket-aromatnih-lilii-v-lentu?editionuid=810198608332</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Букет ароматных лилии в ленту - 11 - Атласная лента</t>
+          <t>Мечта</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>8600</v>
-      </c>
-      <c r="C326" t="inlineStr"/>
+        <v>6500</v>
+      </c>
+      <c r="C326" t="n">
+        <v>6500</v>
+      </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6231-6132-4133-b632-656636393735/40808809.jpg</t>
+          <t>https://static.tildacdn.com/stor6538-3533-4866-b134-646334653462/14245314.jpg</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-854974054121-buket-aromatnih-lilii-v-lentu?editionuid=352141135642</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-831554304821-mechta</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Букет ароматных лилии в ленту - 11 - Матовая бумага</t>
+          <t>Корзина кустовых роз 1</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>8990</v>
-      </c>
-      <c r="C327" t="inlineStr"/>
+        <v>13990</v>
+      </c>
+      <c r="C327" t="n">
+        <v>14990</v>
+      </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3239-6236-4438-b538-633738336135/85330738.jpg</t>
+          <t>https://static.tildacdn.com/stor3661-3663-4137-a566-393037623464/36437121.jpg</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-854974054121-buket-aromatnih-lilii-v-lentu?editionuid=444544724772</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-626227787071-korzina-kustovih-roz-1</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Букет ароматных лилии в ленту - 15 - Матовая бумага</t>
+          <t>Букет пионовидных роз с эвкалиптом - 15</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>11990</v>
+        <v>6400</v>
       </c>
       <c r="C328" t="inlineStr"/>
       <c r="D328" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3239-6236-4438-b538-633738336135/85330738.jpg</t>
+          <t>https://static.tildacdn.com/stor3062-6363-4933-b066-333439363166/16107521.jpg</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-854974054121-buket-aromatnih-lilii-v-lentu?editionuid=810198608332</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-779240055231-buket-pionovidnih-roz-s-evkaliptom?editionuid=708375581471</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Мечта</t>
+          <t>Букет пионовидных роз с эвкалиптом - 25</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>6500</v>
-      </c>
-      <c r="C329" t="n">
-        <v>6500</v>
-      </c>
+        <v>10800</v>
+      </c>
+      <c r="C329" t="inlineStr"/>
       <c r="D329" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6538-3533-4866-b134-646334653462/14245314.jpg</t>
+          <t>https://static.tildacdn.com/stor3062-6363-4933-b066-333439363166/16107521.jpg</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-831554304821-mechta</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-779240055231-buket-pionovidnih-roz-s-evkaliptom?editionuid=997102028441</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Корзина кустовых роз 1</t>
+          <t>Букет пионовидных роз с эвкалиптом - 35</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>13990</v>
-      </c>
-      <c r="C330" t="n">
-        <v>14990</v>
-      </c>
+        <v>16500</v>
+      </c>
+      <c r="C330" t="inlineStr"/>
       <c r="D330" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3661-3663-4137-a566-393037623464/36437121.jpg</t>
+          <t>https://static.tildacdn.com/stor3062-6363-4933-b066-333439363166/16107521.jpg</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-626227787071-korzina-kustovih-roz-1</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-779240055231-buket-pionovidnih-roz-s-evkaliptom?editionuid=585625855371</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Букет пионовидных роз с эвкалиптом - 15</t>
+          <t>Букет пионовидных роз с эвкалиптом - 11</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>6400</v>
+        <v>5200</v>
       </c>
       <c r="C331" t="inlineStr"/>
       <c r="D331" t="inlineStr">
@@ -7654,18 +7650,18 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-779240055231-buket-pionovidnih-roz-s-evkaliptom?editionuid=708375581471</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-779240055231-buket-pionovidnih-roz-s-evkaliptom?editionuid=976684960222</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Букет пионовидных роз с эвкалиптом - 25</t>
+          <t>Букет пионовидных роз с эвкалиптом - 9</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>10800</v>
+        <v>4400</v>
       </c>
       <c r="C332" t="inlineStr"/>
       <c r="D332" t="inlineStr">
@@ -7675,871 +7671,877 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-779240055231-buket-pionovidnih-roz-s-evkaliptom?editionuid=997102028441</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-779240055231-buket-pionovidnih-roz-s-evkaliptom?editionuid=285996858812</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Букет пионовидных роз с эвкалиптом - 35</t>
+          <t>ПИОНОВИДНЫЕ РОЗЫ ЭСПЕРАНС в оформлении - 15</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>16500</v>
-      </c>
-      <c r="C333" t="inlineStr"/>
+        <v>5050</v>
+      </c>
+      <c r="C333" t="n">
+        <v>5500</v>
+      </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3062-6363-4933-b066-333439363166/16107521.jpg</t>
+          <t>https://static.tildacdn.com/stor3165-3932-4861-a531-323836623735/37479800.jpg</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-779240055231-buket-pionovidnih-roz-s-evkaliptom?editionuid=585625855371</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-630572230861-pionovidnie-rozi-esperans-v-oformlenii?editionuid=996141501582</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Букет пионовидных роз с эвкалиптом - 11</t>
+          <t>ПИОНОВИДНЫЕ РОЗЫ ЭСПЕРАНС в оформлении - 25</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>5200</v>
-      </c>
-      <c r="C334" t="inlineStr"/>
+        <v>8250</v>
+      </c>
+      <c r="C334" t="n">
+        <v>9500</v>
+      </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3062-6363-4933-b066-333439363166/16107521.jpg</t>
+          <t>https://static.tildacdn.com/stor3136-6364-4463-b436-653834326437/18587012.jpg</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-779240055231-buket-pionovidnih-roz-s-evkaliptom?editionuid=976684960222</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-630572230861-pionovidnie-rozi-esperans-v-oformlenii?editionuid=204989056352</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Букет пионовидных роз с эвкалиптом - 9</t>
+          <t>ПИОНОВИДНЫЕ РОЗЫ ЭСПЕРАНС в оформлении - 35</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>4400</v>
-      </c>
-      <c r="C335" t="inlineStr"/>
+        <v>11250</v>
+      </c>
+      <c r="C335" t="n">
+        <v>15500</v>
+      </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3062-6363-4933-b066-333439363166/16107521.jpg</t>
+          <t>https://static.tildacdn.com/stor6635-3139-4339-a461-326665396331/67564859.jpg</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-779240055231-buket-pionovidnih-roz-s-evkaliptom?editionuid=285996858812</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-630572230861-pionovidnie-rozi-esperans-v-oformlenii?editionuid=958352563632</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>ПИОНОВИДНЫЕ РОЗЫ ЭСПЕРАНС в оформлении - 15</t>
+          <t>ПИОНОВИДНЫЕ РОЗЫ ЭСПЕРАНС в оформлении - 51</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>5050</v>
+        <v>15550</v>
       </c>
       <c r="C336" t="n">
-        <v>5500</v>
+        <v>18200</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3165-3932-4861-a531-323836623735/37479800.jpg</t>
+          <t>https://static.tildacdn.com/stor3337-3966-4535-a635-373930393161/67450178.jpg</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-630572230861-pionovidnie-rozi-esperans-v-oformlenii?editionuid=996141501582</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-630572230861-pionovidnie-rozi-esperans-v-oformlenii?editionuid=211503308152</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>ПИОНОВИДНЫЕ РОЗЫ ЭСПЕРАНС в оформлении - 25</t>
+          <t>ПИОНОВИДНЫЕ РОЗЫ ЭСПЕРАНС в оформлении - 101</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>8250</v>
+        <v>27999</v>
       </c>
       <c r="C337" t="n">
-        <v>9500</v>
+        <v>35500</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3136-6364-4463-b436-653834326437/18587012.jpg</t>
+          <t>https://static.tildacdn.com/stor6263-3536-4263-a631-653462343963/77678309.jpg</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-630572230861-pionovidnie-rozi-esperans-v-oformlenii?editionuid=204989056352</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-630572230861-pionovidnie-rozi-esperans-v-oformlenii?editionuid=807594863492</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>ПИОНОВИДНЫЕ РОЗЫ ЭСПЕРАНС в оформлении - 35</t>
+          <t>ПИОНОВИДНЫЕ РОЗЫ ЭСПЕРАНС в оформлении - 9</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>11250</v>
+        <v>3250</v>
       </c>
       <c r="C338" t="n">
-        <v>15500</v>
+        <v>3500</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6635-3139-4339-a461-326665396331/67564859.jpg</t>
+          <t>https://static.tildacdn.com/stor6534-3533-4134-b562-623233306363/74005429.jpg</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-630572230861-pionovidnie-rozi-esperans-v-oformlenii?editionuid=958352563632</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-630572230861-pionovidnie-rozi-esperans-v-oformlenii?editionuid=672364840112</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>ПИОНОВИДНЫЕ РОЗЫ ЭСПЕРАНС в оформлении - 51</t>
+          <t>Вау-букет 151 роза и Большой медведь</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>15550</v>
+        <v>39990</v>
       </c>
       <c r="C339" t="n">
-        <v>18200</v>
+        <v>49999</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3337-3966-4535-a635-373930393161/67450178.jpg</t>
+          <t>https://static.tildacdn.com/stor3031-3464-4438-a530-343839366363/74084416.jpg</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-630572230861-pionovidnie-rozi-esperans-v-oformlenii?editionuid=211503308152</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-694865027691-vau-buket-151-roza-i-bolshoi-medved</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>ПИОНОВИДНЫЕ РОЗЫ ЭСПЕРАНС в оформлении - 101</t>
+          <t>КОРЗИНА РОМАШЕК из хризантем - 9</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>27999</v>
-      </c>
-      <c r="C340" t="n">
-        <v>35500</v>
-      </c>
+        <v>3650</v>
+      </c>
+      <c r="C340" t="inlineStr"/>
       <c r="D340" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6263-3536-4263-a631-653462343963/77678309.jpg</t>
+          <t>https://static.tildacdn.com/stor6462-6261-4231-b161-623838343362/35127181.jpg</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-630572230861-pionovidnie-rozi-esperans-v-oformlenii?editionuid=807594863492</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-174679188781-korzina-romashek-iz-hrizantem?editionuid=456287886831</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>ПИОНОВИДНЫЕ РОЗЫ ЭСПЕРАНС в оформлении - 9</t>
+          <t>КОРЗИНА РОМАШЕК из хризантем - 11</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>3250</v>
-      </c>
-      <c r="C341" t="n">
-        <v>3500</v>
-      </c>
+        <v>4100</v>
+      </c>
+      <c r="C341" t="inlineStr"/>
       <c r="D341" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6534-3533-4134-b562-623233306363/74005429.jpg</t>
+          <t>https://static.tildacdn.com/stor3663-6331-4837-a661-626362363061/94340912.jpg</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-630572230861-pionovidnie-rozi-esperans-v-oformlenii?editionuid=672364840112</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-174679188781-korzina-romashek-iz-hrizantem?editionuid=845116940031</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Вау-букет 151 роза и Большой медведь</t>
+          <t>КОРЗИНА РОМАШЕК из хризантем - 25</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>39990</v>
-      </c>
-      <c r="C342" t="n">
-        <v>49999</v>
-      </c>
+        <v>9100</v>
+      </c>
+      <c r="C342" t="inlineStr"/>
       <c r="D342" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3031-3464-4438-a530-343839366363/74084416.jpg</t>
+          <t>https://static.tildacdn.com/stor6433-3038-4363-a130-353261333636/29689047.jpg</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-694865027691-vau-buket-151-roza-i-bolshoi-medved</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-174679188781-korzina-romashek-iz-hrizantem?editionuid=862089508361</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>КОРЗИНА РОМАШЕК из хризантем - 9</t>
+          <t>КОРЗИНА РОМАШЕК из хризантем - 51</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>3650</v>
+        <v>14900</v>
       </c>
       <c r="C343" t="inlineStr"/>
       <c r="D343" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6462-6261-4231-b161-623838343362/35127181.jpg</t>
+          <t>https://static.tildacdn.com/stor6433-3038-4363-a130-353261333636/29689047.jpg</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-174679188781-korzina-romashek-iz-hrizantem?editionuid=456287886831</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-174679188781-korzina-romashek-iz-hrizantem?editionuid=295574500062</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>КОРЗИНА РОМАШЕК из хризантем - 11</t>
+          <t>КОРЗИНА РОМАШЕК из хризантем - 101</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>4100</v>
+        <v>23990</v>
       </c>
       <c r="C344" t="inlineStr"/>
       <c r="D344" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3663-6331-4837-a661-626362363061/94340912.jpg</t>
+          <t>https://static.tildacdn.com/stor3861-3363-4864-b836-663831653462/25298990.jpg</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-174679188781-korzina-romashek-iz-hrizantem?editionuid=845116940031</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-174679188781-korzina-romashek-iz-hrizantem?editionuid=167066001212</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>КОРЗИНА РОМАШЕК из хризантем - 25</t>
+          <t>КОРЗИНА РОМАШЕК из хризантем - 15</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>9100</v>
+        <v>5750</v>
       </c>
       <c r="C345" t="inlineStr"/>
       <c r="D345" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6433-3038-4363-a130-353261333636/29689047.jpg</t>
+          <t>https://static.tildacdn.com/stor3462-3837-4339-b136-373366663565/97529689.jpg</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-174679188781-korzina-romashek-iz-hrizantem?editionuid=862089508361</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-174679188781-korzina-romashek-iz-hrizantem?editionuid=854699513312</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>КОРЗИНА РОМАШЕК из хризантем - 51</t>
+          <t>Корзина люкс</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>14900</v>
-      </c>
-      <c r="C346" t="inlineStr"/>
+        <v>39000</v>
+      </c>
+      <c r="C346" t="n">
+        <v>49990</v>
+      </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6433-3038-4363-a130-353261333636/29689047.jpg</t>
+          <t>https://static.tildacdn.com/stor3665-3335-4462-b738-363535393066/72943061.jpg</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-174679188781-korzina-romashek-iz-hrizantem?editionuid=295574500062</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-832446607671-korzina-lyuks</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>КОРЗИНА РОМАШЕК из хризантем - 101</t>
+          <t>Букет "Улыбка "</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>23990</v>
+        <v>4450</v>
       </c>
       <c r="C347" t="inlineStr"/>
       <c r="D347" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3861-3363-4864-b836-663831653462/25298990.jpg</t>
+          <t>https://static.tildacdn.com/stor3061-3038-4737-a139-323338396665/77387930.jpg</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-174679188781-korzina-romashek-iz-hrizantem?editionuid=167066001212</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-639588006771-buket-ulibka-</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>КОРЗИНА РОМАШЕК из хризантем - 15</t>
+          <t>Букет "Свидание"</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>5750</v>
-      </c>
-      <c r="C348" t="inlineStr"/>
+        <v>6250</v>
+      </c>
+      <c r="C348" t="n">
+        <v>7500</v>
+      </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3462-3837-4339-b136-373366663565/97529689.jpg</t>
+          <t>https://static.tildacdn.com/stor3733-6532-4265-a430-643866626163/43983847.jpg</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-174679188781-korzina-romashek-iz-hrizantem?editionuid=854699513312</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-719554914021-buket-svidanie</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Корзина люкс</t>
+          <t>Букет "Милашка"</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>39000</v>
+        <v>8950</v>
       </c>
       <c r="C349" t="n">
-        <v>49990</v>
+        <v>9990</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3665-3335-4462-b738-363535393066/72943061.jpg</t>
+          <t>https://static.tildacdn.com/stor3033-6433-4637-b666-346533306135/93848240.jpg</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-832446607671-korzina-lyuks</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-103213775721-buket-milashka</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Букет "Улыбка "</t>
+          <t>КОРЗИНА АЛЬСТРОМЕРИИ</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>4450</v>
-      </c>
-      <c r="C350" t="inlineStr"/>
+        <v>12999</v>
+      </c>
+      <c r="C350" t="n">
+        <v>15590</v>
+      </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3061-3038-4737-a139-323338396665/77387930.jpg</t>
+          <t>https://static.tildacdn.com/stor3063-3261-4239-b065-376335323134/13594109.jpg</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-639588006771-buket-ulibka-</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-337767923621-korzina-alstromerii</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Букет "Свидание"</t>
+          <t>Комплимент "НЕЖНОСТЬ"</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>6250</v>
-      </c>
-      <c r="C351" t="n">
-        <v>7500</v>
-      </c>
+        <v>3650</v>
+      </c>
+      <c r="C351" t="inlineStr"/>
       <c r="D351" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3733-6532-4265-a430-643866626163/43983847.jpg</t>
+          <t>https://static.tildacdn.com/stor3639-3537-4637-b334-343835343030/44921274.jpg</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-719554914021-buket-svidanie</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-559524591171-kompliment-nezhnost</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>КОРЗИНА АЛЬСТРОМЕРИИ</t>
+          <t>Комплимент "Дюшес"</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>12999</v>
+        <v>2450</v>
       </c>
       <c r="C352" t="n">
-        <v>15590</v>
+        <v>2600</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3063-3261-4239-b065-376335323134/13594109.jpg</t>
+          <t>https://static.tildacdn.com/stor3931-3233-4435-a435-613230333733/29080419.jpg</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-337767923621-korzina-alstromerii</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-660527432041-kompliment-dyushes</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Комплимент "НЕЖНОСТЬ"</t>
+          <t>ИГРУШКА) - Нет</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>3650</v>
+        <v>3300</v>
       </c>
       <c r="C353" t="inlineStr"/>
       <c r="D353" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3639-3537-4637-b334-343835343030/44921274.jpg</t>
+          <t>https://static.tildacdn.com/stor6564-3265-4165-b836-316637653438/14104172.jpg</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-559524591171-kompliment-nezhnost</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-236889112951-igrushka?editionuid=223863406172</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Комплимент "Дюшес"</t>
+          <t>ИГРУШКА) - Да</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>2450</v>
-      </c>
-      <c r="C354" t="n">
-        <v>2600</v>
-      </c>
+        <v>3550</v>
+      </c>
+      <c r="C354" t="inlineStr"/>
       <c r="D354" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3931-3233-4435-a435-613230333733/29080419.jpg</t>
+          <t>https://static.tildacdn.com/stor3361-6263-4639-b237-383237333030/83919482.jpg</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-660527432041-kompliment-dyushes</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-236889112951-igrushka?editionuid=119690417772</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>ИГРУШКА) - Нет</t>
+          <t>Букет ПЛОМБИР</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>3300</v>
+        <v>4100</v>
       </c>
       <c r="C355" t="inlineStr"/>
       <c r="D355" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6564-3265-4165-b836-316637653438/14104172.jpg</t>
+          <t>https://static.tildacdn.com/stor6262-6631-4563-a539-666230633333/16075438.jpg</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-236889112951-igrushka?editionuid=223863406172</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-437576209011-buket-plombir</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>ИГРУШКА) - Да</t>
+          <t>Комплимент "КРЕМ"</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>3550</v>
+        <v>3650</v>
       </c>
       <c r="C356" t="inlineStr"/>
       <c r="D356" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3361-6263-4639-b237-383237333030/83919482.jpg</t>
+          <t>https://static.tildacdn.com/stor6430-3531-4135-a633-303931373131/16463170.jpg</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-236889112951-igrushka?editionuid=119690417772</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-391414887741-kompliment-krem</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Букет ПЛОМБИР</t>
+          <t>Мишка-плюш с бантом "M"</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>4100</v>
+        <v>1850</v>
       </c>
       <c r="C357" t="inlineStr"/>
       <c r="D357" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6262-6631-4563-a539-666230633333/16075438.jpg</t>
+          <t>https://static.tildacdn.com/stor3861-3531-4361-b737-646332333164/65839106.jpg</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-437576209011-buket-plombir</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-763780152561-mishka-plyush-s-bantom-m</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Комплимент "КРЕМ"</t>
+          <t>Медведь большой Ягодка</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>3650</v>
+        <v>5500</v>
       </c>
       <c r="C358" t="inlineStr"/>
       <c r="D358" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6430-3531-4135-a633-303931373131/16463170.jpg</t>
+          <t>https://static.tildacdn.com/stor3361-3432-4163-b165-616433306430/44526455.jpg</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-391414887741-kompliment-krem</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-551329556541-medved-bolshoi-yagodka</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Мишка-плюш с бантом "M"</t>
+          <t>Мишка-плюш "S" беж.</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>1850</v>
+        <v>1300</v>
       </c>
       <c r="C359" t="inlineStr"/>
       <c r="D359" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3861-3531-4361-b737-646332333164/65839106.jpg</t>
+          <t>https://static.tildacdn.com/stor3735-3232-4230-b363-303739646231/14667432.jpg</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-763780152561-mishka-plyush-s-bantom-m</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-554350694011-mishka-plyush-s-bezh</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Медведь большой Ягодка</t>
+          <t>Мишка-плюш "S" белый</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>5500</v>
+        <v>1300</v>
       </c>
       <c r="C360" t="inlineStr"/>
       <c r="D360" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3361-3432-4163-b165-616433306430/44526455.jpg</t>
+          <t>https://static.tildacdn.com/stor6261-6461-4639-b830-623535303032/54965825.jpg</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-551329556541-medved-bolshoi-yagodka</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-292174636271-mishka-plyush-s-belii</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Мишка-плюш "S" беж.</t>
+          <t>Букет ГИПНОЗ</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>1300</v>
-      </c>
-      <c r="C361" t="inlineStr"/>
+        <v>6700</v>
+      </c>
+      <c r="C361" t="n">
+        <v>7200</v>
+      </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3735-3232-4230-b363-303739646231/14667432.jpg</t>
+          <t>https://static.tildacdn.com/stor3763-3431-4736-b439-363632386633/37134397.jpg</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-554350694011-mishka-plyush-s-bezh</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-362023850031-buket-gipnoz</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Мишка-плюш "S" белый</t>
+          <t>Коробка "Ангажемент "</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>1300</v>
+        <v>4300</v>
       </c>
       <c r="C362" t="inlineStr"/>
       <c r="D362" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6261-6461-4639-b830-623535303032/54965825.jpg</t>
+          <t>https://static.tildacdn.com/stor6363-3963-4364-a238-633236333363/13028423.jpg</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-292174636271-mishka-plyush-s-belii</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-359890373941-korobka-angazhement-</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Букет ГИПНОЗ</t>
+          <t>Коробка "Ангажемент Лайт"</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>6700</v>
-      </c>
-      <c r="C363" t="n">
-        <v>7200</v>
-      </c>
+        <v>4500</v>
+      </c>
+      <c r="C363" t="inlineStr"/>
       <c r="D363" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3763-3431-4736-b439-363632386633/37134397.jpg</t>
+          <t>https://static.tildacdn.com/stor6537-6664-4833-b033-343662313561/26722422.jpg</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-362023850031-buket-gipnoz</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-522766706011-korobka-angazhement-lait</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Коробка "Ангажемент "</t>
+          <t>51 роза нежный микс в корзине</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>4300</v>
-      </c>
-      <c r="C364" t="inlineStr"/>
+        <v>15750</v>
+      </c>
+      <c r="C364" t="n">
+        <v>18990</v>
+      </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6363-3963-4364-a238-633236333363/13028423.jpg</t>
+          <t>https://static.tildacdn.com/stor3733-3265-4436-a539-626133653530/77569907.jpg</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-359890373941-korobka-angazhement-</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-987092854851-51-roza-nezhnii-miks-v-korzine</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Коробка "Ангажемент Лайт"</t>
+          <t>Микс "Нежный "в шляпной коробке</t>
         </is>
       </c>
       <c r="B365" t="n">
         <v>4500</v>
       </c>
-      <c r="C365" t="inlineStr"/>
+      <c r="C365" t="n">
+        <v>4600</v>
+      </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6537-6664-4833-b033-343662313561/26722422.jpg</t>
+          <t>https://static.tildacdn.com/stor3962-3266-4430-b762-613863326537/35194428.jpg</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-522766706011-korobka-angazhement-lait</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-940945779031-miks-nezhnii-v-shlyapnoi-korobke</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>51 роза нежный микс в корзине</t>
+          <t>"Ванильное небо "в шляпной коробке лучшей маме на свете</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>15750</v>
+        <v>3890</v>
       </c>
       <c r="C366" t="n">
-        <v>18990</v>
+        <v>4500</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3733-3265-4436-a539-626133653530/77569907.jpg</t>
+          <t>https://static.tildacdn.com/stor3530-3138-4664-a365-636461383061/29872873.jpg</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-987092854851-51-roza-nezhnii-miks-v-korzine</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-654674837331-vanilnoe-nebo-v-shlyapnoi-korobke-luchsh</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Микс "Нежный "в шляпной коробке</t>
+          <t>"Ванильное небо "в шляпной коробке</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>4500</v>
-      </c>
-      <c r="C367" t="n">
-        <v>4600</v>
-      </c>
+        <v>4999</v>
+      </c>
+      <c r="C367" t="inlineStr"/>
       <c r="D367" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3962-3266-4430-b762-613863326537/35194428.jpg</t>
+          <t>https://static.tildacdn.com/stor6338-3661-4264-a238-663161626462/86539497.jpg</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-940945779031-miks-nezhnii-v-shlyapnoi-korobke</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-192732519511-vanilnoe-nebo-v-shlyapnoi-korobke</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>"Ванильное небо "в шляпной коробке лучшей маме на свете</t>
+          <t>"Мерилин "</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>3890</v>
+        <v>3650</v>
       </c>
       <c r="C368" t="n">
-        <v>4500</v>
+        <v>3999</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3530-3138-4664-a365-636461383061/29872873.jpg</t>
+          <t>https://static.tildacdn.com/stor6437-3261-4836-b665-353037326231/74437439.jpg</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-654674837331-vanilnoe-nebo-v-shlyapnoi-korobke-luchsh</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-570756966211-merilin-</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>"Ванильное небо "в шляпной коробке</t>
+          <t>Мон Амур - 25</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>4999</v>
+        <v>6800</v>
       </c>
       <c r="C369" t="inlineStr"/>
       <c r="D369" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6338-3661-4264-a238-663161626462/86539497.jpg</t>
+          <t>https://static.tildacdn.com/stor3564-6238-4537-b331-393231666534/39451674.jpg</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-192732519511-vanilnoe-nebo-v-shlyapnoi-korobke</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-488774775451-mon-amur?editionuid=330327920391</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>"Мерилин "</t>
+          <t>Мон Амур - 35</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>3650</v>
-      </c>
-      <c r="C370" t="n">
-        <v>3999</v>
-      </c>
+        <v>9300</v>
+      </c>
+      <c r="C370" t="inlineStr"/>
       <c r="D370" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6437-3261-4836-b665-353037326231/74437439.jpg</t>
+          <t>https://static.tildacdn.com/stor6530-3135-4634-a435-303833653537/62658586.jpg</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-570756966211-merilin-</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-488774775451-mon-amur?editionuid=460518387891</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Мон Амур - 25</t>
+          <t>Мон Амур - 51</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>6800</v>
-      </c>
-      <c r="C371" t="inlineStr"/>
+        <v>12990</v>
+      </c>
+      <c r="C371" t="n">
+        <v>17750</v>
+      </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3564-6238-4537-b331-393231666534/39451674.jpg</t>
+          <t>https://static.tildacdn.com/stor6530-3135-4634-a435-303833653537/62658586.jpg</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-488774775451-mon-amur?editionuid=330327920391</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-488774775451-mon-amur?editionuid=548699367961</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Мон Амур - 35</t>
+          <t>Мон Амур - 101</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>9300</v>
-      </c>
-      <c r="C372" t="inlineStr"/>
+        <v>24990</v>
+      </c>
+      <c r="C372" t="n">
+        <v>35600</v>
+      </c>
       <c r="D372" t="inlineStr">
         <is>
           <t>https://static.tildacdn.com/stor6530-3135-4634-a435-303833653537/62658586.jpg</t>
@@ -8547,685 +8549,681 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-488774775451-mon-amur?editionuid=460518387891</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-488774775451-mon-amur?editionuid=769488407402</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Мон Амур - 51</t>
+          <t>Коробка L с радужной гипсофилой для мамы</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>12990</v>
-      </c>
-      <c r="C373" t="n">
-        <v>17750</v>
-      </c>
+        <v>3799</v>
+      </c>
+      <c r="C373" t="inlineStr"/>
       <c r="D373" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6530-3135-4634-a435-303833653537/62658586.jpg</t>
+          <t>https://static.tildacdn.com/stor3634-6566-4338-b733-663135306263/58897006.jpg</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-488774775451-mon-amur?editionuid=548699367961</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-600666953471-korobka-l-s-raduzhnoi-gipsofiloi-dlya-ma</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Мон Амур - 101</t>
+          <t>Коробка для мамы с гипсофилой M</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>24990</v>
-      </c>
-      <c r="C374" t="n">
-        <v>35600</v>
-      </c>
+        <v>2999</v>
+      </c>
+      <c r="C374" t="inlineStr"/>
       <c r="D374" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6530-3135-4634-a435-303833653537/62658586.jpg</t>
+          <t>https://static.tildacdn.com/stor6534-3033-4361-a336-343962343961/44420144.jpg</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-488774775451-mon-amur?editionuid=769488407402</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-582942710541-korobka-dlya-mami-s-gipsofiloi-m</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Коробка L с радужной гипсофилой для мамы</t>
+          <t>101 роза нежный микс в корзине</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>3799</v>
-      </c>
-      <c r="C375" t="inlineStr"/>
+        <v>27990</v>
+      </c>
+      <c r="C375" t="n">
+        <v>33500</v>
+      </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3634-6566-4338-b733-663135306263/58897006.jpg</t>
+          <t>https://static.tildacdn.com/stor6439-3961-4033-a239-613063663235/53251246.jpg</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-600666953471-korobka-l-s-raduzhnoi-gipsofiloi-dlya-ma</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-251477018101-101-roza-nezhnii-miks-v-korzine</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Коробка для мамы с гипсофилой M</t>
+          <t>Букет ЛЕТО с хризантемами и ромашками</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>2999</v>
+        <v>3100</v>
       </c>
       <c r="C376" t="inlineStr"/>
       <c r="D376" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6534-3033-4361-a336-343962343961/44420144.jpg</t>
+          <t>https://static.tildacdn.com/stor3134-6132-4238-b161-343433346231/88471835.jpg</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-582942710541-korobka-dlya-mami-s-gipsofiloi-m</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-821180964631-buket-leto-s-hrizantemami-i-romashkami</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>101 роза нежный микс в корзине</t>
+          <t>Букет АРОМАТ</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>27990</v>
-      </c>
-      <c r="C377" t="n">
-        <v>33500</v>
-      </c>
+        <v>2700</v>
+      </c>
+      <c r="C377" t="inlineStr"/>
       <c r="D377" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6439-3961-4033-a239-613063663235/53251246.jpg</t>
+          <t>https://static.tildacdn.com/stor3837-6639-4439-b637-613064363466/87696411.jpg</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-251477018101-101-roza-nezhnii-miks-v-korzine</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-489100649391-buket-aromat</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Букет ЛЕТО с хризантемами и ромашками</t>
+          <t>Вставка сердце в букет</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>3100</v>
+        <v>250</v>
       </c>
       <c r="C378" t="inlineStr"/>
       <c r="D378" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3134-6132-4238-b161-343433346231/88471835.jpg</t>
+          <t>https://static.tildacdn.com/stor3230-6663-4066-b534-643662323937/62263476.jpg</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-821180964631-buket-leto-s-hrizantemami-i-romashkami</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-974556600091-vstavka-serdtse-v-buket</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Букет АРОМАТ</t>
+          <t>Букет ФЕЯ</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>2700</v>
-      </c>
-      <c r="C379" t="inlineStr"/>
+        <v>3890</v>
+      </c>
+      <c r="C379" t="n">
+        <v>4000</v>
+      </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3837-6639-4439-b637-613064363466/87696411.jpg</t>
+          <t>https://static.tildacdn.com/stor3333-6334-4865-b463-363036343536/77073318.jpg</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-489100649391-buket-aromat</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-720813660271-buket-feya</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Вставка сердце в букет</t>
+          <t>Букет "Стильный микс" с орхидеями</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>250</v>
-      </c>
-      <c r="C380" t="inlineStr"/>
+        <v>5300</v>
+      </c>
+      <c r="C380" t="n">
+        <v>5900</v>
+      </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3230-6663-4066-b534-643662323937/62263476.jpg</t>
+          <t>https://static.tildacdn.com/stor3438-3261-4464-a639-333432623737/58155197.jpg</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-974556600091-vstavka-serdtse-v-buket</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-704877065131-buket-stilnii-miks-s-orhideyami</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Букет ФЕЯ</t>
+          <t>Букет 11 красных роз с кустовыми розами в красивом оформлении</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>3890</v>
-      </c>
-      <c r="C381" t="n">
-        <v>4000</v>
-      </c>
+        <v>7200</v>
+      </c>
+      <c r="C381" t="inlineStr"/>
       <c r="D381" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3333-6334-4865-b463-363036343536/77073318.jpg</t>
+          <t>https://static.tildacdn.com/stor3337-6636-4435-b631-343863306433/59411787.jpg</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-720813660271-buket-feya</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-335025577601-buket-11-krasnih-roz-s-kustovimi-rozami</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Букет "Стильный микс" с орхидеями</t>
+          <t>Букет ПЕРВАЯ ЛЮБОВЬ - Xl</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>5300</v>
-      </c>
-      <c r="C382" t="n">
-        <v>5900</v>
-      </c>
+        <v>4690</v>
+      </c>
+      <c r="C382" t="inlineStr"/>
       <c r="D382" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3438-3261-4464-a639-333432623737/58155197.jpg</t>
+          <t>https://static.tildacdn.com/stor3239-3737-4435-a633-613836386633/51111587.jpg</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-704877065131-buket-stilnii-miks-s-orhideyami</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-659712674101-buket-pervaya-lyubov?editionuid=958551503321</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Букет 11 красных роз с кустовыми розами в красивом оформлении</t>
+          <t>Букет ПЕРВАЯ ЛЮБОВЬ - L</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>7200</v>
+        <v>3500</v>
       </c>
       <c r="C383" t="inlineStr"/>
       <c r="D383" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3337-6636-4435-b631-343863306433/59411787.jpg</t>
+          <t>https://static.tildacdn.com/stor6666-6663-4466-b936-653534393765/80171896.jpg</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-335025577601-buket-11-krasnih-roz-s-kustovimi-rozami</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-659712674101-buket-pervaya-lyubov?editionuid=138048727071</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Букет ПЕРВАЯ ЛЮБОВЬ - Xl</t>
+          <t>Комплимент из пионовидных роз в оформлении - 7</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>4690</v>
+        <v>2650</v>
       </c>
       <c r="C384" t="inlineStr"/>
       <c r="D384" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3239-3737-4435-a633-613836386633/51111587.jpg</t>
+          <t>https://static.tildacdn.com/stor3437-6163-4565-a262-326664653130/42939189.jpg</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-659712674101-buket-pervaya-lyubov?editionuid=958551503321</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-597405396191-kompliment-iz-pionovidnih-roz-v-oformlen?editionuid=308194824921</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Букет ПЕРВАЯ ЛЮБОВЬ - L</t>
+          <t>Комплимент из пионовидных роз в оформлении - 9</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>3500</v>
+        <v>3250</v>
       </c>
       <c r="C385" t="inlineStr"/>
       <c r="D385" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6666-6663-4466-b936-653534393765/80171896.jpg</t>
+          <t>https://static.tildacdn.com/stor3730-6336-4237-a665-313838623331/13509496.jpg</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-659712674101-buket-pervaya-lyubov?editionuid=138048727071</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-597405396191-kompliment-iz-pionovidnih-roz-v-oformlen?editionuid=302968644811</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Комплимент из пионовидных роз в оформлении - 7</t>
+          <t>Комплимент из пионовидных роз в оформлении - 11</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>2650</v>
+        <v>3850</v>
       </c>
       <c r="C386" t="inlineStr"/>
       <c r="D386" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3437-6163-4565-a262-326664653130/42939189.jpg</t>
+          <t>https://static.tildacdn.com/stor3965-3561-4438-b732-376434653936/64677586.jpg</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-597405396191-kompliment-iz-pionovidnih-roz-v-oformlen?editionuid=308194824921</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-597405396191-kompliment-iz-pionovidnih-roz-v-oformlen?editionuid=266242456331</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Комплимент из пионовидных роз в оформлении - 9</t>
+          <t>Букет ТВОЙ ДЕНЬ</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>3250</v>
+        <v>3590</v>
       </c>
       <c r="C387" t="inlineStr"/>
       <c r="D387" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3730-6336-4237-a665-313838623331/13509496.jpg</t>
+          <t>https://static.tildacdn.com/stor3434-6538-4239-b135-306430353463/13446289.jpg</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-597405396191-kompliment-iz-pionovidnih-roz-v-oformlen?editionuid=302968644811</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-845612782351-buket-tvoi-den</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Комплимент из пионовидных роз в оформлении - 11</t>
+          <t>ВАУ КОРЗИНА ОРХИДЕЙ</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>3850</v>
+        <v>32990</v>
       </c>
       <c r="C388" t="inlineStr"/>
       <c r="D388" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3965-3561-4438-b732-376434653936/64677586.jpg</t>
+          <t>https://static.tildacdn.com/stor6232-6239-4333-b864-323133363433/21466466.jpg</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-597405396191-kompliment-iz-pionovidnih-roz-v-oformlen?editionuid=266242456331</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-522713984731-vau-korzina-orhidei</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Букет ТВОЙ ДЕНЬ</t>
+          <t>КОМПЛИМЕНТ "НЕЖЕНКА"</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>3590</v>
+        <v>2250</v>
       </c>
       <c r="C389" t="inlineStr"/>
       <c r="D389" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3434-6538-4239-b135-306430353463/13446289.jpg</t>
+          <t>https://static.tildacdn.com/stor3734-3730-4135-a565-386666386134/91097418.jpg</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-845612782351-buket-tvoi-den</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-500037248201-kompliment-nezhenka</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Ромашкина любовь</t>
+          <t>Букет РАДУЖНЫЙ</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>10990</v>
-      </c>
-      <c r="C390" t="inlineStr"/>
+        <v>2700</v>
+      </c>
+      <c r="C390" t="n">
+        <v>3450</v>
+      </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6165-3562-4761-b936-303433316233/50013829.jpg</t>
+          <t>https://static.tildacdn.com/stor6464-6336-4230-b836-643663653338/18214303.jpg</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-950411727471-romashkina-lyubov</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-290729033721-buket-raduzhnii</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>ВАУ КОРЗИНА ОРХИДЕЙ</t>
+          <t>Гипсофила от всего сердца</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>32990</v>
+        <v>3200</v>
       </c>
       <c r="C391" t="inlineStr"/>
       <c r="D391" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6232-6239-4333-b864-323133363433/21466466.jpg</t>
+          <t>https://static.tildacdn.com/stor3531-6530-4836-a565-643263303762/33953573.jpg</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-522713984731-vau-korzina-orhidei</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-398838219472-gipsofila-ot-vsego-serdtsa</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>КОМПЛИМЕНТ "НЕЖЕНКА"</t>
+          <t>Букет " ТЕБЕ КОНФЕТКА"</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>2250</v>
+        <v>3600</v>
       </c>
       <c r="C392" t="inlineStr"/>
       <c r="D392" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3734-3730-4135-a565-386666386134/91097418.jpg</t>
+          <t>https://static.tildacdn.com/stor3863-3438-4534-a566-343962323762/19778219.jpg</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-500037248201-kompliment-nezhenka</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-843977882512-buket-tebe-konfetka</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Букет РАДУЖНЫЙ</t>
+          <t>Букет МАЛИНОВОЕ СУФЛЕ</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>2700</v>
-      </c>
-      <c r="C393" t="n">
-        <v>3450</v>
-      </c>
+        <v>3600</v>
+      </c>
+      <c r="C393" t="inlineStr"/>
       <c r="D393" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6464-6336-4230-b836-643663653338/18214303.jpg</t>
+          <t>https://static.tildacdn.com/stor3839-3732-4230-b263-356135623338/81392984.jpg</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-290729033721-buket-raduzhnii</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-910512563562-buket-malinovoe-sufle</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Гипсофила от всего сердца</t>
+          <t>Букет СИНЯЯ ОРХИДЕЯ</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>3200</v>
+        <v>5650</v>
       </c>
       <c r="C394" t="inlineStr"/>
       <c r="D394" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3531-6530-4836-a565-643263303762/33953573.jpg</t>
+          <t>https://static.tildacdn.com/stor6162-3435-4736-b964-373535626539/31455574.jpg</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-398838219472-gipsofila-ot-vsego-serdtsa</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-907367951302-buket-sinyaya-orhideya</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Букет " ТЕБЕ КОНФЕТКА"</t>
+          <t>51 пионовидная кустовая роза в нежном оформлении</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>3600</v>
-      </c>
-      <c r="C395" t="inlineStr"/>
+        <v>15500</v>
+      </c>
+      <c r="C395" t="n">
+        <v>18000</v>
+      </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3863-3438-4534-a566-343962323762/19778219.jpg</t>
+          <t>https://static.tildacdn.com/stor3634-3734-4461-b561-613532326164/47005492.jpg</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-843977882512-buket-tebe-konfetka</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-420829464592-51-pionovidnaya-kustovaya-roza-v-nezhnom</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Букет МАЛИНОВОЕ СУФЛЕ</t>
+          <t>Букет РОМАНТИКА</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>3600</v>
-      </c>
-      <c r="C396" t="inlineStr"/>
+        <v>4150</v>
+      </c>
+      <c r="C396" t="n">
+        <v>5790</v>
+      </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3839-3732-4230-b263-356135623338/81392984.jpg</t>
+          <t>https://static.tildacdn.com/stor6236-3638-4164-b265-643862396434/56613877.jpg</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-910512563562-buket-malinovoe-sufle</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-359890420482-buket-romantika</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Букет СИНЯЯ ОРХИДЕЯ</t>
+          <t>Комплимент с маттиолой</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>5650</v>
+        <v>1800</v>
       </c>
       <c r="C397" t="inlineStr"/>
       <c r="D397" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6162-3435-4736-b964-373535626539/31455574.jpg</t>
+          <t>https://static.tildacdn.com/stor3634-3738-4766-b239-623731653165/17661798.jpg</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-907367951302-buket-sinyaya-orhideya</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-232892230242-kompliment-s-mattioloi</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>51 пионовидная кустовая роза в нежном оформлении</t>
+          <t>Пионовидные кустовые розы в оформлении - 9</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>15500</v>
-      </c>
-      <c r="C398" t="n">
-        <v>18000</v>
-      </c>
+        <v>3650</v>
+      </c>
+      <c r="C398" t="inlineStr"/>
       <c r="D398" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3634-3734-4461-b561-613532326164/47005492.jpg</t>
+          <t>https://static.tildacdn.com/stor3364-3334-4339-b730-653536623666/41200469.jpg</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-420829464592-51-pionovidnaya-kustovaya-roza-v-nezhnom</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-883743434962-pionovidnie-kustovie-rozi-v-oformlenii?editionuid=762768049002</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Букет РОМАНТИКА</t>
+          <t>Пионовидные кустовые розы в оформлении - 11</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>4150</v>
-      </c>
-      <c r="C399" t="n">
-        <v>5790</v>
-      </c>
+        <v>4400</v>
+      </c>
+      <c r="C399" t="inlineStr"/>
       <c r="D399" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6236-3638-4164-b265-643862396434/56613877.jpg</t>
+          <t>https://static.tildacdn.com/stor3564-6135-4630-b531-356538373065/45691131.jpg</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-359890420482-buket-romantika</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-883743434962-pionovidnie-kustovie-rozi-v-oformlenii?editionuid=231966809752</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Комплимент с маттиолой</t>
+          <t>Пионовидные кустовые розы в оформлении - 15</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>1800</v>
+        <v>5500</v>
       </c>
       <c r="C400" t="inlineStr"/>
       <c r="D400" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3634-3738-4766-b239-623731653165/17661798.jpg</t>
+          <t>https://static.tildacdn.com/stor6530-3165-4131-b634-353939346238/45754421.jpg</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-232892230242-kompliment-s-mattioloi</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-883743434962-pionovidnie-kustovie-rozi-v-oformlenii?editionuid=197416122812</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Пионовидные кустовые розы в оформлении - 9</t>
+          <t>Пионовидные кустовые розы в оформлении - 25</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>3650</v>
+        <v>9500</v>
       </c>
       <c r="C401" t="inlineStr"/>
       <c r="D401" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3364-3334-4339-b730-653536623666/41200469.jpg</t>
+          <t>https://static.tildacdn.com/stor6166-6339-4931-a536-383533343232/59431960.jpg</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-883743434962-pionovidnie-kustovie-rozi-v-oformlenii?editionuid=762768049002</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-883743434962-pionovidnie-kustovie-rozi-v-oformlenii?editionuid=531645917332</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Пионовидные кустовые розы в оформлении - 11</t>
+          <t>Пионовидные кустовые розы в оформлении - 35</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>4400</v>
+        <v>12900</v>
       </c>
       <c r="C402" t="inlineStr"/>
       <c r="D402" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3564-6135-4630-b531-356538373065/45691131.jpg</t>
+          <t>https://static.tildacdn.com/stor6166-6339-4931-a536-383533343232/59431960.jpg</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-883743434962-pionovidnie-kustovie-rozi-v-oformlenii?editionuid=231966809752</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-883743434962-pionovidnie-kustovie-rozi-v-oformlenii?editionuid=172751700112</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Пионовидные кустовые розы в оформлении - 15</t>
+          <t>Пионовидные кустовые розы в оформлении - 51</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>5500</v>
+        <v>15900</v>
       </c>
       <c r="C403" t="inlineStr"/>
       <c r="D403" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6530-3165-4131-b634-353939346238/45754421.jpg</t>
+          <t>https://static.tildacdn.com/stor6166-6339-4931-a536-383533343232/59431960.jpg</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-883743434962-pionovidnie-kustovie-rozi-v-oformlenii?editionuid=197416122812</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-883743434962-pionovidnie-kustovie-rozi-v-oformlenii?editionuid=261066938402</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Пионовидные кустовые розы в оформлении - 25</t>
+          <t>Пионовидные кустовые розы в оформлении - 101</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>9500</v>
+        <v>31100</v>
       </c>
       <c r="C404" t="inlineStr"/>
       <c r="D404" t="inlineStr">
@@ -9235,404 +9233,341 @@
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-883743434962-pionovidnie-kustovie-rozi-v-oformlenii?editionuid=531645917332</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-883743434962-pionovidnie-kustovie-rozi-v-oformlenii?editionuid=818806872532</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Пионовидные кустовые розы в оформлении - 35</t>
+          <t>ХРИЗАНТЕМНЫЙ ХИТ с ароматным эвкалиптом - 7</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>12900</v>
+        <v>2800</v>
       </c>
       <c r="C405" t="inlineStr"/>
       <c r="D405" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6166-6339-4931-a536-383533343232/59431960.jpg</t>
+          <t>https://static.tildacdn.com/stor6161-6130-4532-b930-666332343033/85650724.jpg</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-883743434962-pionovidnie-kustovie-rozi-v-oformlenii?editionuid=172751700112</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-115432094412-hrizantemnii-hit-s-aromatnim-evkaliptom?editionuid=567905219022</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Пионовидные кустовые розы в оформлении - 51</t>
+          <t>ХРИЗАНТЕМНЫЙ ХИТ с ароматным эвкалиптом - 9</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>15900</v>
+        <v>3500</v>
       </c>
       <c r="C406" t="inlineStr"/>
       <c r="D406" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6166-6339-4931-a536-383533343232/59431960.jpg</t>
+          <t>https://static.tildacdn.com/stor6161-6130-4532-b930-666332343033/85650724.jpg</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-883743434962-pionovidnie-kustovie-rozi-v-oformlenii?editionuid=261066938402</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-115432094412-hrizantemnii-hit-s-aromatnim-evkaliptom?editionuid=644036935612</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Пионовидные кустовые розы в оформлении - 101</t>
+          <t>ХРИЗАНТЕМНЫЙ ХИТ с ароматным эвкалиптом - 15</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>31100</v>
+        <v>5500</v>
       </c>
       <c r="C407" t="inlineStr"/>
       <c r="D407" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6166-6339-4931-a536-383533343232/59431960.jpg</t>
+          <t>https://static.tildacdn.com/stor3532-3633-4461-b437-343834656232/90309562.jpg</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-883743434962-pionovidnie-kustovie-rozi-v-oformlenii?editionuid=818806872532</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-115432094412-hrizantemnii-hit-s-aromatnim-evkaliptom?editionuid=726938892802</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>ХРИЗАНТЕМНЫЙ ХИТ с ароматным эвкалиптом - 7</t>
+          <t>ХРИЗАНТЕМНЫЙ ХИТ с ароматным эвкалиптом - 25</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>2800</v>
+        <v>8700</v>
       </c>
       <c r="C408" t="inlineStr"/>
       <c r="D408" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6161-6130-4532-b930-666332343033/85650724.jpg</t>
+          <t>https://static.tildacdn.com/stor3430-3636-4034-b134-346533313532/67329986.jpg</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-115432094412-hrizantemnii-hit-s-aromatnim-evkaliptom?editionuid=567905219022</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-115432094412-hrizantemnii-hit-s-aromatnim-evkaliptom?editionuid=114889111492</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>ХРИЗАНТЕМНЫЙ ХИТ с ароматным эвкалиптом - 9</t>
+          <t>ХРИЗАНТЕМНЫЙ ХИТ с ароматным эвкалиптом - 51</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>3500</v>
+        <v>15900</v>
       </c>
       <c r="C409" t="inlineStr"/>
       <c r="D409" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6161-6130-4532-b930-666332343033/85650724.jpg</t>
+          <t>https://static.tildacdn.com/stor3430-3636-4034-b134-346533313532/67329986.jpg</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-115432094412-hrizantemnii-hit-s-aromatnim-evkaliptom?editionuid=644036935612</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-115432094412-hrizantemnii-hit-s-aromatnim-evkaliptom?editionuid=505843168492</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>ХРИЗАНТЕМНЫЙ ХИТ с ароматным эвкалиптом - 15</t>
+          <t>Подарочный набор для мамы 1</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>5500</v>
+        <v>3990</v>
       </c>
       <c r="C410" t="inlineStr"/>
       <c r="D410" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3532-3633-4461-b437-343834656232/90309562.jpg</t>
+          <t>https://static.tildacdn.com/stor3034-6266-4430-a335-333262613362/59813076.jpg</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-115432094412-hrizantemnii-hit-s-aromatnim-evkaliptom?editionuid=726938892802</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-786253932122-podarochnii-nabor-dlya-mami-1</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>ХРИЗАНТЕМНЫЙ ХИТ с ароматным эвкалиптом - 25</t>
+          <t>Подарок для мамы 2</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>8700</v>
+        <v>4990</v>
       </c>
       <c r="C411" t="inlineStr"/>
       <c r="D411" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3430-3636-4034-b134-346533313532/67329986.jpg</t>
+          <t>https://static.tildacdn.com/stor6463-3033-4463-b465-336631396138/43923411.jpg</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-115432094412-hrizantemnii-hit-s-aromatnim-evkaliptom?editionuid=114889111492</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-738379822212-podarok-dlya-mami-2</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>ХРИЗАНТЕМНЫЙ ХИТ с ароматным эвкалиптом - 51</t>
+          <t>Подарок для мамы 3 селебрити</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>15900</v>
+        <v>5199</v>
       </c>
       <c r="C412" t="inlineStr"/>
       <c r="D412" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3430-3636-4034-b134-346533313532/67329986.jpg</t>
+          <t>https://static.tildacdn.com/stor3034-6266-4430-a335-333262613362/59813076.jpg</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-115432094412-hrizantemnii-hit-s-aromatnim-evkaliptom?editionuid=505843168492</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-307373021402-podarok-dlya-mami-3-selebriti</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Подарочный набор для мамы 1</t>
+          <t>Подарочный бокс Рафаэлло</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>3990</v>
+        <v>2300</v>
       </c>
       <c r="C413" t="inlineStr"/>
       <c r="D413" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3034-6266-4430-a335-333262613362/59813076.jpg</t>
+          <t>https://static.tildacdn.com/stor3132-3163-4362-b936-303066363765/67414703.jpg</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-786253932122-podarochnii-nabor-dlya-mami-1</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-291016517802-podarochnii-boks-rafaello</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Подарок для мамы 2</t>
+          <t>Мишка "Валентин"</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>4990</v>
+        <v>1300</v>
       </c>
       <c r="C414" t="inlineStr"/>
       <c r="D414" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6463-3033-4463-b465-336631396138/43923411.jpg</t>
+          <t>https://static.tildacdn.com/stor6237-3065-4533-a239-366234626365/19817249.jpg</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-738379822212-podarok-dlya-mami-2</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-630681598512-mishka-valentin</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Подарок для мамы 3 селебрити</t>
+          <t>Котик - 25см</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>5199</v>
+        <v>1200</v>
       </c>
       <c r="C415" t="inlineStr"/>
       <c r="D415" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3034-6266-4430-a335-333262613362/59813076.jpg</t>
+          <t>https://static.tildacdn.com/stor3737-6166-4664-a139-353931396239/38823458.jpg</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-307373021402-podarok-dlya-mami-3-selebriti</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-863762674412-kotik?editionuid=707456987082</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Подарочный бокс Рафаэлло</t>
+          <t>Котик - 35см</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>2300</v>
+        <v>1850</v>
       </c>
       <c r="C416" t="inlineStr"/>
       <c r="D416" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3132-3163-4362-b936-303066363765/67414703.jpg</t>
+          <t>https://static.tildacdn.com/stor3737-6166-4664-a139-353931396239/38823458.jpg</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-291016517802-podarochnii-boks-rafaello</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-863762674412-kotik?editionuid=932117895852</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Мишка "Валентин"</t>
+          <t>Мишка Милые глазки - 25см</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="C417" t="inlineStr"/>
       <c r="D417" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor6237-3065-4533-a239-366234626365/19817249.jpg</t>
+          <t>https://static.tildacdn.com/stor3738-6530-4433-b733-383763306638/66223016.jpg</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-630681598512-mishka-valentin</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-138877637952-mishka-milie-glazki?editionuid=689680733112</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Котик - 25см</t>
+          <t>Мишка Милые глазки - 35см</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>1200</v>
+        <v>1850</v>
       </c>
       <c r="C418" t="inlineStr"/>
       <c r="D418" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3737-6166-4664-a139-353931396239/38823458.jpg</t>
+          <t>https://static.tildacdn.com/stor3738-6530-4433-b733-383763306638/66223016.jpg</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-863762674412-kotik?editionuid=707456987082</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-138877637952-mishka-milie-glazki?editionuid=511053776132</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Котик - 35см</t>
+          <t>Гипсофила от всего сердца</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>1850</v>
+        <v>4550</v>
       </c>
       <c r="C419" t="inlineStr"/>
       <c r="D419" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3737-6166-4664-a139-353931396239/38823458.jpg</t>
+          <t>https://static.tildacdn.com/stor6565-3231-4933-b332-373334633831/91612642.jpg</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-863762674412-kotik?editionuid=932117895852</t>
+          <t>https://ohapka-flowers.ru/tproduct/802241395-745191202102-gipsofila-ot-vsego-serdtsa</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Мишка Милые глазки - 25см</t>
+          <t>Букет ЭКСЛЮЗИВ</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>1100</v>
+        <v>7200</v>
       </c>
       <c r="C420" t="inlineStr"/>
       <c r="D420" t="inlineStr">
         <is>
-          <t>https://static.tildacdn.com/stor3738-6530-4433-b733-383763306638/66223016.jpg</t>
+          <t>https://static.tildacdn.com/stor3465-6139-4161-b636-326631643031/80766082.jpg</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
-        <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-138877637952-mishka-milie-glazki?editionuid=689680733112</t>
-        </is>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="inlineStr">
-        <is>
-          <t>Мишка Милые глазки - 35см</t>
-        </is>
-      </c>
-      <c r="B421" t="n">
-        <v>1850</v>
-      </c>
-      <c r="C421" t="inlineStr"/>
-      <c r="D421" t="inlineStr">
-        <is>
-          <t>https://static.tildacdn.com/stor3738-6530-4433-b733-383763306638/66223016.jpg</t>
-        </is>
-      </c>
-      <c r="E421" t="inlineStr">
-        <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-138877637952-mishka-milie-glazki?editionuid=511053776132</t>
-        </is>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="inlineStr">
-        <is>
-          <t>Гипсофила от всего сердца</t>
-        </is>
-      </c>
-      <c r="B422" t="n">
-        <v>4550</v>
-      </c>
-      <c r="C422" t="inlineStr"/>
-      <c r="D422" t="inlineStr">
-        <is>
-          <t>https://static.tildacdn.com/stor6565-3231-4933-b332-373334633831/91612642.jpg</t>
-        </is>
-      </c>
-      <c r="E422" t="inlineStr">
-        <is>
-          <t>https://ohapka-flowers.ru/tproduct/802241395-745191202102-gipsofila-ot-vsego-serdtsa</t>
-        </is>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="inlineStr">
-        <is>
-          <t>Букет ЭКСЛЮЗИВ</t>
-        </is>
-      </c>
-      <c r="B423" t="n">
-        <v>7200</v>
-      </c>
-      <c r="C423" t="inlineStr"/>
-      <c r="D423" t="inlineStr">
-        <is>
-          <t>https://static.tildacdn.com/stor3465-6139-4161-b636-326631643031/80766082.jpg</t>
-        </is>
-      </c>
-      <c r="E423" t="inlineStr">
         <is>
           <t>https://ohapka-flowers.ru/tproduct/802241395-655606921272-buket-ekslyuziv</t>
         </is>
